--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -1872,11 +1872,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="188478504"/>
-        <c:axId val="188475760"/>
+        <c:axId val="187790544"/>
+        <c:axId val="187795640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188478504"/>
+        <c:axId val="187790544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188475760"/>
+        <c:crossAx val="187795640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1893,7 +1893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188475760"/>
+        <c:axId val="187795640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188478504"/>
+        <c:crossAx val="187790544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="252">
   <si>
     <t>Patient</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>Chris Results</t>
+  </si>
+  <si>
+    <t>thiran</t>
+  </si>
+  <si>
+    <t>thiran Results</t>
   </si>
 </sst>
 </file>
@@ -1878,11 +1884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201494472"/>
-        <c:axId val="201490552"/>
+        <c:axId val="234546248"/>
+        <c:axId val="234546640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201494472"/>
+        <c:axId val="234546248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201490552"/>
+        <c:crossAx val="234546640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1899,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201490552"/>
+        <c:axId val="234546640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201494472"/>
+        <c:crossAx val="234546248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2252,10 +2258,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2284,9 @@
     <col min="21" max="21" width="12.625" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="34" customWidth="1"/>
     <col min="23" max="23" width="13" style="34" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="9" style="34" customWidth="1"/>
+    <col min="24" max="24" width="9" style="34" customWidth="1"/>
+    <col min="25" max="25" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9" style="34" customWidth="1"/>
     <col min="32" max="112" width="9" style="29"/>
     <col min="113" max="16368" width="9" style="6"/>
     <col min="16369" max="16383" width="9.375" style="32" bestFit="1" customWidth="1"/>
@@ -2353,8 +2361,12 @@
       <c r="W1" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="X1" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>251</v>
+      </c>
       <c r="Z1" s="38"/>
       <c r="AA1" s="38"/>
       <c r="AB1" s="38"/>
@@ -2449,8 +2461,13 @@
         <f>IF(V2=S2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="X2" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="45">
+        <f>IF(X2=S2,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
@@ -2624,8 +2641,13 @@
         <f t="shared" ref="W3:W19" si="2">IF(V3=S3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="X3" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="45">
+        <f t="shared" ref="Y3:Y66" si="3">IF(X3=S3,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
       <c r="AB3" s="45"/>
@@ -2799,8 +2821,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
+      <c r="X4" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
       <c r="AB4" s="45"/>
@@ -2975,8 +3002,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
+      <c r="X5" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
       <c r="AB5" s="45"/>
@@ -3151,8 +3183,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
+      <c r="X6" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
@@ -3327,8 +3364,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
+      <c r="X7" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
       <c r="AB7" s="45"/>
@@ -3503,8 +3545,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
+      <c r="X8" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
@@ -3678,8 +3725,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
+      <c r="X9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
@@ -3853,8 +3905,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
+      <c r="X10" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
       <c r="AB10" s="45"/>
@@ -4028,8 +4085,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
+      <c r="X11" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
       <c r="AB11" s="45"/>
@@ -4203,8 +4265,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
+      <c r="X12" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
       <c r="AB12" s="45"/>
@@ -4378,8 +4445,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
+      <c r="X13" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
@@ -4553,8 +4625,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
+      <c r="X14" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
       <c r="AB14" s="45"/>
@@ -4648,8 +4725,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
+      <c r="X15" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
@@ -4823,8 +4905,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
+      <c r="X16" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
       <c r="AB16" s="45"/>
@@ -4998,8 +5085,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
+      <c r="X17" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
@@ -5173,8 +5265,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
+      <c r="X18" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
@@ -5348,8 +5445,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
+      <c r="X19" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
@@ -5523,8 +5625,13 @@
         <f>IF(V20=S20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
+      <c r="X20" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
@@ -5695,11 +5802,16 @@
         <v>3</v>
       </c>
       <c r="W21" s="45">
-        <f t="shared" ref="W21:W84" si="3">IF(V21=S21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
+        <f t="shared" ref="W21:W84" si="4">IF(V21=S21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
@@ -5870,11 +5982,16 @@
         <v>3</v>
       </c>
       <c r="W22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
@@ -6045,11 +6162,16 @@
         <v>2</v>
       </c>
       <c r="W23" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
@@ -6220,11 +6342,16 @@
         <v>5</v>
       </c>
       <c r="W24" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
@@ -6395,11 +6522,16 @@
         <v>4</v>
       </c>
       <c r="W25" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
@@ -6570,11 +6702,16 @@
         <v>1</v>
       </c>
       <c r="W26" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
@@ -6745,11 +6882,16 @@
         <v>2</v>
       </c>
       <c r="W27" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
@@ -6920,11 +7062,16 @@
         <v>1</v>
       </c>
       <c r="W28" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
@@ -7015,11 +7162,16 @@
         <v>3</v>
       </c>
       <c r="W29" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
+        <v>1</v>
+      </c>
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
       <c r="AB29" s="45"/>
@@ -7190,11 +7342,16 @@
         <v>3</v>
       </c>
       <c r="W30" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="45"/>
@@ -7368,8 +7525,13 @@
         <f>IF(V31=S31,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
+      <c r="X31" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
       <c r="AB31" s="45"/>
@@ -7540,11 +7702,16 @@
         <v>2</v>
       </c>
       <c r="W32" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
@@ -7715,11 +7882,16 @@
         <v>3</v>
       </c>
       <c r="W33" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X33" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
@@ -7836,7 +8008,7 @@
         <v>14269</v>
       </c>
       <c r="E34" s="52">
-        <f t="shared" ref="E34:E65" ca="1" si="4">INT((TODAY()-D34)/365.25)</f>
+        <f t="shared" ref="E34:E65" ca="1" si="5">INT((TODAY()-D34)/365.25)</f>
         <v>75</v>
       </c>
       <c r="F34" s="17">
@@ -7883,18 +8055,23 @@
         <v>5</v>
       </c>
       <c r="U34" s="17">
-        <f t="shared" ref="U34:U65" si="5">IF(S34=T34,1,0)</f>
+        <f t="shared" ref="U34:U65" si="6">IF(S34=T34,1,0)</f>
         <v>0</v>
       </c>
       <c r="V34" s="17">
         <v>5</v>
       </c>
       <c r="W34" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
@@ -8011,7 +8188,7 @@
         <v>14269</v>
       </c>
       <c r="E35" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F35" s="17">
@@ -8058,18 +8235,23 @@
         <v>6</v>
       </c>
       <c r="U35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35" s="17">
         <v>6</v>
       </c>
       <c r="W35" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
@@ -8186,7 +8368,7 @@
         <v>14269</v>
       </c>
       <c r="E36" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F36" s="17">
@@ -8233,18 +8415,23 @@
         <v>1</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V36" s="17">
         <v>1</v>
       </c>
       <c r="W36" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
@@ -8361,7 +8548,7 @@
         <v>14269</v>
       </c>
       <c r="E37" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F37" s="17">
@@ -8408,18 +8595,23 @@
         <v>4</v>
       </c>
       <c r="U37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V37" s="17">
         <v>4</v>
       </c>
       <c r="W37" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
@@ -8536,7 +8728,7 @@
         <v>14269</v>
       </c>
       <c r="E38" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F38" s="17">
@@ -8583,18 +8775,23 @@
         <v>2</v>
       </c>
       <c r="U38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V38" s="17">
         <v>2</v>
       </c>
       <c r="W38" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
@@ -8711,7 +8908,7 @@
         <v>14269</v>
       </c>
       <c r="E39" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F39" s="17">
@@ -8758,18 +8955,23 @@
         <v>3</v>
       </c>
       <c r="U39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V39" s="17">
         <v>3</v>
       </c>
       <c r="W39" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X39" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
@@ -8886,7 +9088,7 @@
         <v>14269</v>
       </c>
       <c r="E40" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F40" s="17">
@@ -8933,18 +9135,23 @@
         <v>6</v>
       </c>
       <c r="U40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V40" s="17">
         <v>5</v>
       </c>
       <c r="W40" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
+        <v>1</v>
+      </c>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
@@ -9061,7 +9268,7 @@
         <v>14269</v>
       </c>
       <c r="E41" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F41" s="17">
@@ -9108,18 +9315,23 @@
         <v>5</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V41" s="17">
         <v>6</v>
       </c>
       <c r="W41" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
+        <v>1</v>
+      </c>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
@@ -9156,7 +9368,7 @@
         <v>14269</v>
       </c>
       <c r="E42" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F42" s="17">
@@ -9203,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V42" s="17">
@@ -9213,8 +9425,13 @@
         <f>IF(V42=S42,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
+      <c r="X42" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
@@ -9251,7 +9468,7 @@
         <v>14269</v>
       </c>
       <c r="E43" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F43" s="17">
@@ -9298,18 +9515,23 @@
         <v>4</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V43" s="17">
         <v>4</v>
       </c>
       <c r="W43" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X43" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
@@ -9346,7 +9568,7 @@
         <v>14269</v>
       </c>
       <c r="E44" s="52">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="F44" s="17">
@@ -9393,18 +9615,23 @@
         <v>2</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V44" s="17">
         <v>2</v>
       </c>
       <c r="W44" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
@@ -9441,7 +9668,7 @@
         <v>13103</v>
       </c>
       <c r="E45" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F45" s="45">
@@ -9488,18 +9715,23 @@
         <v>2</v>
       </c>
       <c r="U45" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V45" s="45">
         <v>2</v>
       </c>
       <c r="W45" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X45" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
+        <v>0</v>
+      </c>
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
       <c r="AB45" s="45"/>
@@ -9536,7 +9768,7 @@
         <v>13103</v>
       </c>
       <c r="E46" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F46" s="45">
@@ -9583,18 +9815,23 @@
         <v>6</v>
       </c>
       <c r="U46" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V46" s="45">
         <v>6</v>
       </c>
       <c r="W46" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X46" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
+        <v>0</v>
+      </c>
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
       <c r="AB46" s="45"/>
@@ -9711,7 +9948,7 @@
         <v>13103</v>
       </c>
       <c r="E47" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F47" s="45">
@@ -9758,18 +9995,23 @@
         <v>4</v>
       </c>
       <c r="U47" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V47" s="45">
         <v>4</v>
       </c>
       <c r="W47" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X47" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
+        <v>0</v>
+      </c>
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
       <c r="AB47" s="45"/>
@@ -9886,7 +10128,7 @@
         <v>13103</v>
       </c>
       <c r="E48" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F48" s="45">
@@ -9933,18 +10175,23 @@
         <v>1</v>
       </c>
       <c r="U48" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V48" s="45">
         <v>1</v>
       </c>
       <c r="W48" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X48" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
       <c r="AB48" s="45"/>
@@ -10061,7 +10308,7 @@
         <v>13103</v>
       </c>
       <c r="E49" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F49" s="45">
@@ -10108,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="U49" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V49" s="45">
@@ -10118,8 +10365,13 @@
         <f>IF(V49=S49,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
+      <c r="X49" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
       <c r="AB49" s="45"/>
@@ -10236,7 +10488,7 @@
         <v>13103</v>
       </c>
       <c r="E50" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
       <c r="F50" s="45">
@@ -10283,18 +10535,23 @@
         <v>5</v>
       </c>
       <c r="U50" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V50" s="45">
         <v>5</v>
       </c>
       <c r="W50" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y50" s="45">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
+        <v>0</v>
+      </c>
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
       <c r="AB50" s="45"/>
@@ -10411,8 +10668,8 @@
         <v>10000</v>
       </c>
       <c r="E51" s="52">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
       </c>
       <c r="F51" s="17">
         <v>70</v>
@@ -10458,18 +10715,23 @@
         <v>2</v>
       </c>
       <c r="U51" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V51" s="17">
         <v>2</v>
       </c>
       <c r="W51" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
@@ -10586,8 +10848,8 @@
         <v>10000</v>
       </c>
       <c r="E52" s="52">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
       </c>
       <c r="F52" s="17">
         <v>80</v>
@@ -10633,18 +10895,23 @@
         <v>1</v>
       </c>
       <c r="U52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V52" s="17">
         <v>1</v>
       </c>
       <c r="W52" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
       <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
@@ -10682,8 +10949,8 @@
         <v>10000</v>
       </c>
       <c r="E53" s="52">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
       </c>
       <c r="F53" s="17">
         <v>100</v>
@@ -10729,18 +10996,23 @@
         <v>2</v>
       </c>
       <c r="U53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V53" s="17">
         <v>2</v>
       </c>
       <c r="W53" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X53" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
@@ -10778,8 +11050,8 @@
         <v>10000</v>
       </c>
       <c r="E54" s="52">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
       </c>
       <c r="F54" s="17">
         <v>100</v>
@@ -10825,18 +11097,23 @@
         <v>1</v>
       </c>
       <c r="U54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V54" s="17">
         <v>1</v>
       </c>
       <c r="W54" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X54" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
@@ -10874,7 +11151,7 @@
         <v>16503</v>
       </c>
       <c r="E55" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F55" s="44">
@@ -10921,18 +11198,23 @@
         <v>3</v>
       </c>
       <c r="U55" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V55" s="45">
         <v>3</v>
       </c>
       <c r="W55" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X55" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
       <c r="AB55" s="45"/>
@@ -10970,7 +11252,7 @@
         <v>16503</v>
       </c>
       <c r="E56" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F56" s="44">
@@ -11017,18 +11299,23 @@
         <v>1</v>
       </c>
       <c r="U56" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V56" s="45">
         <v>1</v>
       </c>
       <c r="W56" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X56" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
       <c r="AB56" s="45"/>
@@ -11145,7 +11432,7 @@
         <v>16503</v>
       </c>
       <c r="E57" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F57" s="44">
@@ -11192,18 +11479,23 @@
         <v>2</v>
       </c>
       <c r="U57" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V57" s="45">
         <v>2</v>
       </c>
       <c r="W57" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X57" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
       <c r="AB57" s="45"/>
@@ -11320,7 +11612,7 @@
         <v>16503</v>
       </c>
       <c r="E58" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F58" s="44">
@@ -11367,18 +11659,23 @@
         <v>4</v>
       </c>
       <c r="U58" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V58" s="45">
         <v>4</v>
       </c>
       <c r="W58" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X58" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
       <c r="AB58" s="45"/>
@@ -11415,7 +11712,7 @@
         <v>16503</v>
       </c>
       <c r="E59" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F59" s="44">
@@ -11462,18 +11759,23 @@
         <v>5</v>
       </c>
       <c r="U59" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V59" s="45">
         <v>5</v>
       </c>
       <c r="W59" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X59" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
       <c r="AB59" s="45"/>
@@ -11590,7 +11892,7 @@
         <v>16503</v>
       </c>
       <c r="E60" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F60" s="44">
@@ -11637,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="U60" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V60" s="45">
@@ -11647,8 +11949,13 @@
         <f>IF(V60=S60,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
+      <c r="X60" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
       <c r="AB60" s="45"/>
@@ -11679,13 +11986,13 @@
         <v>35</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" s="43">
         <v>16503</v>
       </c>
       <c r="E61" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F61" s="44">
@@ -11732,16 +12039,21 @@
         <v>6</v>
       </c>
       <c r="U61" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V61" s="45"/>
       <c r="W61" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y61" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="45"/>
+        <v>1</v>
+      </c>
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
       <c r="AB61" s="45"/>
@@ -11778,7 +12090,7 @@
         <v>16503</v>
       </c>
       <c r="E62" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F62" s="44">
@@ -11825,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="U62" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V62" s="45">
@@ -11835,8 +12147,13 @@
         <f>IF(V62=S62,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="45"/>
+      <c r="X62" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
       <c r="AB62" s="45"/>
@@ -11953,7 +12270,7 @@
         <v>16503</v>
       </c>
       <c r="E63" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F63" s="44">
@@ -12000,18 +12317,23 @@
         <v>2</v>
       </c>
       <c r="U63" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V63" s="45">
         <v>2</v>
       </c>
       <c r="W63" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X63" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y63" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X63" s="45"/>
-      <c r="Y63" s="45"/>
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
       <c r="AB63" s="45"/>
@@ -12128,7 +12450,7 @@
         <v>16503</v>
       </c>
       <c r="E64" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F64" s="44">
@@ -12175,18 +12497,23 @@
         <v>4</v>
       </c>
       <c r="U64" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V64" s="45">
         <v>4</v>
       </c>
       <c r="W64" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X64" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y64" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="45"/>
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
       <c r="AB64" s="45"/>
@@ -12303,7 +12630,7 @@
         <v>16503</v>
       </c>
       <c r="E65" s="44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="F65" s="44">
@@ -12350,18 +12677,23 @@
         <v>5</v>
       </c>
       <c r="U65" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V65" s="45">
         <v>5</v>
       </c>
       <c r="W65" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X65" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y65" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X65" s="45"/>
-      <c r="Y65" s="45"/>
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
       <c r="AB65" s="45"/>
@@ -12478,7 +12810,7 @@
         <v>12918</v>
       </c>
       <c r="E66" s="52">
-        <f t="shared" ref="E66:E97" ca="1" si="6">INT((TODAY()-D66)/365.25)</f>
+        <f t="shared" ref="E66:E97" ca="1" si="7">INT((TODAY()-D66)/365.25)</f>
         <v>79</v>
       </c>
       <c r="F66" s="17">
@@ -12525,18 +12857,23 @@
         <v>4</v>
       </c>
       <c r="U66" s="17">
-        <f t="shared" ref="U66:U97" si="7">IF(S66=T66,1,0)</f>
+        <f t="shared" ref="U66:U97" si="8">IF(S66=T66,1,0)</f>
         <v>0</v>
       </c>
       <c r="V66" s="17">
         <v>4</v>
       </c>
       <c r="W66" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
       <c r="Z66" s="17"/>
       <c r="AA66" s="17"/>
       <c r="AB66" s="17"/>
@@ -12653,7 +12990,7 @@
         <v>12918</v>
       </c>
       <c r="E67" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F67" s="17">
@@ -12700,18 +13037,23 @@
         <v>3</v>
       </c>
       <c r="U67" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V67" s="17">
         <v>3</v>
       </c>
       <c r="W67" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X67" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="45">
+        <f t="shared" ref="Y67:Y130" si="9">IF(X67=S67,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
       <c r="AB67" s="17"/>
@@ -12828,7 +13170,7 @@
         <v>12918</v>
       </c>
       <c r="E68" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F68" s="17">
@@ -12875,18 +13217,23 @@
         <v>1</v>
       </c>
       <c r="U68" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V68" s="17">
         <v>1</v>
       </c>
       <c r="W68" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y68" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
@@ -13003,7 +13350,7 @@
         <v>12918</v>
       </c>
       <c r="E69" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F69" s="17">
@@ -13050,18 +13397,23 @@
         <v>2</v>
       </c>
       <c r="U69" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V69" s="17">
         <v>2</v>
       </c>
       <c r="W69" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y69" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
@@ -13178,7 +13530,7 @@
         <v>12918</v>
       </c>
       <c r="E70" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F70" s="17">
@@ -13225,18 +13577,23 @@
         <v>3</v>
       </c>
       <c r="U70" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V70" s="17">
         <v>1</v>
       </c>
       <c r="W70" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X70" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z70" s="17"/>
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
@@ -13353,7 +13710,7 @@
         <v>12918</v>
       </c>
       <c r="E71" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F71" s="17">
@@ -13400,18 +13757,23 @@
         <v>4</v>
       </c>
       <c r="U71" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V71" s="17">
         <v>3</v>
       </c>
       <c r="W71" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y71" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z71" s="17"/>
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
@@ -13528,7 +13890,7 @@
         <v>12918</v>
       </c>
       <c r="E72" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F72" s="17">
@@ -13575,18 +13937,23 @@
         <v>5</v>
       </c>
       <c r="U72" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V72" s="17">
         <v>4</v>
       </c>
       <c r="W72" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z72" s="17"/>
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
@@ -13703,7 +14070,7 @@
         <v>12918</v>
       </c>
       <c r="E73" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F73" s="17">
@@ -13750,7 +14117,7 @@
         <v>6</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V73" s="17">
@@ -13760,8 +14127,13 @@
         <f>IF(V73=S73,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
+      <c r="X73" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y73" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z73" s="17"/>
       <c r="AA73" s="17"/>
       <c r="AB73" s="17"/>
@@ -13878,7 +14250,7 @@
         <v>12918</v>
       </c>
       <c r="E74" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F74" s="17">
@@ -13925,18 +14297,23 @@
         <v>1</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V74" s="17">
         <v>2</v>
       </c>
       <c r="W74" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y74" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z74" s="17"/>
       <c r="AA74" s="17"/>
       <c r="AB74" s="17"/>
@@ -14053,7 +14430,7 @@
         <v>12918</v>
       </c>
       <c r="E75" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
       <c r="F75" s="17">
@@ -14100,18 +14477,23 @@
         <v>2</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V75" s="17">
         <v>6</v>
       </c>
       <c r="W75" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y75" s="45">
+        <f>IF(X75=S75,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="Z75" s="17"/>
       <c r="AA75" s="17"/>
       <c r="AB75" s="17"/>
@@ -14148,7 +14530,7 @@
         <v>22304</v>
       </c>
       <c r="E76" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>53</v>
       </c>
       <c r="F76" s="45">
@@ -14195,18 +14577,23 @@
         <v>1</v>
       </c>
       <c r="U76" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V76" s="45">
         <v>1</v>
       </c>
       <c r="W76" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X76" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
       <c r="AB76" s="45"/>
@@ -14243,7 +14630,7 @@
         <v>22304</v>
       </c>
       <c r="E77" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>53</v>
       </c>
       <c r="F77" s="45">
@@ -14290,18 +14677,23 @@
         <v>2</v>
       </c>
       <c r="U77" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V77" s="45">
         <v>2</v>
       </c>
       <c r="W77" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X77" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y77" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
       <c r="AB77" s="45"/>
@@ -14418,7 +14810,7 @@
         <v>11780</v>
       </c>
       <c r="E78" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F78" s="17">
@@ -14465,7 +14857,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V78" s="17">
@@ -14475,8 +14867,13 @@
         <f>IF(V78=S78,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
+      <c r="X78" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z78" s="17"/>
       <c r="AA78" s="17"/>
       <c r="AB78" s="17"/>
@@ -14513,7 +14910,7 @@
         <v>11780</v>
       </c>
       <c r="E79" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F79" s="17">
@@ -14560,18 +14957,23 @@
         <v>1</v>
       </c>
       <c r="U79" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V79" s="17">
         <v>1</v>
       </c>
       <c r="W79" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z79" s="17"/>
       <c r="AA79" s="17"/>
       <c r="AB79" s="17"/>
@@ -14688,7 +15090,7 @@
         <v>11780</v>
       </c>
       <c r="E80" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F80" s="17">
@@ -14735,18 +15137,23 @@
         <v>2</v>
       </c>
       <c r="U80" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V80" s="17">
         <v>2</v>
       </c>
       <c r="W80" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z80" s="17"/>
       <c r="AA80" s="17"/>
       <c r="AB80" s="17"/>
@@ -14863,7 +15270,7 @@
         <v>11780</v>
       </c>
       <c r="E81" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F81" s="17">
@@ -14910,18 +15317,23 @@
         <v>1</v>
       </c>
       <c r="U81" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V81" s="17">
         <v>1</v>
       </c>
       <c r="W81" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z81" s="17"/>
       <c r="AA81" s="17"/>
       <c r="AB81" s="17"/>
@@ -15038,7 +15450,7 @@
         <v>11463</v>
       </c>
       <c r="E82" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F82" s="45">
@@ -15085,18 +15497,23 @@
         <v>5</v>
       </c>
       <c r="U82" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V82" s="45">
         <v>5</v>
       </c>
       <c r="W82" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y82" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
       <c r="AB82" s="45"/>
@@ -15133,7 +15550,7 @@
         <v>11463</v>
       </c>
       <c r="E83" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F83" s="45">
@@ -15180,18 +15597,23 @@
         <v>3</v>
       </c>
       <c r="U83" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V83" s="45">
         <v>4</v>
       </c>
       <c r="W83" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X83" s="45"/>
-      <c r="Y83" s="45"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X83" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
       <c r="AB83" s="45"/>
@@ -15228,7 +15650,7 @@
         <v>11463</v>
       </c>
       <c r="E84" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F84" s="45">
@@ -15275,18 +15697,23 @@
         <v>6</v>
       </c>
       <c r="U84" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V84" s="45">
         <v>6</v>
       </c>
       <c r="W84" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y84" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
       <c r="AB84" s="45"/>
@@ -15403,7 +15830,7 @@
         <v>11463</v>
       </c>
       <c r="E85" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F85" s="45">
@@ -15450,18 +15877,23 @@
         <v>1</v>
       </c>
       <c r="U85" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V85" s="45">
         <v>2</v>
       </c>
       <c r="W85" s="45">
-        <f t="shared" ref="W85:W88" si="8">IF(V85=S85,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X85" s="45"/>
-      <c r="Y85" s="45"/>
+        <f t="shared" ref="W85:W88" si="10">IF(V85=S85,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X85" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y85" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
       <c r="AB85" s="45"/>
@@ -15578,7 +16010,7 @@
         <v>11463</v>
       </c>
       <c r="E86" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F86" s="45">
@@ -15625,18 +16057,23 @@
         <v>2</v>
       </c>
       <c r="U86" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V86" s="45">
         <v>1</v>
       </c>
       <c r="W86" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X86" s="45"/>
-      <c r="Y86" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y86" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
       <c r="AB86" s="45"/>
@@ -15753,7 +16190,7 @@
         <v>11463</v>
       </c>
       <c r="E87" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F87" s="45">
@@ -15800,18 +16237,23 @@
         <v>4</v>
       </c>
       <c r="U87" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V87" s="45">
         <v>3</v>
       </c>
       <c r="W87" s="45">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X87" s="45"/>
-      <c r="Y87" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X87" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
       <c r="AB87" s="45"/>
@@ -15928,7 +16370,7 @@
         <v>10021</v>
       </c>
       <c r="E88" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>86</v>
       </c>
       <c r="F88" s="17">
@@ -15975,18 +16417,23 @@
         <v>2</v>
       </c>
       <c r="U88" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V88" s="17">
         <v>2</v>
       </c>
       <c r="W88" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X88" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y88" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z88" s="17"/>
       <c r="AA88" s="17"/>
       <c r="AB88" s="17"/>
@@ -16103,7 +16550,7 @@
         <v>10021</v>
       </c>
       <c r="E89" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>86</v>
       </c>
       <c r="F89" s="17">
@@ -16150,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="U89" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V89" s="17">
@@ -16160,8 +16607,13 @@
         <f>IF(V89=S89,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
+      <c r="X89" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z89" s="17"/>
       <c r="AA89" s="17"/>
       <c r="AB89" s="17"/>
@@ -16278,7 +16730,7 @@
         <v>11780</v>
       </c>
       <c r="E90" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F90" s="17">
@@ -16325,18 +16777,23 @@
         <v>3</v>
       </c>
       <c r="U90" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V90" s="17">
         <v>2</v>
       </c>
       <c r="W90" s="17">
-        <f t="shared" ref="W90:W103" si="9">IF(V90=S90,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="17"/>
+        <f t="shared" ref="W90:W103" si="11">IF(V90=S90,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X90" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y90" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z90" s="17"/>
       <c r="AA90" s="17"/>
       <c r="AB90" s="17"/>
@@ -16453,7 +16910,7 @@
         <v>11780</v>
       </c>
       <c r="E91" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F91" s="17">
@@ -16500,18 +16957,23 @@
         <v>2</v>
       </c>
       <c r="U91" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V91" s="17">
         <v>1</v>
       </c>
       <c r="W91" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X91" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y91" s="45">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
+        <v>0</v>
+      </c>
       <c r="Z91" s="17"/>
       <c r="AA91" s="17"/>
       <c r="AB91" s="17"/>
@@ -16628,7 +17090,7 @@
         <v>11780</v>
       </c>
       <c r="E92" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F92" s="17">
@@ -16675,18 +17137,23 @@
         <v>1</v>
       </c>
       <c r="U92" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V92" s="17">
         <v>5</v>
       </c>
       <c r="W92" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
       <c r="AA92" s="17"/>
       <c r="AB92" s="17"/>
@@ -16803,7 +17270,7 @@
         <v>11780</v>
       </c>
       <c r="E93" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F93" s="17">
@@ -16850,18 +17317,23 @@
         <v>4</v>
       </c>
       <c r="U93" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V93" s="17">
         <v>4</v>
       </c>
       <c r="W93" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X93" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y93" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
       <c r="AA93" s="17"/>
       <c r="AB93" s="17"/>
@@ -16978,7 +17450,7 @@
         <v>11780</v>
       </c>
       <c r="E94" s="52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>82</v>
       </c>
       <c r="F94" s="17">
@@ -17025,18 +17497,23 @@
         <v>5</v>
       </c>
       <c r="U94" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V94" s="17">
         <v>3</v>
       </c>
       <c r="W94" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
+        <v>1</v>
+      </c>
       <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
       <c r="AB94" s="17"/>
@@ -17153,7 +17630,7 @@
         <v>9555</v>
       </c>
       <c r="E95" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>88</v>
       </c>
       <c r="F95" s="45">
@@ -17200,18 +17677,23 @@
         <v>1</v>
       </c>
       <c r="U95" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V95" s="45">
         <v>1</v>
       </c>
       <c r="W95" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X95" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X95" s="45"/>
-      <c r="Y95" s="45"/>
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
       <c r="AB95" s="45"/>
@@ -17328,7 +17810,7 @@
         <v>9555</v>
       </c>
       <c r="E96" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>88</v>
       </c>
       <c r="F96" s="45">
@@ -17375,18 +17857,23 @@
         <v>3</v>
       </c>
       <c r="U96" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V96" s="45">
         <v>2</v>
       </c>
       <c r="W96" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X96" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X96" s="45"/>
-      <c r="Y96" s="45"/>
+        <v>1</v>
+      </c>
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
       <c r="AB96" s="45"/>
@@ -17423,7 +17910,7 @@
         <v>9555</v>
       </c>
       <c r="E97" s="44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>88</v>
       </c>
       <c r="F97" s="45">
@@ -17470,18 +17957,23 @@
         <v>2</v>
       </c>
       <c r="U97" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V97" s="45">
         <v>3</v>
       </c>
       <c r="W97" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X97" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y97" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X97" s="45"/>
-      <c r="Y97" s="45"/>
+        <v>1</v>
+      </c>
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
       <c r="AB97" s="45"/>
@@ -17598,7 +18090,7 @@
         <v>9555</v>
       </c>
       <c r="E98" s="44">
-        <f t="shared" ref="E98:E129" ca="1" si="10">INT((TODAY()-D98)/365.25)</f>
+        <f t="shared" ref="E98:E129" ca="1" si="12">INT((TODAY()-D98)/365.25)</f>
         <v>88</v>
       </c>
       <c r="F98" s="45">
@@ -17645,18 +18137,23 @@
         <v>4</v>
       </c>
       <c r="U98" s="45">
-        <f t="shared" ref="U98:U129" si="11">IF(S98=T98,1,0)</f>
+        <f t="shared" ref="U98:U129" si="13">IF(S98=T98,1,0)</f>
         <v>1</v>
       </c>
       <c r="V98" s="45">
         <v>4</v>
       </c>
       <c r="W98" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X98" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X98" s="45"/>
-      <c r="Y98" s="45"/>
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
       <c r="AB98" s="45"/>
@@ -17773,7 +18270,7 @@
         <v>9533</v>
       </c>
       <c r="E99" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88</v>
       </c>
       <c r="F99" s="17">
@@ -17820,18 +18317,23 @@
         <v>1</v>
       </c>
       <c r="U99" s="17">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V99" s="17">
+        <v>1</v>
+      </c>
+      <c r="W99" s="17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="V99" s="17">
-        <v>1</v>
-      </c>
-      <c r="W99" s="17">
+      <c r="X99" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
       <c r="Z99" s="17"/>
       <c r="AA99" s="17"/>
       <c r="AB99" s="17"/>
@@ -17869,7 +18371,7 @@
         <v>9533</v>
       </c>
       <c r="E100" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88</v>
       </c>
       <c r="F100" s="17">
@@ -17916,7 +18418,7 @@
         <v>2</v>
       </c>
       <c r="U100" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V100" s="17">
@@ -17926,8 +18428,13 @@
         <f>IF(V100=S100,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X100" s="17"/>
-      <c r="Y100" s="17"/>
+      <c r="X100" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z100" s="17"/>
       <c r="AA100" s="17"/>
       <c r="AB100" s="17"/>
@@ -18045,7 +18552,7 @@
         <v>9533</v>
       </c>
       <c r="E101" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88</v>
       </c>
       <c r="F101" s="17">
@@ -18092,18 +18599,23 @@
         <v>3</v>
       </c>
       <c r="U101" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V101" s="17">
         <v>3</v>
       </c>
       <c r="W101" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X101" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y101" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
@@ -18141,7 +18653,7 @@
         <v>9533</v>
       </c>
       <c r="E102" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88</v>
       </c>
       <c r="F102" s="17">
@@ -18188,18 +18700,23 @@
         <v>5</v>
       </c>
       <c r="U102" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V102" s="17">
         <v>5</v>
       </c>
       <c r="W102" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X102" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X102" s="17"/>
-      <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
       <c r="AA102" s="17"/>
       <c r="AB102" s="17"/>
@@ -18317,7 +18834,7 @@
         <v>9533</v>
       </c>
       <c r="E103" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88</v>
       </c>
       <c r="F103" s="17">
@@ -18364,18 +18881,23 @@
         <v>4</v>
       </c>
       <c r="U103" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V103" s="17">
         <v>4</v>
       </c>
       <c r="W103" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X103" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y103" s="45">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="17"/>
       <c r="Z103" s="17"/>
       <c r="AA103" s="17"/>
       <c r="AB103" s="17"/>
@@ -18413,8 +18935,8 @@
         <v>13650</v>
       </c>
       <c r="E104" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F104" s="45">
         <v>20</v>
@@ -18460,7 +18982,7 @@
         <v>6</v>
       </c>
       <c r="U104" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V104" s="45">
@@ -18470,8 +18992,13 @@
         <f>IF(V104=S104,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
+      <c r="X104" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y104" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
       <c r="AB104" s="45"/>
@@ -18588,8 +19115,8 @@
         <v>13650</v>
       </c>
       <c r="E105" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F105" s="45">
         <v>16</v>
@@ -18635,18 +19162,23 @@
         <v>3</v>
       </c>
       <c r="U105" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V105" s="45">
         <v>5</v>
       </c>
       <c r="W105" s="45">
-        <f t="shared" ref="W105:W154" si="12">IF(V105=S105,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X105" s="45"/>
-      <c r="Y105" s="45"/>
+        <f t="shared" ref="W105:W154" si="14">IF(V105=S105,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X105" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y105" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
       <c r="AB105" s="45"/>
@@ -18763,8 +19295,8 @@
         <v>13650</v>
       </c>
       <c r="E106" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F106" s="45">
         <v>20</v>
@@ -18810,18 +19342,23 @@
         <v>5</v>
       </c>
       <c r="U106" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V106" s="45">
         <v>4</v>
       </c>
       <c r="W106" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X106" s="45"/>
-      <c r="Y106" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y106" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
       <c r="AB106" s="45"/>
@@ -18938,8 +19475,8 @@
         <v>13650</v>
       </c>
       <c r="E107" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F107" s="45">
         <v>20</v>
@@ -18985,18 +19522,23 @@
         <v>4</v>
       </c>
       <c r="U107" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V107" s="45">
         <v>1</v>
       </c>
       <c r="W107" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X107" s="45"/>
-      <c r="Y107" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y107" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
       <c r="AB107" s="45"/>
@@ -19113,8 +19655,8 @@
         <v>13650</v>
       </c>
       <c r="E108" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F108" s="45">
         <v>20</v>
@@ -19160,18 +19702,23 @@
         <v>1</v>
       </c>
       <c r="U108" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V108" s="45">
         <v>2</v>
       </c>
       <c r="W108" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X108" s="45"/>
-      <c r="Y108" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X108" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
       <c r="AB108" s="45"/>
@@ -19288,8 +19835,8 @@
         <v>13650</v>
       </c>
       <c r="E109" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
       </c>
       <c r="F109" s="45">
         <v>16</v>
@@ -19335,18 +19882,23 @@
         <v>2</v>
       </c>
       <c r="U109" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V109" s="45">
         <v>3</v>
       </c>
       <c r="W109" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X109" s="45"/>
-      <c r="Y109" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X109" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y109" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
       <c r="AB109" s="45"/>
@@ -19463,7 +20015,7 @@
         <v>10933</v>
       </c>
       <c r="E110" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F110" s="17">
@@ -19510,18 +20062,23 @@
         <v>2</v>
       </c>
       <c r="U110" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V110" s="17">
         <v>1</v>
       </c>
       <c r="W110" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X110" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z110" s="17"/>
       <c r="AA110" s="17"/>
       <c r="AB110" s="17"/>
@@ -19638,7 +20195,7 @@
         <v>10933</v>
       </c>
       <c r="E111" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F111" s="17">
@@ -19685,18 +20242,23 @@
         <v>1</v>
       </c>
       <c r="U111" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V111" s="17">
         <v>2</v>
       </c>
       <c r="W111" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X111" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z111" s="17"/>
       <c r="AA111" s="17"/>
       <c r="AB111" s="17"/>
@@ -19813,7 +20375,7 @@
         <v>11052</v>
       </c>
       <c r="E112" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F112" s="45">
@@ -19860,18 +20422,23 @@
         <v>3</v>
       </c>
       <c r="U112" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V112" s="45">
         <v>3</v>
       </c>
       <c r="W112" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X112" s="45"/>
-      <c r="Y112" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X112" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y112" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
       <c r="AB112" s="45"/>
@@ -19988,7 +20555,7 @@
         <v>11052</v>
       </c>
       <c r="E113" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F113" s="45">
@@ -20035,18 +20602,23 @@
         <v>2</v>
       </c>
       <c r="U113" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V113" s="45">
         <v>2</v>
       </c>
       <c r="W113" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X113" s="45"/>
-      <c r="Y113" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X113" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y113" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
       <c r="AB113" s="45"/>
@@ -20163,7 +20735,7 @@
         <v>11052</v>
       </c>
       <c r="E114" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F114" s="45">
@@ -20210,18 +20782,23 @@
         <v>1</v>
       </c>
       <c r="U114" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V114" s="45">
         <v>1</v>
       </c>
       <c r="W114" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X114" s="45"/>
-      <c r="Y114" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X114" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
       <c r="AB114" s="45"/>
@@ -20338,7 +20915,7 @@
         <v>11052</v>
       </c>
       <c r="E115" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F115" s="45">
@@ -20385,7 +20962,7 @@
         <v>4</v>
       </c>
       <c r="U115" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V115" s="45">
@@ -20395,8 +20972,13 @@
         <f>IF(V115=S115,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X115" s="45"/>
-      <c r="Y115" s="45"/>
+      <c r="X115" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y115" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
       <c r="AB115" s="45"/>
@@ -20513,7 +21095,7 @@
         <v>11052</v>
       </c>
       <c r="E116" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F116" s="45">
@@ -20560,18 +21142,23 @@
         <v>2</v>
       </c>
       <c r="U116" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V116" s="45">
         <v>3</v>
       </c>
       <c r="W116" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X116" s="45"/>
-      <c r="Y116" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X116" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y116" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
       <c r="AB116" s="45"/>
@@ -20688,7 +21275,7 @@
         <v>11052</v>
       </c>
       <c r="E117" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F117" s="45">
@@ -20735,18 +21322,23 @@
         <v>3</v>
       </c>
       <c r="U117" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V117" s="45">
         <v>2</v>
       </c>
       <c r="W117" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X117" s="45"/>
-      <c r="Y117" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X117" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y117" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
       <c r="AB117" s="45"/>
@@ -20863,7 +21455,7 @@
         <v>11052</v>
       </c>
       <c r="E118" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F118" s="45">
@@ -20910,18 +21502,23 @@
         <v>1</v>
       </c>
       <c r="U118" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V118" s="45">
         <v>1</v>
       </c>
       <c r="W118" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X118" s="45"/>
-      <c r="Y118" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X118" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y118" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
       <c r="AB118" s="45"/>
@@ -21038,7 +21635,7 @@
         <v>11052</v>
       </c>
       <c r="E119" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="F119" s="45">
@@ -21085,18 +21682,23 @@
         <v>4</v>
       </c>
       <c r="U119" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V119" s="45">
         <v>4</v>
       </c>
       <c r="W119" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X119" s="45"/>
-      <c r="Y119" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X119" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y119" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
       <c r="AB119" s="45"/>
@@ -21213,7 +21815,7 @@
         <v>12776</v>
       </c>
       <c r="E120" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F120" s="17">
@@ -21260,18 +21862,23 @@
         <v>1</v>
       </c>
       <c r="U120" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V120" s="17">
         <v>1</v>
       </c>
       <c r="W120" s="17">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="17"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X120" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z120" s="17"/>
       <c r="AA120" s="17"/>
       <c r="AB120" s="17"/>
@@ -21388,7 +21995,7 @@
         <v>12776</v>
       </c>
       <c r="E121" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F121" s="17">
@@ -21435,18 +22042,23 @@
         <v>2</v>
       </c>
       <c r="U121" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V121" s="17">
         <v>4</v>
       </c>
       <c r="W121" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X121" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y121" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z121" s="17"/>
       <c r="AA121" s="17"/>
       <c r="AB121" s="17"/>
@@ -21563,7 +22175,7 @@
         <v>12776</v>
       </c>
       <c r="E122" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F122" s="17">
@@ -21610,18 +22222,23 @@
         <v>3</v>
       </c>
       <c r="U122" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V122" s="17">
         <v>2</v>
       </c>
       <c r="W122" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X122" s="17"/>
-      <c r="Y122" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X122" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y122" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z122" s="17"/>
       <c r="AA122" s="17"/>
       <c r="AB122" s="17"/>
@@ -21738,7 +22355,7 @@
         <v>12776</v>
       </c>
       <c r="E123" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F123" s="17">
@@ -21785,18 +22402,23 @@
         <v>4</v>
       </c>
       <c r="U123" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V123" s="17">
         <v>3</v>
       </c>
       <c r="W123" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X123" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y123" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z123" s="17"/>
       <c r="AA123" s="17"/>
       <c r="AB123" s="17"/>
@@ -21914,7 +22536,7 @@
         <v>12776</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F124" s="17">
@@ -21961,18 +22583,23 @@
         <v>1</v>
       </c>
       <c r="U124" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V124" s="17">
         <v>1</v>
       </c>
       <c r="W124" s="17">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X124" s="17"/>
-      <c r="Y124" s="17"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X124" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y124" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z124" s="17"/>
       <c r="AA124" s="17"/>
       <c r="AB124" s="17"/>
@@ -22090,7 +22717,7 @@
         <v>12776</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F125" s="17">
@@ -22137,18 +22764,23 @@
         <v>2</v>
       </c>
       <c r="U125" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V125" s="17">
         <v>3</v>
       </c>
       <c r="W125" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X125" s="17"/>
-      <c r="Y125" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X125" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y125" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z125" s="17"/>
       <c r="AA125" s="17"/>
       <c r="AB125" s="17"/>
@@ -22266,7 +22898,7 @@
         <v>12776</v>
       </c>
       <c r="E126" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F126" s="17">
@@ -22313,7 +22945,7 @@
         <v>4</v>
       </c>
       <c r="U126" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V126" s="17">
@@ -22323,8 +22955,13 @@
         <f>IF(V126=S126,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X126" s="17"/>
-      <c r="Y126" s="17"/>
+      <c r="X126" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y126" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z126" s="17"/>
       <c r="AA126" s="17"/>
       <c r="AB126" s="17"/>
@@ -22442,7 +23079,7 @@
         <v>12776</v>
       </c>
       <c r="E127" s="52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
       <c r="F127" s="17">
@@ -22489,18 +23126,23 @@
         <v>3</v>
       </c>
       <c r="U127" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V127" s="17">
         <v>2</v>
       </c>
       <c r="W127" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X127" s="17"/>
-      <c r="Y127" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y127" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="Z127" s="17"/>
       <c r="AA127" s="17"/>
       <c r="AB127" s="17"/>
@@ -22617,7 +23259,7 @@
         <v>12079</v>
       </c>
       <c r="E128" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>81</v>
       </c>
       <c r="F128" s="45">
@@ -22664,18 +23306,23 @@
         <v>4</v>
       </c>
       <c r="U128" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V128" s="45">
         <v>6</v>
       </c>
       <c r="W128" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X128" s="45"/>
-      <c r="Y128" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y128" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
       <c r="AB128" s="45"/>
@@ -22712,7 +23359,7 @@
         <v>12079</v>
       </c>
       <c r="E129" s="44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>81</v>
       </c>
       <c r="F129" s="45">
@@ -22759,18 +23406,23 @@
         <v>1</v>
       </c>
       <c r="U129" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V129" s="45">
         <v>4</v>
       </c>
       <c r="W129" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X129" s="45"/>
-      <c r="Y129" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y129" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
       <c r="AB129" s="45"/>
@@ -22807,7 +23459,7 @@
         <v>12079</v>
       </c>
       <c r="E130" s="44">
-        <f t="shared" ref="E130:E154" ca="1" si="13">INT((TODAY()-D130)/365.25)</f>
+        <f t="shared" ref="E130:E154" ca="1" si="15">INT((TODAY()-D130)/365.25)</f>
         <v>81</v>
       </c>
       <c r="F130" s="45">
@@ -22854,18 +23506,23 @@
         <v>6</v>
       </c>
       <c r="U130" s="45">
-        <f t="shared" ref="U130:U154" si="14">IF(S130=T130,1,0)</f>
+        <f t="shared" ref="U130:U154" si="16">IF(S130=T130,1,0)</f>
         <v>0</v>
       </c>
       <c r="V130" s="45">
         <v>5</v>
       </c>
       <c r="W130" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X130" s="45"/>
-      <c r="Y130" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y130" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
       <c r="AB130" s="45"/>
@@ -22982,7 +23639,7 @@
         <v>12079</v>
       </c>
       <c r="E131" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F131" s="45">
@@ -23029,18 +23686,23 @@
         <v>2</v>
       </c>
       <c r="U131" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V131" s="45">
         <v>3</v>
       </c>
       <c r="W131" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X131" s="45"/>
-      <c r="Y131" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X131" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y131" s="45">
+        <f t="shared" ref="Y131:Y154" si="17">IF(X131=S131,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
       <c r="AB131" s="45"/>
@@ -23157,7 +23819,7 @@
         <v>12079</v>
       </c>
       <c r="E132" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F132" s="45">
@@ -23204,18 +23866,23 @@
         <v>3</v>
       </c>
       <c r="U132" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V132" s="45">
         <v>2</v>
       </c>
       <c r="W132" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X132" s="45"/>
-      <c r="Y132" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y132" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
       <c r="AB132" s="45"/>
@@ -23332,7 +23999,7 @@
         <v>12079</v>
       </c>
       <c r="E133" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F133" s="45">
@@ -23379,7 +24046,7 @@
         <v>5</v>
       </c>
       <c r="U133" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V133" s="45">
@@ -23389,8 +24056,13 @@
         <f>IF(V133=S133,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X133" s="45"/>
-      <c r="Y133" s="45"/>
+      <c r="X133" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
       <c r="AB133" s="45"/>
@@ -23507,7 +24179,7 @@
         <v>12079</v>
       </c>
       <c r="E134" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F134" s="45">
@@ -23554,18 +24226,23 @@
         <v>3</v>
       </c>
       <c r="U134" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V134" s="45">
         <v>6</v>
       </c>
       <c r="W134" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X134" s="45"/>
-      <c r="Y134" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y134" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
       <c r="AB134" s="45"/>
@@ -23682,7 +24359,7 @@
         <v>12079</v>
       </c>
       <c r="E135" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F135" s="45">
@@ -23729,18 +24406,23 @@
         <v>1</v>
       </c>
       <c r="U135" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="45">
+        <v>1</v>
+      </c>
+      <c r="W135" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V135" s="45">
-        <v>1</v>
-      </c>
-      <c r="W135" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X135" s="45"/>
-      <c r="Y135" s="45"/>
+      <c r="X135" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y135" s="45">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
       <c r="AB135" s="45"/>
@@ -23857,7 +24539,7 @@
         <v>12079</v>
       </c>
       <c r="E136" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F136" s="45">
@@ -23904,18 +24586,23 @@
         <v>2</v>
       </c>
       <c r="U136" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V136" s="45">
         <v>4</v>
       </c>
       <c r="W136" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X136" s="45"/>
-      <c r="Y136" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X136" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y136" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
       <c r="AB136" s="45"/>
@@ -24032,7 +24719,7 @@
         <v>12079</v>
       </c>
       <c r="E137" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F137" s="45">
@@ -24079,18 +24766,23 @@
         <v>6</v>
       </c>
       <c r="U137" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V137" s="45">
         <v>2</v>
       </c>
       <c r="W137" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X137" s="45"/>
-      <c r="Y137" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X137" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y137" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
       <c r="AB137" s="45"/>
@@ -24207,7 +24899,7 @@
         <v>12079</v>
       </c>
       <c r="E138" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F138" s="45">
@@ -24254,18 +24946,23 @@
         <v>4</v>
       </c>
       <c r="U138" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V138" s="45">
         <v>3</v>
       </c>
       <c r="W138" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X138" s="45"/>
-      <c r="Y138" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X138" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y138" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
       <c r="AB138" s="45"/>
@@ -24302,7 +24999,7 @@
         <v>12079</v>
       </c>
       <c r="E139" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F139" s="45">
@@ -24349,18 +25046,23 @@
         <v>5</v>
       </c>
       <c r="U139" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V139" s="45">
         <v>5</v>
       </c>
       <c r="W139" s="45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X139" s="45"/>
-      <c r="Y139" s="45"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X139" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y139" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
       <c r="AB139" s="45"/>
@@ -24397,7 +25099,7 @@
         <v>12254</v>
       </c>
       <c r="E140" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F140" s="17">
@@ -24444,18 +25146,23 @@
         <v>3</v>
       </c>
       <c r="U140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V140" s="17">
         <v>5</v>
       </c>
       <c r="W140" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X140" s="17"/>
-      <c r="Y140" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X140" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y140" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z140" s="17"/>
       <c r="AA140" s="17"/>
       <c r="AB140" s="17"/>
@@ -24492,7 +25199,7 @@
         <v>12254</v>
       </c>
       <c r="E141" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F141" s="17">
@@ -24539,18 +25246,23 @@
         <v>6</v>
       </c>
       <c r="U141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V141" s="17">
         <v>4</v>
       </c>
       <c r="W141" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X141" s="17"/>
-      <c r="Y141" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X141" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y141" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z141" s="17"/>
       <c r="AA141" s="17"/>
       <c r="AB141" s="17"/>
@@ -24587,7 +25299,7 @@
         <v>12254</v>
       </c>
       <c r="E142" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F142" s="17">
@@ -24634,18 +25346,23 @@
         <v>5</v>
       </c>
       <c r="U142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V142" s="17">
         <v>6</v>
       </c>
       <c r="W142" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X142" s="17"/>
-      <c r="Y142" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X142" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y142" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z142" s="17"/>
       <c r="AA142" s="17"/>
       <c r="AB142" s="17"/>
@@ -24682,7 +25399,7 @@
         <v>12254</v>
       </c>
       <c r="E143" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F143" s="17">
@@ -24729,18 +25446,23 @@
         <v>2</v>
       </c>
       <c r="U143" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="17">
+        <v>1</v>
+      </c>
+      <c r="W143" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V143" s="17">
-        <v>1</v>
-      </c>
-      <c r="W143" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X143" s="17"/>
-      <c r="Y143" s="17"/>
+      <c r="X143" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y143" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z143" s="17"/>
       <c r="AA143" s="17"/>
       <c r="AB143" s="17"/>
@@ -24777,7 +25499,7 @@
         <v>12254</v>
       </c>
       <c r="E144" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F144" s="17">
@@ -24824,7 +25546,7 @@
         <v>1</v>
       </c>
       <c r="U144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V144" s="17">
@@ -24834,8 +25556,13 @@
         <f>IF(V144=S144,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X144" s="17"/>
-      <c r="Y144" s="17"/>
+      <c r="X144" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y144" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z144" s="17"/>
       <c r="AA144" s="17"/>
       <c r="AB144" s="17"/>
@@ -24872,7 +25599,7 @@
         <v>12254</v>
       </c>
       <c r="E145" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>80</v>
       </c>
       <c r="F145" s="17">
@@ -24919,18 +25646,23 @@
         <v>4</v>
       </c>
       <c r="U145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V145" s="17">
         <v>3</v>
       </c>
       <c r="W145" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X145" s="17"/>
-      <c r="Y145" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X145" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y145" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z145" s="17"/>
       <c r="AA145" s="17"/>
       <c r="AB145" s="17"/>
@@ -24967,7 +25699,7 @@
         <v>9095</v>
       </c>
       <c r="E146" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F146" s="45">
@@ -25014,7 +25746,7 @@
         <v>3</v>
       </c>
       <c r="U146" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V146" s="45">
@@ -25024,8 +25756,13 @@
         <f>IF(V146=S146,1,0)</f>
         <v>1</v>
       </c>
-      <c r="X146" s="45"/>
-      <c r="Y146" s="45"/>
+      <c r="X146" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y146" s="45">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
       <c r="AB146" s="45"/>
@@ -25142,7 +25879,7 @@
         <v>9095</v>
       </c>
       <c r="E147" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F147" s="45">
@@ -25189,18 +25926,23 @@
         <v>2</v>
       </c>
       <c r="U147" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V147" s="45">
         <v>2</v>
       </c>
       <c r="W147" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X147" s="45"/>
-      <c r="Y147" s="45"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X147" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y147" s="45">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
       <c r="AB147" s="45"/>
@@ -25317,7 +26059,7 @@
         <v>9095</v>
       </c>
       <c r="E148" s="44">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F148" s="45">
@@ -25364,18 +26106,23 @@
         <v>1</v>
       </c>
       <c r="U148" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V148" s="45">
+        <v>1</v>
+      </c>
+      <c r="W148" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V148" s="45">
-        <v>1</v>
-      </c>
-      <c r="W148" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X148" s="45"/>
-      <c r="Y148" s="45"/>
+      <c r="X148" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y148" s="45">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
       <c r="AB148" s="45"/>
@@ -25492,7 +26239,7 @@
         <v>9079</v>
       </c>
       <c r="E149" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F149" s="17">
@@ -25539,18 +26286,23 @@
         <v>5</v>
       </c>
       <c r="U149" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V149" s="17">
         <v>4</v>
       </c>
       <c r="W149" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X149" s="17"/>
-      <c r="Y149" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X149" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y149" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z149" s="17"/>
       <c r="AA149" s="17"/>
       <c r="AB149" s="17"/>
@@ -25667,7 +26419,7 @@
         <v>9079</v>
       </c>
       <c r="E150" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F150" s="17">
@@ -25714,18 +26466,23 @@
         <v>1</v>
       </c>
       <c r="U150" s="17">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V150" s="17">
+        <v>1</v>
+      </c>
+      <c r="W150" s="17">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="V150" s="17">
-        <v>1</v>
-      </c>
-      <c r="W150" s="17">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X150" s="17"/>
-      <c r="Y150" s="17"/>
+      <c r="X150" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y150" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z150" s="17"/>
       <c r="AA150" s="17"/>
       <c r="AB150" s="17"/>
@@ -25842,7 +26599,7 @@
         <v>9079</v>
       </c>
       <c r="E151" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F151" s="17">
@@ -25889,18 +26646,23 @@
         <v>2</v>
       </c>
       <c r="U151" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V151" s="17">
         <v>3</v>
       </c>
       <c r="W151" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X151" s="17"/>
-      <c r="Y151" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X151" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y151" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z151" s="17"/>
       <c r="AA151" s="17"/>
       <c r="AB151" s="17"/>
@@ -26017,7 +26779,7 @@
         <v>9079</v>
       </c>
       <c r="E152" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F152" s="17">
@@ -26064,18 +26826,23 @@
         <v>3</v>
       </c>
       <c r="U152" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V152" s="17">
         <v>2</v>
       </c>
       <c r="W152" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X152" s="17"/>
-      <c r="Y152" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X152" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y152" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z152" s="17"/>
       <c r="AA152" s="17"/>
       <c r="AB152" s="17"/>
@@ -26192,7 +26959,7 @@
         <v>9079</v>
       </c>
       <c r="E153" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F153" s="17">
@@ -26239,18 +27006,23 @@
         <v>4</v>
       </c>
       <c r="U153" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V153" s="17">
         <v>6</v>
       </c>
       <c r="W153" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X153" s="17"/>
-      <c r="Y153" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X153" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y153" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z153" s="17"/>
       <c r="AA153" s="17"/>
       <c r="AB153" s="17"/>
@@ -26367,7 +27139,7 @@
         <v>9079</v>
       </c>
       <c r="E154" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>89</v>
       </c>
       <c r="F154" s="17">
@@ -26414,18 +27186,23 @@
         <v>6</v>
       </c>
       <c r="U154" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V154" s="17">
         <v>5</v>
       </c>
       <c r="W154" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X154" s="17"/>
-      <c r="Y154" s="17"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X154" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y154" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Z154" s="17"/>
       <c r="AA154" s="17"/>
       <c r="AB154" s="17"/>
@@ -26687,7 +27464,10 @@
         <v>82</v>
       </c>
       <c r="X156" s="34"/>
-      <c r="Y156" s="34"/>
+      <c r="Y156" s="34">
+        <f>SUM(Y2:Y154)</f>
+        <v>64</v>
+      </c>
       <c r="Z156" s="34"/>
       <c r="AA156" s="34"/>
       <c r="AB156" s="34"/>
@@ -44159,7 +44939,7 @@
       </c>
       <c r="E73" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F73" s="45">
         <v>20</v>
@@ -44329,7 +45109,7 @@
       </c>
       <c r="E74" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="45">
         <v>20</v>
@@ -44499,7 +45279,7 @@
       </c>
       <c r="E75" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F75" s="45">
         <v>20</v>
@@ -44669,7 +45449,7 @@
       </c>
       <c r="E76" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" s="45">
         <v>16</v>
@@ -44839,7 +45619,7 @@
       </c>
       <c r="E77" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F77" s="45">
         <v>16</v>
@@ -45009,7 +45789,7 @@
       </c>
       <c r="E78" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F78" s="45">
         <v>20</v>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="254">
   <si>
     <t>Patient</t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>thiran Results</t>
+  </si>
+  <si>
+    <t>Grant Comer</t>
+  </si>
+  <si>
+    <t>Comer Results</t>
   </si>
 </sst>
 </file>
@@ -1884,11 +1890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234546248"/>
-        <c:axId val="234546640"/>
+        <c:axId val="189900656"/>
+        <c:axId val="189896736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234546248"/>
+        <c:axId val="189900656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234546640"/>
+        <c:crossAx val="189896736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234546640"/>
+        <c:axId val="189896736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234546248"/>
+        <c:crossAx val="189900656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2258,10 +2264,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="AA155" sqref="AA155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,8 +2373,12 @@
       <c r="Y1" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="Z1" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>253</v>
+      </c>
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
       <c r="AD1" s="38"/>
@@ -2465,11 +2475,16 @@
         <v>4</v>
       </c>
       <c r="Y2" s="45">
-        <f>IF(X2=S2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
+        <f t="shared" ref="Y2:Y66" si="1">IF(X2=S2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="45">
+        <f>IF(Z2=S2,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
@@ -2631,25 +2646,30 @@
         <v>3</v>
       </c>
       <c r="U3" s="45">
-        <f t="shared" ref="U3:U33" si="1">IF(S3=T3,1,0)</f>
+        <f t="shared" ref="U3:U33" si="2">IF(S3=T3,1,0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="45">
         <v>2</v>
       </c>
       <c r="W3" s="45">
-        <f t="shared" ref="W3:W19" si="2">IF(V3=S3,1,0)</f>
+        <f t="shared" ref="W3:W19" si="3">IF(V3=S3,1,0)</f>
         <v>1</v>
       </c>
       <c r="X3" s="45">
         <v>1</v>
       </c>
       <c r="Y3" s="45">
-        <f t="shared" ref="Y3:Y66" si="3">IF(X3=S3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="45">
+        <f t="shared" ref="AA3:AA66" si="4">IF(Z3=S3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
       <c r="AD3" s="45"/>
@@ -2811,25 +2831,30 @@
         <v>4</v>
       </c>
       <c r="U4" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V4" s="45">
         <v>3</v>
       </c>
       <c r="W4" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X4" s="45">
         <v>2</v>
       </c>
       <c r="Y4" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
       <c r="AD4" s="45"/>
@@ -2992,25 +3017,30 @@
         <v>1</v>
       </c>
       <c r="U5" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V5" s="45">
         <v>1</v>
       </c>
       <c r="W5" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X5" s="45">
         <v>3</v>
       </c>
       <c r="Y5" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
@@ -3173,25 +3203,30 @@
         <v>2</v>
       </c>
       <c r="U6" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V6" s="45">
         <v>2</v>
       </c>
       <c r="W6" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X6" s="45">
         <v>1</v>
       </c>
       <c r="Y6" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="45"/>
@@ -3354,25 +3389,30 @@
         <v>1</v>
       </c>
       <c r="U7" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V7" s="45">
         <v>1</v>
       </c>
       <c r="W7" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X7" s="45">
         <v>2</v>
       </c>
       <c r="Y7" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB7" s="45"/>
       <c r="AC7" s="45"/>
       <c r="AD7" s="45"/>
@@ -3535,25 +3575,30 @@
         <v>2</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V8" s="17">
         <v>2</v>
       </c>
       <c r="W8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X8" s="17">
         <v>2</v>
       </c>
       <c r="Y8" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
@@ -3715,25 +3760,30 @@
         <v>1</v>
       </c>
       <c r="U9" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V9" s="17">
-        <v>1</v>
-      </c>
-      <c r="W9" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
+      <c r="Z9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -3895,25 +3945,30 @@
         <v>6</v>
       </c>
       <c r="U10" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V10" s="45">
         <v>6</v>
       </c>
       <c r="W10" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X10" s="45">
         <v>4</v>
       </c>
       <c r="Y10" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB10" s="45"/>
       <c r="AC10" s="45"/>
       <c r="AD10" s="45"/>
@@ -4075,25 +4130,30 @@
         <v>2</v>
       </c>
       <c r="U11" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="45">
         <v>1</v>
       </c>
       <c r="W11" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X11" s="45">
         <v>6</v>
       </c>
       <c r="Y11" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB11" s="45"/>
       <c r="AC11" s="45"/>
       <c r="AD11" s="45"/>
@@ -4255,25 +4315,30 @@
         <v>4</v>
       </c>
       <c r="U12" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V12" s="45">
         <v>4</v>
       </c>
       <c r="W12" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X12" s="45">
         <v>5</v>
       </c>
       <c r="Y12" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB12" s="45"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="45"/>
@@ -4435,25 +4500,30 @@
         <v>5</v>
       </c>
       <c r="U13" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="45">
         <v>2</v>
       </c>
       <c r="W13" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X13" s="45">
         <v>2</v>
       </c>
       <c r="Y13" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB13" s="45"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="45"/>
@@ -4615,25 +4685,30 @@
         <v>3</v>
       </c>
       <c r="U14" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="45">
         <v>5</v>
       </c>
       <c r="W14" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X14" s="45">
         <v>3</v>
       </c>
       <c r="Y14" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB14" s="45"/>
       <c r="AC14" s="45"/>
       <c r="AD14" s="45"/>
@@ -4715,25 +4790,30 @@
         <v>1</v>
       </c>
       <c r="U15" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15" s="45">
         <v>3</v>
       </c>
       <c r="W15" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X15" s="45">
         <v>1</v>
       </c>
       <c r="Y15" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB15" s="45"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="45"/>
@@ -4895,25 +4975,30 @@
         <v>6</v>
       </c>
       <c r="U16" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V16" s="45">
         <v>6</v>
       </c>
       <c r="W16" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X16" s="45">
         <v>1</v>
       </c>
       <c r="Y16" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB16" s="45"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="45"/>
@@ -5075,25 +5160,30 @@
         <v>1</v>
       </c>
       <c r="U17" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V17" s="45">
         <v>1</v>
       </c>
       <c r="W17" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X17" s="45">
         <v>4</v>
       </c>
       <c r="Y17" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
@@ -5255,25 +5345,30 @@
         <v>3</v>
       </c>
       <c r="U18" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V18" s="45">
         <v>4</v>
       </c>
       <c r="W18" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X18" s="45">
         <v>3</v>
       </c>
       <c r="Y18" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB18" s="45"/>
       <c r="AC18" s="45"/>
       <c r="AD18" s="45"/>
@@ -5435,25 +5530,30 @@
         <v>2</v>
       </c>
       <c r="U19" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V19" s="45">
         <v>2</v>
       </c>
       <c r="W19" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X19" s="45">
         <v>5</v>
       </c>
       <c r="Y19" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB19" s="45"/>
       <c r="AC19" s="45"/>
       <c r="AD19" s="45"/>
@@ -5615,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="U20" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V20" s="45">
@@ -5629,11 +5729,16 @@
         <v>2</v>
       </c>
       <c r="Y20" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB20" s="45"/>
       <c r="AC20" s="45"/>
       <c r="AD20" s="45"/>
@@ -5795,25 +5900,30 @@
         <v>4</v>
       </c>
       <c r="U21" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V21" s="45">
         <v>3</v>
       </c>
       <c r="W21" s="45">
-        <f t="shared" ref="W21:W84" si="4">IF(V21=S21,1,0)</f>
+        <f t="shared" ref="W21:W84" si="5">IF(V21=S21,1,0)</f>
         <v>1</v>
       </c>
       <c r="X21" s="45">
         <v>6</v>
       </c>
       <c r="Y21" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB21" s="45"/>
       <c r="AC21" s="45"/>
       <c r="AD21" s="45"/>
@@ -5975,25 +6085,30 @@
         <v>2</v>
       </c>
       <c r="U22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V22" s="17">
         <v>3</v>
       </c>
       <c r="W22" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X22" s="17">
         <v>3</v>
       </c>
       <c r="Y22" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -6155,25 +6270,30 @@
         <v>4</v>
       </c>
       <c r="U23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V23" s="17">
         <v>2</v>
       </c>
       <c r="W23" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X23" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -6335,25 +6455,30 @@
         <v>3</v>
       </c>
       <c r="U24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V24" s="17">
         <v>5</v>
       </c>
       <c r="W24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X24" s="17">
         <v>2</v>
       </c>
       <c r="Y24" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -6515,25 +6640,30 @@
         <v>5</v>
       </c>
       <c r="U25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V25" s="17">
         <v>4</v>
       </c>
       <c r="W25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X25" s="17">
         <v>4</v>
       </c>
       <c r="Y25" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -6695,25 +6825,30 @@
         <v>1</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V26" s="17">
         <v>1</v>
       </c>
       <c r="W26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X26" s="17">
         <v>5</v>
       </c>
       <c r="Y26" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
@@ -6875,25 +7010,30 @@
         <v>1</v>
       </c>
       <c r="U27" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V27" s="45">
         <v>2</v>
       </c>
       <c r="W27" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X27" s="45">
         <v>3</v>
       </c>
       <c r="Y27" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
       <c r="AD27" s="45"/>
@@ -7055,25 +7195,30 @@
         <v>2</v>
       </c>
       <c r="U28" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="45">
+        <v>1</v>
+      </c>
+      <c r="W28" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V28" s="45">
-        <v>1</v>
-      </c>
-      <c r="W28" s="45">
+      <c r="Z28" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X28" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="45"/>
@@ -7155,25 +7300,30 @@
         <v>3</v>
       </c>
       <c r="U29" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V29" s="45">
         <v>3</v>
       </c>
       <c r="W29" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X29" s="45">
         <v>2</v>
       </c>
       <c r="Y29" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
       <c r="AD29" s="45"/>
@@ -7335,25 +7485,30 @@
         <v>1</v>
       </c>
       <c r="U30" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V30" s="45">
         <v>3</v>
       </c>
       <c r="W30" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30" s="45">
         <v>3</v>
       </c>
       <c r="Y30" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
       <c r="AD30" s="45"/>
@@ -7515,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V31" s="45">
@@ -7529,11 +7684,16 @@
         <v>1</v>
       </c>
       <c r="Y31" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB31" s="45"/>
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
@@ -7695,25 +7855,30 @@
         <v>3</v>
       </c>
       <c r="U32" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V32" s="45">
         <v>2</v>
       </c>
       <c r="W32" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X32" s="45">
         <v>2</v>
       </c>
       <c r="Y32" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z32" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB32" s="45"/>
       <c r="AC32" s="45"/>
       <c r="AD32" s="45"/>
@@ -7875,25 +8040,30 @@
         <v>3</v>
       </c>
       <c r="U33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V33" s="17">
         <v>3</v>
       </c>
       <c r="W33" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X33" s="17">
         <v>3</v>
       </c>
       <c r="Y33" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -8008,7 +8178,7 @@
         <v>14269</v>
       </c>
       <c r="E34" s="52">
-        <f t="shared" ref="E34:E65" ca="1" si="5">INT((TODAY()-D34)/365.25)</f>
+        <f t="shared" ref="E34:E65" ca="1" si="6">INT((TODAY()-D34)/365.25)</f>
         <v>75</v>
       </c>
       <c r="F34" s="17">
@@ -8055,25 +8225,30 @@
         <v>5</v>
       </c>
       <c r="U34" s="17">
-        <f t="shared" ref="U34:U65" si="6">IF(S34=T34,1,0)</f>
+        <f t="shared" ref="U34:U65" si="7">IF(S34=T34,1,0)</f>
         <v>0</v>
       </c>
       <c r="V34" s="17">
         <v>5</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X34" s="17">
         <v>4</v>
       </c>
       <c r="Y34" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -8188,7 +8363,7 @@
         <v>14269</v>
       </c>
       <c r="E35" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F35" s="17">
@@ -8235,25 +8410,30 @@
         <v>6</v>
       </c>
       <c r="U35" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35" s="17">
         <v>6</v>
       </c>
       <c r="W35" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X35" s="17">
         <v>6</v>
       </c>
       <c r="Y35" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA35" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -8368,7 +8548,7 @@
         <v>14269</v>
       </c>
       <c r="E36" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F36" s="17">
@@ -8415,25 +8595,30 @@
         <v>1</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V36" s="17">
         <v>1</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X36" s="17">
         <v>2</v>
       </c>
       <c r="Y36" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -8548,7 +8733,7 @@
         <v>14269</v>
       </c>
       <c r="E37" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F37" s="17">
@@ -8595,25 +8780,30 @@
         <v>4</v>
       </c>
       <c r="U37" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V37" s="17">
         <v>4</v>
       </c>
       <c r="W37" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X37" s="17">
         <v>5</v>
       </c>
       <c r="Y37" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
@@ -8728,7 +8918,7 @@
         <v>14269</v>
       </c>
       <c r="E38" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F38" s="17">
@@ -8775,25 +8965,30 @@
         <v>2</v>
       </c>
       <c r="U38" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V38" s="17">
         <v>2</v>
       </c>
       <c r="W38" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="45">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X38" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
+        <v>0</v>
+      </c>
       <c r="AB38" s="17"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
@@ -8908,7 +9103,7 @@
         <v>14269</v>
       </c>
       <c r="E39" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F39" s="17">
@@ -8955,25 +9150,30 @@
         <v>3</v>
       </c>
       <c r="U39" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V39" s="17">
         <v>3</v>
       </c>
       <c r="W39" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X39" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X39" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
@@ -9088,7 +9288,7 @@
         <v>14269</v>
       </c>
       <c r="E40" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F40" s="17">
@@ -9135,25 +9335,30 @@
         <v>6</v>
       </c>
       <c r="U40" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V40" s="17">
         <v>5</v>
       </c>
       <c r="W40" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X40" s="17">
         <v>6</v>
       </c>
       <c r="Y40" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
@@ -9268,7 +9473,7 @@
         <v>14269</v>
       </c>
       <c r="E41" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F41" s="17">
@@ -9315,25 +9520,30 @@
         <v>5</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V41" s="17">
         <v>6</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X41" s="17">
         <v>5</v>
       </c>
       <c r="Y41" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
@@ -9368,7 +9578,7 @@
         <v>14269</v>
       </c>
       <c r="E42" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F42" s="17">
@@ -9415,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V42" s="17">
@@ -9429,11 +9639,16 @@
         <v>2</v>
       </c>
       <c r="Y42" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
@@ -9468,7 +9683,7 @@
         <v>14269</v>
       </c>
       <c r="E43" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F43" s="17">
@@ -9515,25 +9730,30 @@
         <v>4</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V43" s="17">
         <v>4</v>
       </c>
       <c r="W43" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X43" s="17">
         <v>4</v>
       </c>
       <c r="Y43" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
@@ -9568,7 +9788,7 @@
         <v>14269</v>
       </c>
       <c r="E44" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="F44" s="17">
@@ -9615,25 +9835,30 @@
         <v>2</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V44" s="17">
         <v>2</v>
       </c>
       <c r="W44" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X44" s="17">
         <v>3</v>
       </c>
       <c r="Y44" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
@@ -9668,7 +9893,7 @@
         <v>13103</v>
       </c>
       <c r="E45" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F45" s="45">
@@ -9715,25 +9940,30 @@
         <v>2</v>
       </c>
       <c r="U45" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V45" s="45">
         <v>2</v>
       </c>
       <c r="W45" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X45" s="45">
         <v>4</v>
       </c>
       <c r="Y45" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB45" s="45"/>
       <c r="AC45" s="45"/>
       <c r="AD45" s="45"/>
@@ -9768,7 +9998,7 @@
         <v>13103</v>
       </c>
       <c r="E46" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F46" s="45">
@@ -9815,25 +10045,30 @@
         <v>6</v>
       </c>
       <c r="U46" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V46" s="45">
         <v>6</v>
       </c>
       <c r="W46" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X46" s="45">
         <v>5</v>
       </c>
       <c r="Y46" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB46" s="45"/>
       <c r="AC46" s="45"/>
       <c r="AD46" s="45"/>
@@ -9948,7 +10183,7 @@
         <v>13103</v>
       </c>
       <c r="E47" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F47" s="45">
@@ -9995,25 +10230,30 @@
         <v>4</v>
       </c>
       <c r="U47" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V47" s="45">
         <v>4</v>
       </c>
       <c r="W47" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X47" s="45">
         <v>3</v>
       </c>
       <c r="Y47" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB47" s="45"/>
       <c r="AC47" s="45"/>
       <c r="AD47" s="45"/>
@@ -10128,7 +10368,7 @@
         <v>13103</v>
       </c>
       <c r="E48" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F48" s="45">
@@ -10175,25 +10415,30 @@
         <v>1</v>
       </c>
       <c r="U48" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V48" s="45">
         <v>1</v>
       </c>
       <c r="W48" s="45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X48" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X48" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
       <c r="AB48" s="45"/>
       <c r="AC48" s="45"/>
       <c r="AD48" s="45"/>
@@ -10308,7 +10553,7 @@
         <v>13103</v>
       </c>
       <c r="E49" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F49" s="45">
@@ -10355,7 +10600,7 @@
         <v>3</v>
       </c>
       <c r="U49" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V49" s="45">
@@ -10369,11 +10614,16 @@
         <v>2</v>
       </c>
       <c r="Y49" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB49" s="45"/>
       <c r="AC49" s="45"/>
       <c r="AD49" s="45"/>
@@ -10488,7 +10738,7 @@
         <v>13103</v>
       </c>
       <c r="E50" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="F50" s="45">
@@ -10535,25 +10785,30 @@
         <v>5</v>
       </c>
       <c r="U50" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V50" s="45">
         <v>5</v>
       </c>
       <c r="W50" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X50" s="45">
         <v>6</v>
       </c>
       <c r="Y50" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB50" s="45"/>
       <c r="AC50" s="45"/>
       <c r="AD50" s="45"/>
@@ -10668,7 +10923,7 @@
         <v>10000</v>
       </c>
       <c r="E51" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
       <c r="F51" s="17">
@@ -10715,25 +10970,30 @@
         <v>2</v>
       </c>
       <c r="U51" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V51" s="17">
         <v>2</v>
       </c>
       <c r="W51" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X51" s="17">
         <v>2</v>
       </c>
       <c r="Y51" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB51" s="17"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
@@ -10848,7 +11108,7 @@
         <v>10000</v>
       </c>
       <c r="E52" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
       <c r="F52" s="17">
@@ -10895,25 +11155,30 @@
         <v>1</v>
       </c>
       <c r="U52" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V52" s="17">
         <v>1</v>
       </c>
       <c r="W52" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z52" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X52" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
@@ -10949,7 +11214,7 @@
         <v>10000</v>
       </c>
       <c r="E53" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
       <c r="F53" s="17">
@@ -10996,25 +11261,30 @@
         <v>2</v>
       </c>
       <c r="U53" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V53" s="17">
         <v>2</v>
       </c>
       <c r="W53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X53" s="17">
         <v>2</v>
       </c>
       <c r="Y53" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z53" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
@@ -11050,7 +11320,7 @@
         <v>10000</v>
       </c>
       <c r="E54" s="52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
       <c r="F54" s="17">
@@ -11097,25 +11367,30 @@
         <v>1</v>
       </c>
       <c r="U54" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V54" s="17">
         <v>1</v>
       </c>
       <c r="W54" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X54" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z54" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X54" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
@@ -11151,7 +11426,7 @@
         <v>16503</v>
       </c>
       <c r="E55" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F55" s="44">
@@ -11198,25 +11473,30 @@
         <v>3</v>
       </c>
       <c r="U55" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V55" s="45">
         <v>3</v>
       </c>
       <c r="W55" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X55" s="45">
         <v>3</v>
       </c>
       <c r="Y55" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA55" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB55" s="45"/>
       <c r="AC55" s="45"/>
       <c r="AD55" s="45"/>
@@ -11252,7 +11532,7 @@
         <v>16503</v>
       </c>
       <c r="E56" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F56" s="44">
@@ -11299,25 +11579,30 @@
         <v>1</v>
       </c>
       <c r="U56" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V56" s="45">
         <v>1</v>
       </c>
       <c r="W56" s="45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X56" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z56" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X56" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
       <c r="AB56" s="45"/>
       <c r="AC56" s="45"/>
       <c r="AD56" s="45"/>
@@ -11432,7 +11717,7 @@
         <v>16503</v>
       </c>
       <c r="E57" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F57" s="44">
@@ -11479,25 +11764,30 @@
         <v>2</v>
       </c>
       <c r="U57" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V57" s="45">
         <v>2</v>
       </c>
       <c r="W57" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X57" s="45">
         <v>2</v>
       </c>
       <c r="Y57" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z57" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB57" s="45"/>
       <c r="AC57" s="45"/>
       <c r="AD57" s="45"/>
@@ -11612,7 +11902,7 @@
         <v>16503</v>
       </c>
       <c r="E58" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F58" s="44">
@@ -11659,25 +11949,30 @@
         <v>4</v>
       </c>
       <c r="U58" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V58" s="45">
         <v>4</v>
       </c>
       <c r="W58" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X58" s="45">
         <v>4</v>
       </c>
       <c r="Y58" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z58" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB58" s="45"/>
       <c r="AC58" s="45"/>
       <c r="AD58" s="45"/>
@@ -11712,7 +12007,7 @@
         <v>16503</v>
       </c>
       <c r="E59" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F59" s="44">
@@ -11759,25 +12054,30 @@
         <v>5</v>
       </c>
       <c r="U59" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V59" s="45">
         <v>5</v>
       </c>
       <c r="W59" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X59" s="45">
         <v>5</v>
       </c>
       <c r="Y59" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB59" s="45"/>
       <c r="AC59" s="45"/>
       <c r="AD59" s="45"/>
@@ -11892,7 +12192,7 @@
         <v>16503</v>
       </c>
       <c r="E60" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F60" s="44">
@@ -11939,7 +12239,7 @@
         <v>3</v>
       </c>
       <c r="U60" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V60" s="45">
@@ -11953,11 +12253,16 @@
         <v>3</v>
       </c>
       <c r="Y60" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z60" s="45"/>
-      <c r="AA60" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z60" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB60" s="45"/>
       <c r="AC60" s="45"/>
       <c r="AD60" s="45"/>
@@ -11992,7 +12297,7 @@
         <v>16503</v>
       </c>
       <c r="E61" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F61" s="44">
@@ -12039,23 +12344,28 @@
         <v>6</v>
       </c>
       <c r="U61" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V61" s="45"/>
       <c r="W61" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X61" s="45">
         <v>6</v>
       </c>
       <c r="Y61" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z61" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA61" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB61" s="45"/>
       <c r="AC61" s="45"/>
       <c r="AD61" s="45"/>
@@ -12090,7 +12400,7 @@
         <v>16503</v>
       </c>
       <c r="E62" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F62" s="44">
@@ -12137,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="U62" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V62" s="45">
@@ -12151,11 +12461,16 @@
         <v>1</v>
       </c>
       <c r="Y62" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB62" s="45"/>
       <c r="AC62" s="45"/>
       <c r="AD62" s="45"/>
@@ -12270,7 +12585,7 @@
         <v>16503</v>
       </c>
       <c r="E63" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F63" s="44">
@@ -12317,25 +12632,30 @@
         <v>2</v>
       </c>
       <c r="U63" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V63" s="45">
         <v>2</v>
       </c>
       <c r="W63" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X63" s="45">
         <v>2</v>
       </c>
       <c r="Y63" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z63" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB63" s="45"/>
       <c r="AC63" s="45"/>
       <c r="AD63" s="45"/>
@@ -12450,7 +12770,7 @@
         <v>16503</v>
       </c>
       <c r="E64" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F64" s="44">
@@ -12497,25 +12817,30 @@
         <v>4</v>
       </c>
       <c r="U64" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V64" s="45">
         <v>4</v>
       </c>
       <c r="W64" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X64" s="45">
         <v>4</v>
       </c>
       <c r="Y64" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z64" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB64" s="45"/>
       <c r="AC64" s="45"/>
       <c r="AD64" s="45"/>
@@ -12630,7 +12955,7 @@
         <v>16503</v>
       </c>
       <c r="E65" s="44">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="F65" s="44">
@@ -12677,25 +13002,30 @@
         <v>5</v>
       </c>
       <c r="U65" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V65" s="45">
         <v>5</v>
       </c>
       <c r="W65" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X65" s="45">
         <v>5</v>
       </c>
       <c r="Y65" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z65" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA65" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AB65" s="45"/>
       <c r="AC65" s="45"/>
       <c r="AD65" s="45"/>
@@ -12810,7 +13140,7 @@
         <v>12918</v>
       </c>
       <c r="E66" s="52">
-        <f t="shared" ref="E66:E97" ca="1" si="7">INT((TODAY()-D66)/365.25)</f>
+        <f t="shared" ref="E66:E97" ca="1" si="8">INT((TODAY()-D66)/365.25)</f>
         <v>79</v>
       </c>
       <c r="F66" s="17">
@@ -12857,25 +13187,30 @@
         <v>4</v>
       </c>
       <c r="U66" s="17">
-        <f t="shared" ref="U66:U97" si="8">IF(S66=T66,1,0)</f>
+        <f t="shared" ref="U66:U97" si="9">IF(S66=T66,1,0)</f>
         <v>0</v>
       </c>
       <c r="V66" s="17">
         <v>4</v>
       </c>
       <c r="W66" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X66" s="17">
         <v>3</v>
       </c>
       <c r="Y66" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
@@ -12990,7 +13325,7 @@
         <v>12918</v>
       </c>
       <c r="E67" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F67" s="17">
@@ -13037,25 +13372,30 @@
         <v>3</v>
       </c>
       <c r="U67" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V67" s="17">
         <v>3</v>
       </c>
       <c r="W67" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X67" s="17">
         <v>1</v>
       </c>
       <c r="Y67" s="45">
-        <f t="shared" ref="Y67:Y130" si="9">IF(X67=S67,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
+        <f t="shared" ref="Y67:Y130" si="10">IF(X67=S67,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA67" s="45">
+        <f t="shared" ref="AA67:AA130" si="11">IF(Z67=S67,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AB67" s="17"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
@@ -13170,7 +13510,7 @@
         <v>12918</v>
       </c>
       <c r="E68" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F68" s="17">
@@ -13217,25 +13557,30 @@
         <v>1</v>
       </c>
       <c r="U68" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V68" s="17">
         <v>1</v>
       </c>
       <c r="W68" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X68" s="17">
         <v>2</v>
       </c>
       <c r="Y68" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z68" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB68" s="17"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
@@ -13350,7 +13695,7 @@
         <v>12918</v>
       </c>
       <c r="E69" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F69" s="17">
@@ -13397,25 +13742,30 @@
         <v>2</v>
       </c>
       <c r="U69" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V69" s="17">
         <v>2</v>
       </c>
       <c r="W69" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X69" s="17">
         <v>4</v>
       </c>
       <c r="Y69" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z69" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA69" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB69" s="17"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
@@ -13530,7 +13880,7 @@
         <v>12918</v>
       </c>
       <c r="E70" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F70" s="17">
@@ -13577,25 +13927,30 @@
         <v>3</v>
       </c>
       <c r="U70" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V70" s="17">
         <v>1</v>
       </c>
       <c r="W70" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X70" s="17">
         <v>1</v>
       </c>
       <c r="Y70" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z70" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA70" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB70" s="17"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
@@ -13710,7 +14065,7 @@
         <v>12918</v>
       </c>
       <c r="E71" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F71" s="17">
@@ -13757,25 +14112,30 @@
         <v>4</v>
       </c>
       <c r="U71" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V71" s="17">
         <v>3</v>
       </c>
       <c r="W71" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X71" s="17">
         <v>3</v>
       </c>
       <c r="Y71" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA71" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB71" s="17"/>
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
@@ -13890,7 +14250,7 @@
         <v>12918</v>
       </c>
       <c r="E72" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F72" s="17">
@@ -13937,25 +14297,30 @@
         <v>5</v>
       </c>
       <c r="U72" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V72" s="17">
         <v>4</v>
       </c>
       <c r="W72" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X72" s="17">
         <v>5</v>
       </c>
       <c r="Y72" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB72" s="17"/>
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
@@ -14070,7 +14435,7 @@
         <v>12918</v>
       </c>
       <c r="E73" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F73" s="17">
@@ -14117,7 +14482,7 @@
         <v>6</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V73" s="17">
@@ -14131,11 +14496,16 @@
         <v>6</v>
       </c>
       <c r="Y73" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA73" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB73" s="17"/>
       <c r="AC73" s="17"/>
       <c r="AD73" s="17"/>
@@ -14250,7 +14620,7 @@
         <v>12918</v>
       </c>
       <c r="E74" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F74" s="17">
@@ -14297,25 +14667,30 @@
         <v>1</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V74" s="17">
         <v>2</v>
       </c>
       <c r="W74" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X74" s="17">
         <v>4</v>
       </c>
       <c r="Y74" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB74" s="17"/>
       <c r="AC74" s="17"/>
       <c r="AD74" s="17"/>
@@ -14430,7 +14805,7 @@
         <v>12918</v>
       </c>
       <c r="E75" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="F75" s="17">
@@ -14477,14 +14852,14 @@
         <v>2</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V75" s="17">
         <v>6</v>
       </c>
       <c r="W75" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X75" s="17">
@@ -14494,8 +14869,13 @@
         <f>IF(X75=S75,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
+      <c r="Z75" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB75" s="17"/>
       <c r="AC75" s="17"/>
       <c r="AD75" s="17"/>
@@ -14530,7 +14910,7 @@
         <v>22304</v>
       </c>
       <c r="E76" s="44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
       </c>
       <c r="F76" s="45">
@@ -14577,25 +14957,30 @@
         <v>1</v>
       </c>
       <c r="U76" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V76" s="45">
         <v>1</v>
       </c>
       <c r="W76" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X76" s="45">
         <v>1</v>
       </c>
       <c r="Y76" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z76" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB76" s="45"/>
       <c r="AC76" s="45"/>
       <c r="AD76" s="45"/>
@@ -14630,7 +15015,7 @@
         <v>22304</v>
       </c>
       <c r="E77" s="44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
       </c>
       <c r="F77" s="45">
@@ -14677,25 +15062,30 @@
         <v>2</v>
       </c>
       <c r="U77" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V77" s="45">
         <v>2</v>
       </c>
       <c r="W77" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X77" s="45">
         <v>2</v>
       </c>
       <c r="Y77" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z77" s="45"/>
-      <c r="AA77" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z77" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA77" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB77" s="45"/>
       <c r="AC77" s="45"/>
       <c r="AD77" s="45"/>
@@ -14810,7 +15200,7 @@
         <v>11780</v>
       </c>
       <c r="E78" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F78" s="17">
@@ -14857,7 +15247,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V78" s="17">
@@ -14871,11 +15261,16 @@
         <v>2</v>
       </c>
       <c r="Y78" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA78" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB78" s="17"/>
       <c r="AC78" s="17"/>
       <c r="AD78" s="17"/>
@@ -14910,7 +15305,7 @@
         <v>11780</v>
       </c>
       <c r="E79" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F79" s="17">
@@ -14957,25 +15352,30 @@
         <v>1</v>
       </c>
       <c r="U79" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V79" s="17">
         <v>1</v>
       </c>
       <c r="W79" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X79" s="17">
         <v>1</v>
       </c>
       <c r="Y79" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="17"/>
       <c r="AD79" s="17"/>
@@ -15090,7 +15490,7 @@
         <v>11780</v>
       </c>
       <c r="E80" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F80" s="17">
@@ -15137,25 +15537,30 @@
         <v>2</v>
       </c>
       <c r="U80" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V80" s="17">
         <v>2</v>
       </c>
       <c r="W80" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X80" s="17">
         <v>1</v>
       </c>
       <c r="Y80" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA80" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="17"/>
       <c r="AD80" s="17"/>
@@ -15270,7 +15675,7 @@
         <v>11780</v>
       </c>
       <c r="E81" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F81" s="17">
@@ -15317,25 +15722,30 @@
         <v>1</v>
       </c>
       <c r="U81" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V81" s="17">
         <v>1</v>
       </c>
       <c r="W81" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X81" s="17">
         <v>2</v>
       </c>
       <c r="Y81" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="17"/>
@@ -15450,8 +15860,8 @@
         <v>11463</v>
       </c>
       <c r="E82" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F82" s="45">
         <v>20</v>
@@ -15497,25 +15907,30 @@
         <v>5</v>
       </c>
       <c r="U82" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V82" s="45">
         <v>5</v>
       </c>
       <c r="W82" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X82" s="45">
         <v>4</v>
       </c>
       <c r="Y82" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="45"/>
-      <c r="AA82" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA82" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB82" s="45"/>
       <c r="AC82" s="45"/>
       <c r="AD82" s="45"/>
@@ -15550,8 +15965,8 @@
         <v>11463</v>
       </c>
       <c r="E83" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F83" s="45">
         <v>25</v>
@@ -15597,25 +16012,30 @@
         <v>3</v>
       </c>
       <c r="U83" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V83" s="45">
         <v>4</v>
       </c>
       <c r="W83" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X83" s="45">
         <v>1</v>
       </c>
       <c r="Y83" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="45"/>
-      <c r="AA83" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA83" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB83" s="45"/>
       <c r="AC83" s="45"/>
       <c r="AD83" s="45"/>
@@ -15650,8 +16070,8 @@
         <v>11463</v>
       </c>
       <c r="E84" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F84" s="45">
         <v>25</v>
@@ -15697,25 +16117,30 @@
         <v>6</v>
       </c>
       <c r="U84" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V84" s="45">
         <v>6</v>
       </c>
       <c r="W84" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X84" s="45">
         <v>5</v>
       </c>
       <c r="Y84" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA84" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB84" s="45"/>
       <c r="AC84" s="45"/>
       <c r="AD84" s="45"/>
@@ -15830,8 +16255,8 @@
         <v>11463</v>
       </c>
       <c r="E85" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F85" s="45">
         <v>20</v>
@@ -15877,25 +16302,30 @@
         <v>1</v>
       </c>
       <c r="U85" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V85" s="45">
         <v>2</v>
       </c>
       <c r="W85" s="45">
-        <f t="shared" ref="W85:W88" si="10">IF(V85=S85,1,0)</f>
+        <f t="shared" ref="W85:W88" si="12">IF(V85=S85,1,0)</f>
         <v>0</v>
       </c>
       <c r="X85" s="45">
         <v>6</v>
       </c>
       <c r="Y85" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="45"/>
-      <c r="AA85" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA85" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB85" s="45"/>
       <c r="AC85" s="45"/>
       <c r="AD85" s="45"/>
@@ -16010,8 +16440,8 @@
         <v>11463</v>
       </c>
       <c r="E86" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F86" s="45">
         <v>25</v>
@@ -16057,25 +16487,30 @@
         <v>2</v>
       </c>
       <c r="U86" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V86" s="45">
         <v>1</v>
       </c>
       <c r="W86" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X86" s="45">
         <v>3</v>
       </c>
       <c r="Y86" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="45"/>
-      <c r="AA86" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA86" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB86" s="45"/>
       <c r="AC86" s="45"/>
       <c r="AD86" s="45"/>
@@ -16190,8 +16625,8 @@
         <v>11463</v>
       </c>
       <c r="E87" s="44">
-        <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
       </c>
       <c r="F87" s="45">
         <v>20</v>
@@ -16237,25 +16672,30 @@
         <v>4</v>
       </c>
       <c r="U87" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V87" s="45">
         <v>3</v>
       </c>
       <c r="W87" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X87" s="45">
         <v>2</v>
       </c>
       <c r="Y87" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB87" s="45"/>
       <c r="AC87" s="45"/>
       <c r="AD87" s="45"/>
@@ -16370,7 +16810,7 @@
         <v>10021</v>
       </c>
       <c r="E88" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>86</v>
       </c>
       <c r="F88" s="17">
@@ -16417,25 +16857,30 @@
         <v>2</v>
       </c>
       <c r="U88" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V88" s="17">
         <v>2</v>
       </c>
       <c r="W88" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X88" s="17">
         <v>2</v>
       </c>
       <c r="Y88" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z88" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="17"/>
@@ -16550,7 +16995,7 @@
         <v>10021</v>
       </c>
       <c r="E89" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>86</v>
       </c>
       <c r="F89" s="17">
@@ -16597,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="U89" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V89" s="17">
@@ -16611,11 +17056,16 @@
         <v>1</v>
       </c>
       <c r="Y89" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z89" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA89" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="17"/>
       <c r="AD89" s="17"/>
@@ -16730,7 +17180,7 @@
         <v>11780</v>
       </c>
       <c r="E90" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F90" s="17">
@@ -16777,25 +17227,30 @@
         <v>3</v>
       </c>
       <c r="U90" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V90" s="17">
         <v>2</v>
       </c>
       <c r="W90" s="17">
-        <f t="shared" ref="W90:W103" si="11">IF(V90=S90,1,0)</f>
+        <f t="shared" ref="W90:W103" si="13">IF(V90=S90,1,0)</f>
         <v>1</v>
       </c>
       <c r="X90" s="17">
         <v>3</v>
       </c>
       <c r="Y90" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="17"/>
@@ -16910,7 +17365,7 @@
         <v>11780</v>
       </c>
       <c r="E91" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F91" s="17">
@@ -16957,25 +17412,30 @@
         <v>2</v>
       </c>
       <c r="U91" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V91" s="17">
         <v>1</v>
       </c>
       <c r="W91" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X91" s="17">
         <v>2</v>
       </c>
       <c r="Y91" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB91" s="17"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="17"/>
@@ -17090,7 +17550,7 @@
         <v>11780</v>
       </c>
       <c r="E92" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F92" s="17">
@@ -17137,25 +17597,30 @@
         <v>1</v>
       </c>
       <c r="U92" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V92" s="17">
         <v>5</v>
       </c>
       <c r="W92" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA92" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X92" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="17"/>
       <c r="AB92" s="17"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="17"/>
@@ -17270,7 +17735,7 @@
         <v>11780</v>
       </c>
       <c r="E93" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F93" s="17">
@@ -17317,25 +17782,30 @@
         <v>4</v>
       </c>
       <c r="U93" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V93" s="17">
         <v>4</v>
       </c>
       <c r="W93" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X93" s="17">
         <v>4</v>
       </c>
       <c r="Y93" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z93" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA93" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB93" s="17"/>
       <c r="AC93" s="17"/>
       <c r="AD93" s="17"/>
@@ -17450,7 +17920,7 @@
         <v>11780</v>
       </c>
       <c r="E94" s="52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="F94" s="17">
@@ -17497,25 +17967,30 @@
         <v>5</v>
       </c>
       <c r="U94" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V94" s="17">
         <v>3</v>
       </c>
       <c r="W94" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X94" s="17">
         <v>5</v>
       </c>
       <c r="Y94" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z94" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB94" s="17"/>
       <c r="AC94" s="17"/>
       <c r="AD94" s="17"/>
@@ -17630,7 +18105,7 @@
         <v>9555</v>
       </c>
       <c r="E95" s="44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>88</v>
       </c>
       <c r="F95" s="45">
@@ -17677,25 +18152,30 @@
         <v>1</v>
       </c>
       <c r="U95" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V95" s="45">
         <v>1</v>
       </c>
       <c r="W95" s="45">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="X95" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z95" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="45">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="X95" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y95" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z95" s="45"/>
-      <c r="AA95" s="45"/>
       <c r="AB95" s="45"/>
       <c r="AC95" s="45"/>
       <c r="AD95" s="45"/>
@@ -17810,7 +18290,7 @@
         <v>9555</v>
       </c>
       <c r="E96" s="44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>88</v>
       </c>
       <c r="F96" s="45">
@@ -17857,25 +18337,30 @@
         <v>3</v>
       </c>
       <c r="U96" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V96" s="45">
         <v>2</v>
       </c>
       <c r="W96" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X96" s="45">
         <v>3</v>
       </c>
       <c r="Y96" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z96" s="45"/>
-      <c r="AA96" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z96" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA96" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB96" s="45"/>
       <c r="AC96" s="45"/>
       <c r="AD96" s="45"/>
@@ -17910,7 +18395,7 @@
         <v>9555</v>
       </c>
       <c r="E97" s="44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>88</v>
       </c>
       <c r="F97" s="45">
@@ -17957,25 +18442,30 @@
         <v>2</v>
       </c>
       <c r="U97" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V97" s="45">
         <v>3</v>
       </c>
       <c r="W97" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X97" s="45">
         <v>2</v>
       </c>
       <c r="Y97" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z97" s="45"/>
-      <c r="AA97" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z97" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA97" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB97" s="45"/>
       <c r="AC97" s="45"/>
       <c r="AD97" s="45"/>
@@ -18090,7 +18580,7 @@
         <v>9555</v>
       </c>
       <c r="E98" s="44">
-        <f t="shared" ref="E98:E129" ca="1" si="12">INT((TODAY()-D98)/365.25)</f>
+        <f t="shared" ref="E98:E129" ca="1" si="14">INT((TODAY()-D98)/365.25)</f>
         <v>88</v>
       </c>
       <c r="F98" s="45">
@@ -18137,25 +18627,30 @@
         <v>4</v>
       </c>
       <c r="U98" s="45">
-        <f t="shared" ref="U98:U129" si="13">IF(S98=T98,1,0)</f>
+        <f t="shared" ref="U98:U129" si="15">IF(S98=T98,1,0)</f>
         <v>1</v>
       </c>
       <c r="V98" s="45">
         <v>4</v>
       </c>
       <c r="W98" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X98" s="45">
         <v>4</v>
       </c>
       <c r="Y98" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z98" s="45"/>
-      <c r="AA98" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z98" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA98" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB98" s="45"/>
       <c r="AC98" s="45"/>
       <c r="AD98" s="45"/>
@@ -18270,7 +18765,7 @@
         <v>9533</v>
       </c>
       <c r="E99" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="F99" s="17">
@@ -18317,25 +18812,30 @@
         <v>1</v>
       </c>
       <c r="U99" s="17">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V99" s="17">
+        <v>1</v>
+      </c>
+      <c r="W99" s="17">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V99" s="17">
-        <v>1</v>
-      </c>
-      <c r="W99" s="17">
+      <c r="X99" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z99" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="45">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="X99" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
       <c r="AB99" s="17"/>
       <c r="AC99" s="17"/>
       <c r="AD99" s="17"/>
@@ -18371,7 +18871,7 @@
         <v>9533</v>
       </c>
       <c r="E100" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="F100" s="17">
@@ -18418,7 +18918,7 @@
         <v>2</v>
       </c>
       <c r="U100" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V100" s="17">
@@ -18432,11 +18932,16 @@
         <v>2</v>
       </c>
       <c r="Y100" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z100" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA100" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB100" s="17"/>
       <c r="AC100" s="17"/>
       <c r="AD100" s="17"/>
@@ -18552,7 +19057,7 @@
         <v>9533</v>
       </c>
       <c r="E101" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="F101" s="17">
@@ -18599,25 +19104,30 @@
         <v>3</v>
       </c>
       <c r="U101" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V101" s="17">
         <v>3</v>
       </c>
       <c r="W101" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X101" s="17">
         <v>3</v>
       </c>
       <c r="Y101" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z101" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA101" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB101" s="17"/>
       <c r="AC101" s="17"/>
       <c r="AD101" s="17"/>
@@ -18653,7 +19163,7 @@
         <v>9533</v>
       </c>
       <c r="E102" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="F102" s="17">
@@ -18700,25 +19210,30 @@
         <v>5</v>
       </c>
       <c r="U102" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V102" s="17">
         <v>5</v>
       </c>
       <c r="W102" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X102" s="17">
         <v>5</v>
       </c>
       <c r="Y102" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z102" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB102" s="17"/>
       <c r="AC102" s="17"/>
       <c r="AD102" s="17"/>
@@ -18834,7 +19349,7 @@
         <v>9533</v>
       </c>
       <c r="E103" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="F103" s="17">
@@ -18881,25 +19396,30 @@
         <v>4</v>
       </c>
       <c r="U103" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V103" s="17">
         <v>4</v>
       </c>
       <c r="W103" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X103" s="17">
         <v>4</v>
       </c>
       <c r="Y103" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z103" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA103" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB103" s="17"/>
       <c r="AC103" s="17"/>
       <c r="AD103" s="17"/>
@@ -18935,7 +19455,7 @@
         <v>13650</v>
       </c>
       <c r="E104" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F104" s="45">
@@ -18982,7 +19502,7 @@
         <v>6</v>
       </c>
       <c r="U104" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V104" s="45">
@@ -18996,11 +19516,16 @@
         <v>4</v>
       </c>
       <c r="Y104" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z104" s="45"/>
-      <c r="AA104" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z104" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA104" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB104" s="45"/>
       <c r="AC104" s="45"/>
       <c r="AD104" s="45"/>
@@ -19115,7 +19640,7 @@
         <v>13650</v>
       </c>
       <c r="E105" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F105" s="45">
@@ -19162,25 +19687,30 @@
         <v>3</v>
       </c>
       <c r="U105" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V105" s="45">
         <v>5</v>
       </c>
       <c r="W105" s="45">
-        <f t="shared" ref="W105:W154" si="14">IF(V105=S105,1,0)</f>
+        <f t="shared" ref="W105:W154" si="16">IF(V105=S105,1,0)</f>
         <v>0</v>
       </c>
       <c r="X105" s="45">
         <v>3</v>
       </c>
       <c r="Y105" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z105" s="45"/>
-      <c r="AA105" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z105" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA105" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB105" s="45"/>
       <c r="AC105" s="45"/>
       <c r="AD105" s="45"/>
@@ -19295,7 +19825,7 @@
         <v>13650</v>
       </c>
       <c r="E106" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F106" s="45">
@@ -19342,25 +19872,30 @@
         <v>5</v>
       </c>
       <c r="U106" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V106" s="45">
         <v>4</v>
       </c>
       <c r="W106" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X106" s="45">
         <v>5</v>
       </c>
       <c r="Y106" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z106" s="45"/>
-      <c r="AA106" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB106" s="45"/>
       <c r="AC106" s="45"/>
       <c r="AD106" s="45"/>
@@ -19475,7 +20010,7 @@
         <v>13650</v>
       </c>
       <c r="E107" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F107" s="45">
@@ -19522,25 +20057,30 @@
         <v>4</v>
       </c>
       <c r="U107" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V107" s="45">
         <v>1</v>
       </c>
       <c r="W107" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X107" s="45">
         <v>2</v>
       </c>
       <c r="Y107" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z107" s="45"/>
-      <c r="AA107" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z107" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA107" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB107" s="45"/>
       <c r="AC107" s="45"/>
       <c r="AD107" s="45"/>
@@ -19655,7 +20195,7 @@
         <v>13650</v>
       </c>
       <c r="E108" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F108" s="45">
@@ -19702,25 +20242,30 @@
         <v>1</v>
       </c>
       <c r="U108" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V108" s="45">
         <v>2</v>
       </c>
       <c r="W108" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X108" s="45">
         <v>1</v>
       </c>
       <c r="Y108" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z108" s="45"/>
-      <c r="AA108" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA108" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB108" s="45"/>
       <c r="AC108" s="45"/>
       <c r="AD108" s="45"/>
@@ -19835,7 +20380,7 @@
         <v>13650</v>
       </c>
       <c r="E109" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>77</v>
       </c>
       <c r="F109" s="45">
@@ -19882,25 +20427,30 @@
         <v>2</v>
       </c>
       <c r="U109" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V109" s="45">
         <v>3</v>
       </c>
       <c r="W109" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X109" s="45">
         <v>6</v>
       </c>
       <c r="Y109" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z109" s="45"/>
-      <c r="AA109" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA109" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB109" s="45"/>
       <c r="AC109" s="45"/>
       <c r="AD109" s="45"/>
@@ -20015,7 +20565,7 @@
         <v>10933</v>
       </c>
       <c r="E110" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F110" s="17">
@@ -20062,25 +20612,30 @@
         <v>2</v>
       </c>
       <c r="U110" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V110" s="17">
         <v>1</v>
       </c>
       <c r="W110" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X110" s="17">
         <v>2</v>
       </c>
       <c r="Y110" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z110" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA110" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB110" s="17"/>
       <c r="AC110" s="17"/>
       <c r="AD110" s="17"/>
@@ -20195,7 +20750,7 @@
         <v>10933</v>
       </c>
       <c r="E111" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F111" s="17">
@@ -20242,25 +20797,30 @@
         <v>1</v>
       </c>
       <c r="U111" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V111" s="17">
         <v>2</v>
       </c>
       <c r="W111" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X111" s="17">
         <v>1</v>
       </c>
       <c r="Y111" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z111" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="17"/>
       <c r="AD111" s="17"/>
@@ -20375,7 +20935,7 @@
         <v>11052</v>
       </c>
       <c r="E112" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F112" s="45">
@@ -20422,25 +20982,30 @@
         <v>3</v>
       </c>
       <c r="U112" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V112" s="45">
         <v>3</v>
       </c>
       <c r="W112" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X112" s="45">
         <v>4</v>
       </c>
       <c r="Y112" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z112" s="45"/>
-      <c r="AA112" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z112" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA112" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB112" s="45"/>
       <c r="AC112" s="45"/>
       <c r="AD112" s="45"/>
@@ -20555,7 +21120,7 @@
         <v>11052</v>
       </c>
       <c r="E113" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F113" s="45">
@@ -20602,25 +21167,30 @@
         <v>2</v>
       </c>
       <c r="U113" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V113" s="45">
         <v>2</v>
       </c>
       <c r="W113" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X113" s="45">
         <v>2</v>
       </c>
       <c r="Y113" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z113" s="45"/>
-      <c r="AA113" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z113" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA113" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB113" s="45"/>
       <c r="AC113" s="45"/>
       <c r="AD113" s="45"/>
@@ -20735,7 +21305,7 @@
         <v>11052</v>
       </c>
       <c r="E114" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F114" s="45">
@@ -20782,25 +21352,30 @@
         <v>1</v>
       </c>
       <c r="U114" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V114" s="45">
         <v>1</v>
       </c>
       <c r="W114" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X114" s="45">
         <v>1</v>
       </c>
       <c r="Y114" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z114" s="45"/>
-      <c r="AA114" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z114" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB114" s="45"/>
       <c r="AC114" s="45"/>
       <c r="AD114" s="45"/>
@@ -20915,7 +21490,7 @@
         <v>11052</v>
       </c>
       <c r="E115" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F115" s="45">
@@ -20962,7 +21537,7 @@
         <v>4</v>
       </c>
       <c r="U115" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V115" s="45">
@@ -20976,11 +21551,16 @@
         <v>3</v>
       </c>
       <c r="Y115" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z115" s="45"/>
-      <c r="AA115" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA115" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB115" s="45"/>
       <c r="AC115" s="45"/>
       <c r="AD115" s="45"/>
@@ -21095,7 +21675,7 @@
         <v>11052</v>
       </c>
       <c r="E116" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F116" s="45">
@@ -21142,25 +21722,30 @@
         <v>2</v>
       </c>
       <c r="U116" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V116" s="45">
         <v>3</v>
       </c>
       <c r="W116" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X116" s="45">
         <v>4</v>
       </c>
       <c r="Y116" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z116" s="45"/>
-      <c r="AA116" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z116" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA116" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB116" s="45"/>
       <c r="AC116" s="45"/>
       <c r="AD116" s="45"/>
@@ -21275,7 +21860,7 @@
         <v>11052</v>
       </c>
       <c r="E117" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F117" s="45">
@@ -21322,25 +21907,30 @@
         <v>3</v>
       </c>
       <c r="U117" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V117" s="45">
         <v>2</v>
       </c>
       <c r="W117" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X117" s="45">
         <v>2</v>
       </c>
       <c r="Y117" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z117" s="45"/>
-      <c r="AA117" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z117" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA117" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB117" s="45"/>
       <c r="AC117" s="45"/>
       <c r="AD117" s="45"/>
@@ -21455,7 +22045,7 @@
         <v>11052</v>
       </c>
       <c r="E118" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F118" s="45">
@@ -21502,25 +22092,30 @@
         <v>1</v>
       </c>
       <c r="U118" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V118" s="45">
         <v>1</v>
       </c>
       <c r="W118" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X118" s="45">
         <v>1</v>
       </c>
       <c r="Y118" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z118" s="45"/>
-      <c r="AA118" s="45"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z118" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA118" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB118" s="45"/>
       <c r="AC118" s="45"/>
       <c r="AD118" s="45"/>
@@ -21635,7 +22230,7 @@
         <v>11052</v>
       </c>
       <c r="E119" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>84</v>
       </c>
       <c r="F119" s="45">
@@ -21682,25 +22277,30 @@
         <v>4</v>
       </c>
       <c r="U119" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V119" s="45">
         <v>4</v>
       </c>
       <c r="W119" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X119" s="45">
         <v>3</v>
       </c>
       <c r="Y119" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z119" s="45"/>
-      <c r="AA119" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB119" s="45"/>
       <c r="AC119" s="45"/>
       <c r="AD119" s="45"/>
@@ -21815,7 +22415,7 @@
         <v>12776</v>
       </c>
       <c r="E120" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F120" s="17">
@@ -21862,25 +22462,30 @@
         <v>1</v>
       </c>
       <c r="U120" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V120" s="17">
         <v>1</v>
       </c>
       <c r="W120" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X120" s="17">
         <v>1</v>
       </c>
       <c r="Y120" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z120" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB120" s="17"/>
       <c r="AC120" s="17"/>
       <c r="AD120" s="17"/>
@@ -21995,7 +22600,7 @@
         <v>12776</v>
       </c>
       <c r="E121" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F121" s="17">
@@ -22042,25 +22647,30 @@
         <v>2</v>
       </c>
       <c r="U121" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V121" s="17">
         <v>4</v>
       </c>
       <c r="W121" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X121" s="17">
         <v>3</v>
       </c>
       <c r="Y121" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z121" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA121" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB121" s="17"/>
       <c r="AC121" s="17"/>
       <c r="AD121" s="17"/>
@@ -22175,7 +22785,7 @@
         <v>12776</v>
       </c>
       <c r="E122" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F122" s="17">
@@ -22222,25 +22832,30 @@
         <v>3</v>
       </c>
       <c r="U122" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V122" s="17">
         <v>2</v>
       </c>
       <c r="W122" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X122" s="17">
         <v>2</v>
       </c>
       <c r="Y122" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z122" s="17"/>
-      <c r="AA122" s="17"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z122" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA122" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB122" s="17"/>
       <c r="AC122" s="17"/>
       <c r="AD122" s="17"/>
@@ -22355,7 +22970,7 @@
         <v>12776</v>
       </c>
       <c r="E123" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F123" s="17">
@@ -22402,25 +23017,30 @@
         <v>4</v>
       </c>
       <c r="U123" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V123" s="17">
         <v>3</v>
       </c>
       <c r="W123" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X123" s="17">
         <v>4</v>
       </c>
       <c r="Y123" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z123" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA123" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB123" s="17"/>
       <c r="AC123" s="17"/>
       <c r="AD123" s="17"/>
@@ -22536,7 +23156,7 @@
         <v>12776</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F124" s="17">
@@ -22583,25 +23203,30 @@
         <v>1</v>
       </c>
       <c r="U124" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V124" s="17">
         <v>1</v>
       </c>
       <c r="W124" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X124" s="17">
         <v>1</v>
       </c>
       <c r="Y124" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z124" s="17"/>
-      <c r="AA124" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z124" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AB124" s="17"/>
       <c r="AC124" s="17"/>
       <c r="AD124" s="17"/>
@@ -22717,7 +23342,7 @@
         <v>12776</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F125" s="17">
@@ -22764,25 +23389,30 @@
         <v>2</v>
       </c>
       <c r="U125" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V125" s="17">
         <v>3</v>
       </c>
       <c r="W125" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X125" s="17">
         <v>2</v>
       </c>
       <c r="Y125" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z125" s="17"/>
-      <c r="AA125" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z125" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA125" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB125" s="17"/>
       <c r="AC125" s="17"/>
       <c r="AD125" s="17"/>
@@ -22898,7 +23528,7 @@
         <v>12776</v>
       </c>
       <c r="E126" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F126" s="17">
@@ -22945,7 +23575,7 @@
         <v>4</v>
       </c>
       <c r="U126" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V126" s="17">
@@ -22959,11 +23589,16 @@
         <v>3</v>
       </c>
       <c r="Y126" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z126" s="17"/>
-      <c r="AA126" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z126" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA126" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB126" s="17"/>
       <c r="AC126" s="17"/>
       <c r="AD126" s="17"/>
@@ -23079,7 +23714,7 @@
         <v>12776</v>
       </c>
       <c r="E127" s="52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>79</v>
       </c>
       <c r="F127" s="17">
@@ -23126,25 +23761,30 @@
         <v>3</v>
       </c>
       <c r="U127" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V127" s="17">
         <v>2</v>
       </c>
       <c r="W127" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X127" s="17">
         <v>4</v>
       </c>
       <c r="Y127" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z127" s="17"/>
-      <c r="AA127" s="17"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z127" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA127" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB127" s="17"/>
       <c r="AC127" s="17"/>
       <c r="AD127" s="17"/>
@@ -23259,7 +23899,7 @@
         <v>12079</v>
       </c>
       <c r="E128" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>81</v>
       </c>
       <c r="F128" s="45">
@@ -23306,25 +23946,30 @@
         <v>4</v>
       </c>
       <c r="U128" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V128" s="45">
         <v>6</v>
       </c>
       <c r="W128" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X128" s="45">
         <v>6</v>
       </c>
       <c r="Y128" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z128" s="45"/>
-      <c r="AA128" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA128" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB128" s="45"/>
       <c r="AC128" s="45"/>
       <c r="AD128" s="45"/>
@@ -23359,7 +24004,7 @@
         <v>12079</v>
       </c>
       <c r="E129" s="44">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>81</v>
       </c>
       <c r="F129" s="45">
@@ -23406,25 +24051,30 @@
         <v>1</v>
       </c>
       <c r="U129" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V129" s="45">
         <v>4</v>
       </c>
       <c r="W129" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X129" s="45">
         <v>5</v>
       </c>
       <c r="Y129" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z129" s="45"/>
-      <c r="AA129" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA129" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB129" s="45"/>
       <c r="AC129" s="45"/>
       <c r="AD129" s="45"/>
@@ -23459,7 +24109,7 @@
         <v>12079</v>
       </c>
       <c r="E130" s="44">
-        <f t="shared" ref="E130:E154" ca="1" si="15">INT((TODAY()-D130)/365.25)</f>
+        <f t="shared" ref="E130:E154" ca="1" si="17">INT((TODAY()-D130)/365.25)</f>
         <v>81</v>
       </c>
       <c r="F130" s="45">
@@ -23506,25 +24156,30 @@
         <v>6</v>
       </c>
       <c r="U130" s="45">
-        <f t="shared" ref="U130:U154" si="16">IF(S130=T130,1,0)</f>
+        <f t="shared" ref="U130:U154" si="18">IF(S130=T130,1,0)</f>
         <v>0</v>
       </c>
       <c r="V130" s="45">
         <v>5</v>
       </c>
       <c r="W130" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X130" s="45">
         <v>4</v>
       </c>
       <c r="Y130" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z130" s="45"/>
-      <c r="AA130" s="45"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA130" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AB130" s="45"/>
       <c r="AC130" s="45"/>
       <c r="AD130" s="45"/>
@@ -23639,7 +24294,7 @@
         <v>12079</v>
       </c>
       <c r="E131" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F131" s="45">
@@ -23686,25 +24341,30 @@
         <v>2</v>
       </c>
       <c r="U131" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V131" s="45">
         <v>3</v>
       </c>
       <c r="W131" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X131" s="45">
         <v>3</v>
       </c>
       <c r="Y131" s="45">
-        <f t="shared" ref="Y131:Y154" si="17">IF(X131=S131,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z131" s="45"/>
-      <c r="AA131" s="45"/>
+        <f t="shared" ref="Y131:Y154" si="19">IF(X131=S131,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA131" s="45">
+        <f t="shared" ref="AA131:AA154" si="20">IF(Z131=S131,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AB131" s="45"/>
       <c r="AC131" s="45"/>
       <c r="AD131" s="45"/>
@@ -23819,7 +24479,7 @@
         <v>12079</v>
       </c>
       <c r="E132" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F132" s="45">
@@ -23866,25 +24526,30 @@
         <v>3</v>
       </c>
       <c r="U132" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V132" s="45">
         <v>2</v>
       </c>
       <c r="W132" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X132" s="45">
         <v>2</v>
       </c>
       <c r="Y132" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z132" s="45"/>
-      <c r="AA132" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB132" s="45"/>
       <c r="AC132" s="45"/>
       <c r="AD132" s="45"/>
@@ -23999,7 +24664,7 @@
         <v>12079</v>
       </c>
       <c r="E133" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F133" s="45">
@@ -24046,7 +24711,7 @@
         <v>5</v>
       </c>
       <c r="U133" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V133" s="45">
@@ -24060,11 +24725,16 @@
         <v>1</v>
       </c>
       <c r="Y133" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z133" s="45"/>
-      <c r="AA133" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA133" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB133" s="45"/>
       <c r="AC133" s="45"/>
       <c r="AD133" s="45"/>
@@ -24179,7 +24849,7 @@
         <v>12079</v>
       </c>
       <c r="E134" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F134" s="45">
@@ -24226,25 +24896,30 @@
         <v>3</v>
       </c>
       <c r="U134" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V134" s="45">
         <v>6</v>
       </c>
       <c r="W134" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X134" s="45">
         <v>3</v>
       </c>
       <c r="Y134" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z134" s="45"/>
-      <c r="AA134" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA134" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB134" s="45"/>
       <c r="AC134" s="45"/>
       <c r="AD134" s="45"/>
@@ -24359,7 +25034,7 @@
         <v>12079</v>
       </c>
       <c r="E135" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F135" s="45">
@@ -24406,25 +25081,30 @@
         <v>1</v>
       </c>
       <c r="U135" s="45">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="45">
+        <v>1</v>
+      </c>
+      <c r="W135" s="45">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V135" s="45">
-        <v>1</v>
-      </c>
-      <c r="W135" s="45">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X135" s="45">
         <v>2</v>
       </c>
       <c r="Y135" s="45">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Z135" s="45"/>
-      <c r="AA135" s="45"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z135" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA135" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB135" s="45"/>
       <c r="AC135" s="45"/>
       <c r="AD135" s="45"/>
@@ -24539,7 +25219,7 @@
         <v>12079</v>
       </c>
       <c r="E136" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F136" s="45">
@@ -24586,25 +25266,30 @@
         <v>2</v>
       </c>
       <c r="U136" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V136" s="45">
         <v>4</v>
       </c>
       <c r="W136" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X136" s="45">
         <v>1</v>
       </c>
       <c r="Y136" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z136" s="45"/>
-      <c r="AA136" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z136" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA136" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB136" s="45"/>
       <c r="AC136" s="45"/>
       <c r="AD136" s="45"/>
@@ -24719,7 +25404,7 @@
         <v>12079</v>
       </c>
       <c r="E137" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F137" s="45">
@@ -24766,25 +25451,30 @@
         <v>6</v>
       </c>
       <c r="U137" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V137" s="45">
         <v>2</v>
       </c>
       <c r="W137" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X137" s="45">
         <v>5</v>
       </c>
       <c r="Y137" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z137" s="45"/>
-      <c r="AA137" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="45">
+        <v>4</v>
+      </c>
+      <c r="AA137" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB137" s="45"/>
       <c r="AC137" s="45"/>
       <c r="AD137" s="45"/>
@@ -24899,7 +25589,7 @@
         <v>12079</v>
       </c>
       <c r="E138" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F138" s="45">
@@ -24946,25 +25636,30 @@
         <v>4</v>
       </c>
       <c r="U138" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V138" s="45">
         <v>3</v>
       </c>
       <c r="W138" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X138" s="45">
         <v>4</v>
       </c>
       <c r="Y138" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z138" s="45"/>
-      <c r="AA138" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="45">
+        <v>5</v>
+      </c>
+      <c r="AA138" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB138" s="45"/>
       <c r="AC138" s="45"/>
       <c r="AD138" s="45"/>
@@ -24999,7 +25694,7 @@
         <v>12079</v>
       </c>
       <c r="E139" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
       <c r="F139" s="45">
@@ -25046,25 +25741,30 @@
         <v>5</v>
       </c>
       <c r="U139" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V139" s="45">
         <v>5</v>
       </c>
       <c r="W139" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X139" s="45">
         <v>6</v>
       </c>
       <c r="Y139" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z139" s="45"/>
-      <c r="AA139" s="45"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="45">
+        <v>6</v>
+      </c>
+      <c r="AA139" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB139" s="45"/>
       <c r="AC139" s="45"/>
       <c r="AD139" s="45"/>
@@ -25099,7 +25799,7 @@
         <v>12254</v>
       </c>
       <c r="E140" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F140" s="17">
@@ -25146,25 +25846,30 @@
         <v>3</v>
       </c>
       <c r="U140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V140" s="17">
         <v>5</v>
       </c>
       <c r="W140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X140" s="17">
         <v>1</v>
       </c>
       <c r="Y140" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z140" s="17"/>
-      <c r="AA140" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA140" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB140" s="17"/>
       <c r="AC140" s="17"/>
       <c r="AD140" s="17"/>
@@ -25199,7 +25904,7 @@
         <v>12254</v>
       </c>
       <c r="E141" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F141" s="17">
@@ -25246,25 +25951,30 @@
         <v>6</v>
       </c>
       <c r="U141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V141" s="17">
         <v>4</v>
       </c>
       <c r="W141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X141" s="17">
         <v>2</v>
       </c>
       <c r="Y141" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z141" s="17"/>
-      <c r="AA141" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z141" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA141" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB141" s="17"/>
       <c r="AC141" s="17"/>
       <c r="AD141" s="17"/>
@@ -25299,7 +26009,7 @@
         <v>12254</v>
       </c>
       <c r="E142" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F142" s="17">
@@ -25346,25 +26056,30 @@
         <v>5</v>
       </c>
       <c r="U142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V142" s="17">
         <v>6</v>
       </c>
       <c r="W142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X142" s="17">
         <v>3</v>
       </c>
       <c r="Y142" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z142" s="17"/>
-      <c r="AA142" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA142" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB142" s="17"/>
       <c r="AC142" s="17"/>
       <c r="AD142" s="17"/>
@@ -25399,7 +26114,7 @@
         <v>12254</v>
       </c>
       <c r="E143" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F143" s="17">
@@ -25446,25 +26161,30 @@
         <v>2</v>
       </c>
       <c r="U143" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="17">
+        <v>1</v>
+      </c>
+      <c r="W143" s="17">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V143" s="17">
-        <v>1</v>
-      </c>
-      <c r="W143" s="17">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X143" s="17">
         <v>4</v>
       </c>
       <c r="Y143" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z143" s="17"/>
-      <c r="AA143" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA143" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB143" s="17"/>
       <c r="AC143" s="17"/>
       <c r="AD143" s="17"/>
@@ -25499,7 +26219,7 @@
         <v>12254</v>
       </c>
       <c r="E144" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F144" s="17">
@@ -25546,7 +26266,7 @@
         <v>1</v>
       </c>
       <c r="U144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V144" s="17">
@@ -25560,11 +26280,16 @@
         <v>5</v>
       </c>
       <c r="Y144" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z144" s="17"/>
-      <c r="AA144" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA144" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB144" s="17"/>
       <c r="AC144" s="17"/>
       <c r="AD144" s="17"/>
@@ -25599,7 +26324,7 @@
         <v>12254</v>
       </c>
       <c r="E145" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>80</v>
       </c>
       <c r="F145" s="17">
@@ -25646,25 +26371,30 @@
         <v>4</v>
       </c>
       <c r="U145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V145" s="17">
         <v>3</v>
       </c>
       <c r="W145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X145" s="17">
         <v>6</v>
       </c>
       <c r="Y145" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z145" s="17"/>
-      <c r="AA145" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB145" s="17"/>
       <c r="AC145" s="17"/>
       <c r="AD145" s="17"/>
@@ -25699,7 +26429,7 @@
         <v>9095</v>
       </c>
       <c r="E146" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F146" s="45">
@@ -25746,7 +26476,7 @@
         <v>3</v>
       </c>
       <c r="U146" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V146" s="45">
@@ -25760,11 +26490,16 @@
         <v>3</v>
       </c>
       <c r="Y146" s="45">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Z146" s="45"/>
-      <c r="AA146" s="45"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z146" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA146" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB146" s="45"/>
       <c r="AC146" s="45"/>
       <c r="AD146" s="45"/>
@@ -25879,7 +26614,7 @@
         <v>9095</v>
       </c>
       <c r="E147" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F147" s="45">
@@ -25926,25 +26661,30 @@
         <v>2</v>
       </c>
       <c r="U147" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V147" s="45">
         <v>2</v>
       </c>
       <c r="W147" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X147" s="45">
         <v>1</v>
       </c>
       <c r="Y147" s="45">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Z147" s="45"/>
-      <c r="AA147" s="45"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z147" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA147" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB147" s="45"/>
       <c r="AC147" s="45"/>
       <c r="AD147" s="45"/>
@@ -26059,7 +26799,7 @@
         <v>9095</v>
       </c>
       <c r="E148" s="44">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F148" s="45">
@@ -26106,25 +26846,30 @@
         <v>1</v>
       </c>
       <c r="U148" s="45">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V148" s="45">
+        <v>1</v>
+      </c>
+      <c r="W148" s="45">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V148" s="45">
-        <v>1</v>
-      </c>
-      <c r="W148" s="45">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X148" s="45">
         <v>2</v>
       </c>
       <c r="Y148" s="45">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Z148" s="45"/>
-      <c r="AA148" s="45"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z148" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA148" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB148" s="45"/>
       <c r="AC148" s="45"/>
       <c r="AD148" s="45"/>
@@ -26239,7 +26984,7 @@
         <v>9079</v>
       </c>
       <c r="E149" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F149" s="17">
@@ -26286,25 +27031,30 @@
         <v>5</v>
       </c>
       <c r="U149" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V149" s="17">
         <v>4</v>
       </c>
       <c r="W149" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X149" s="17">
         <v>6</v>
       </c>
       <c r="Y149" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z149" s="17"/>
-      <c r="AA149" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z149" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA149" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
       <c r="AB149" s="17"/>
       <c r="AC149" s="17"/>
       <c r="AD149" s="17"/>
@@ -26419,7 +27169,7 @@
         <v>9079</v>
       </c>
       <c r="E150" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F150" s="17">
@@ -26466,25 +27216,30 @@
         <v>1</v>
       </c>
       <c r="U150" s="17">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V150" s="17">
+        <v>1</v>
+      </c>
+      <c r="W150" s="17">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="V150" s="17">
-        <v>1</v>
-      </c>
-      <c r="W150" s="17">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X150" s="17">
         <v>5</v>
       </c>
       <c r="Y150" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z150" s="17"/>
-      <c r="AA150" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z150" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA150" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB150" s="17"/>
       <c r="AC150" s="17"/>
       <c r="AD150" s="17"/>
@@ -26599,7 +27354,7 @@
         <v>9079</v>
       </c>
       <c r="E151" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F151" s="17">
@@ -26646,25 +27401,30 @@
         <v>2</v>
       </c>
       <c r="U151" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V151" s="17">
         <v>3</v>
       </c>
       <c r="W151" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X151" s="17">
         <v>4</v>
       </c>
       <c r="Y151" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z151" s="17"/>
-      <c r="AA151" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z151" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA151" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB151" s="17"/>
       <c r="AC151" s="17"/>
       <c r="AD151" s="17"/>
@@ -26779,7 +27539,7 @@
         <v>9079</v>
       </c>
       <c r="E152" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F152" s="17">
@@ -26826,25 +27586,30 @@
         <v>3</v>
       </c>
       <c r="U152" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V152" s="17">
         <v>2</v>
       </c>
       <c r="W152" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X152" s="17">
         <v>2</v>
       </c>
       <c r="Y152" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z152" s="17"/>
-      <c r="AA152" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z152" s="17">
+        <v>3</v>
+      </c>
+      <c r="AA152" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB152" s="17"/>
       <c r="AC152" s="17"/>
       <c r="AD152" s="17"/>
@@ -26959,7 +27724,7 @@
         <v>9079</v>
       </c>
       <c r="E153" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F153" s="17">
@@ -27006,25 +27771,30 @@
         <v>4</v>
       </c>
       <c r="U153" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V153" s="17">
         <v>6</v>
       </c>
       <c r="W153" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X153" s="17">
         <v>1</v>
       </c>
       <c r="Y153" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z153" s="17"/>
-      <c r="AA153" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z153" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AB153" s="17"/>
       <c r="AC153" s="17"/>
       <c r="AD153" s="17"/>
@@ -27139,7 +27909,7 @@
         <v>9079</v>
       </c>
       <c r="E154" s="52">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
       <c r="F154" s="17">
@@ -27186,25 +27956,30 @@
         <v>6</v>
       </c>
       <c r="U154" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V154" s="17">
         <v>5</v>
       </c>
       <c r="W154" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X154" s="17">
         <v>3</v>
       </c>
       <c r="Y154" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z154" s="17"/>
-      <c r="AA154" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z154" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA154" s="45">
+        <f>IF(Z154=S154,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AB154" s="17"/>
       <c r="AC154" s="17"/>
       <c r="AD154" s="17"/>
@@ -27469,7 +28244,10 @@
         <v>64</v>
       </c>
       <c r="Z156" s="34"/>
-      <c r="AA156" s="34"/>
+      <c r="AA156" s="34">
+        <f>SUM(AA2:AA154)</f>
+        <v>78</v>
+      </c>
       <c r="AB156" s="34"/>
       <c r="AC156" s="34"/>
       <c r="AD156" s="34"/>
@@ -42312,7 +43090,7 @@
       </c>
       <c r="E57" s="44">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="45">
         <v>25</v>
@@ -42482,7 +43260,7 @@
       </c>
       <c r="E58" s="44">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="45">
         <v>25</v>
@@ -42652,7 +43430,7 @@
       </c>
       <c r="E59" s="44">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" s="45">
         <v>25</v>
@@ -42822,7 +43600,7 @@
       </c>
       <c r="E60" s="44">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="45">
         <v>20</v>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -1890,11 +1890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="189900656"/>
-        <c:axId val="189896736"/>
+        <c:axId val="299692320"/>
+        <c:axId val="299694280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189900656"/>
+        <c:axId val="299692320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189896736"/>
+        <c:crossAx val="299694280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189896736"/>
+        <c:axId val="299694280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189900656"/>
+        <c:crossAx val="299692320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,7 +2267,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA155" sqref="AA155"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2292,9 @@
     <col min="23" max="23" width="13" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="34" customWidth="1"/>
     <col min="25" max="25" width="13" style="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9" style="34" customWidth="1"/>
+    <col min="27" max="27" width="14.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9" style="34" customWidth="1"/>
     <col min="32" max="112" width="9" style="29"/>
     <col min="113" max="16368" width="9" style="6"/>
     <col min="16369" max="16383" width="9.375" style="32" bestFit="1" customWidth="1"/>
@@ -2482,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="45">
-        <f>IF(Z2=S2,1,0)</f>
+        <f t="shared" ref="AA2:AA65" si="2">IF(Z2=$S2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="45"/>
@@ -2646,14 +2648,14 @@
         <v>3</v>
       </c>
       <c r="U3" s="45">
-        <f t="shared" ref="U3:U33" si="2">IF(S3=T3,1,0)</f>
+        <f t="shared" ref="U3:U33" si="3">IF(S3=T3,1,0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="45">
         <v>2</v>
       </c>
       <c r="W3" s="45">
-        <f t="shared" ref="W3:W19" si="3">IF(V3=S3,1,0)</f>
+        <f t="shared" ref="W3:W19" si="4">IF(V3=S3,1,0)</f>
         <v>1</v>
       </c>
       <c r="X3" s="45">
@@ -2667,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="45">
-        <f t="shared" ref="AA3:AA66" si="4">IF(Z3=S3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB3" s="45"/>
@@ -2831,14 +2833,14 @@
         <v>4</v>
       </c>
       <c r="U4" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="45">
         <v>3</v>
       </c>
       <c r="W4" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X4" s="45">
@@ -2852,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="AA4" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB4" s="45"/>
@@ -3017,14 +3019,14 @@
         <v>1</v>
       </c>
       <c r="U5" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V5" s="45">
         <v>1</v>
       </c>
       <c r="W5" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X5" s="45">
@@ -3038,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="AA5" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB5" s="45"/>
@@ -3203,14 +3205,14 @@
         <v>2</v>
       </c>
       <c r="U6" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V6" s="45">
         <v>2</v>
       </c>
       <c r="W6" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X6" s="45">
@@ -3224,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="AA6" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB6" s="45"/>
@@ -3389,14 +3391,14 @@
         <v>1</v>
       </c>
       <c r="U7" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V7" s="45">
         <v>1</v>
       </c>
       <c r="W7" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X7" s="45">
@@ -3410,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB7" s="45"/>
@@ -3575,14 +3577,14 @@
         <v>2</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V8" s="17">
         <v>2</v>
       </c>
       <c r="W8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X8" s="17">
@@ -3596,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="AA8" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB8" s="17"/>
@@ -3760,14 +3762,14 @@
         <v>1</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V9" s="17">
         <v>1</v>
       </c>
       <c r="W9" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X9" s="17">
@@ -3781,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="AA9" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB9" s="17"/>
@@ -3945,14 +3947,14 @@
         <v>6</v>
       </c>
       <c r="U10" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V10" s="45">
         <v>6</v>
       </c>
       <c r="W10" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X10" s="45">
@@ -3966,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="AA10" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB10" s="45"/>
@@ -4130,14 +4132,14 @@
         <v>2</v>
       </c>
       <c r="U11" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11" s="45">
         <v>1</v>
       </c>
       <c r="W11" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X11" s="45">
@@ -4151,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="45"/>
@@ -4315,14 +4317,14 @@
         <v>4</v>
       </c>
       <c r="U12" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V12" s="45">
         <v>4</v>
       </c>
       <c r="W12" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X12" s="45">
@@ -4336,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="AA12" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB12" s="45"/>
@@ -4500,14 +4502,14 @@
         <v>5</v>
       </c>
       <c r="U13" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13" s="45">
         <v>2</v>
       </c>
       <c r="W13" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X13" s="45">
@@ -4521,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="45"/>
@@ -4685,14 +4687,14 @@
         <v>3</v>
       </c>
       <c r="U14" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="45">
         <v>5</v>
       </c>
       <c r="W14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X14" s="45">
@@ -4706,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="AA14" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB14" s="45"/>
@@ -4790,14 +4792,14 @@
         <v>1</v>
       </c>
       <c r="U15" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15" s="45">
         <v>3</v>
       </c>
       <c r="W15" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X15" s="45">
@@ -4811,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="AA15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB15" s="45"/>
@@ -4975,14 +4977,14 @@
         <v>6</v>
       </c>
       <c r="U16" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V16" s="45">
         <v>6</v>
       </c>
       <c r="W16" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X16" s="45">
@@ -4996,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="AA16" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB16" s="45"/>
@@ -5160,14 +5162,14 @@
         <v>1</v>
       </c>
       <c r="U17" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V17" s="45">
         <v>1</v>
       </c>
       <c r="W17" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X17" s="45">
@@ -5181,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB17" s="45"/>
@@ -5345,14 +5347,14 @@
         <v>3</v>
       </c>
       <c r="U18" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V18" s="45">
         <v>4</v>
       </c>
       <c r="W18" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X18" s="45">
@@ -5366,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="AA18" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB18" s="45"/>
@@ -5530,14 +5532,14 @@
         <v>2</v>
       </c>
       <c r="U19" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V19" s="45">
         <v>2</v>
       </c>
       <c r="W19" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X19" s="45">
@@ -5551,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB19" s="45"/>
@@ -5715,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="U20" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V20" s="45">
@@ -5736,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB20" s="45"/>
@@ -5900,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="U21" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V21" s="45">
@@ -5921,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="AA21" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB21" s="45"/>
@@ -6085,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="U22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V22" s="17">
@@ -6106,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="AA22" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB22" s="17"/>
@@ -6270,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="U23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V23" s="17">
@@ -6291,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="AA23" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB23" s="17"/>
@@ -6455,7 +6457,7 @@
         <v>3</v>
       </c>
       <c r="U24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V24" s="17">
@@ -6476,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="AA24" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB24" s="17"/>
@@ -6640,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="U25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="17">
@@ -6661,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB25" s="17"/>
@@ -6825,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V26" s="17">
@@ -6846,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB26" s="17"/>
@@ -7010,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="U27" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V27" s="45">
@@ -7031,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB27" s="45"/>
@@ -7195,7 +7197,7 @@
         <v>2</v>
       </c>
       <c r="U28" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28" s="45">
@@ -7216,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="AA28" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB28" s="45"/>
@@ -7300,7 +7302,7 @@
         <v>3</v>
       </c>
       <c r="U29" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29" s="45">
@@ -7321,7 +7323,7 @@
         <v>3</v>
       </c>
       <c r="AA29" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB29" s="45"/>
@@ -7485,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V30" s="45">
@@ -7506,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="AA30" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB30" s="45"/>
@@ -7670,7 +7672,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31" s="45">
@@ -7691,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AA31" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB31" s="45"/>
@@ -7855,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="U32" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V32" s="45">
@@ -7876,7 +7878,7 @@
         <v>2</v>
       </c>
       <c r="AA32" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB32" s="45"/>
@@ -8040,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="U33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V33" s="17">
@@ -8061,7 +8063,7 @@
         <v>3</v>
       </c>
       <c r="AA33" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB33" s="17"/>
@@ -8246,7 +8248,7 @@
         <v>5</v>
       </c>
       <c r="AA34" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB34" s="17"/>
@@ -8431,7 +8433,7 @@
         <v>6</v>
       </c>
       <c r="AA35" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB35" s="17"/>
@@ -8616,7 +8618,7 @@
         <v>2</v>
       </c>
       <c r="AA36" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB36" s="17"/>
@@ -8801,7 +8803,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB37" s="17"/>
@@ -8986,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB38" s="17"/>
@@ -9171,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="AA39" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB39" s="17"/>
@@ -9356,7 +9358,7 @@
         <v>5</v>
       </c>
       <c r="AA40" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB40" s="17"/>
@@ -9541,7 +9543,7 @@
         <v>6</v>
       </c>
       <c r="AA41" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB41" s="17"/>
@@ -9646,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="AA42" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB42" s="17"/>
@@ -9751,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="AA43" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB43" s="17"/>
@@ -9856,7 +9858,7 @@
         <v>2</v>
       </c>
       <c r="AA44" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB44" s="17"/>
@@ -9961,7 +9963,7 @@
         <v>2</v>
       </c>
       <c r="AA45" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB45" s="45"/>
@@ -10066,7 +10068,7 @@
         <v>6</v>
       </c>
       <c r="AA46" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB46" s="45"/>
@@ -10251,7 +10253,7 @@
         <v>4</v>
       </c>
       <c r="AA47" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB47" s="45"/>
@@ -10436,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="AA48" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB48" s="45"/>
@@ -10621,7 +10623,7 @@
         <v>3</v>
       </c>
       <c r="AA49" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB49" s="45"/>
@@ -10806,7 +10808,7 @@
         <v>5</v>
       </c>
       <c r="AA50" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB50" s="45"/>
@@ -10991,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="AA51" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB51" s="17"/>
@@ -11176,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="AA52" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB52" s="17"/>
@@ -11282,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="AA53" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB53" s="17"/>
@@ -11388,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="AA54" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB54" s="17"/>
@@ -11494,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="AA55" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB55" s="45"/>
@@ -11600,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="AA56" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB56" s="45"/>
@@ -11785,7 +11787,7 @@
         <v>2</v>
       </c>
       <c r="AA57" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB57" s="45"/>
@@ -11970,7 +11972,7 @@
         <v>4</v>
       </c>
       <c r="AA58" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB58" s="45"/>
@@ -12075,7 +12077,7 @@
         <v>5</v>
       </c>
       <c r="AA59" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB59" s="45"/>
@@ -12260,7 +12262,7 @@
         <v>3</v>
       </c>
       <c r="AA60" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB60" s="45"/>
@@ -12363,7 +12365,7 @@
         <v>6</v>
       </c>
       <c r="AA61" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB61" s="45"/>
@@ -12468,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AA62" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB62" s="45"/>
@@ -12653,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="AA63" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB63" s="45"/>
@@ -12838,7 +12840,7 @@
         <v>4</v>
       </c>
       <c r="AA64" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB64" s="45"/>
@@ -13023,7 +13025,7 @@
         <v>5</v>
       </c>
       <c r="AA65" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB65" s="45"/>
@@ -13208,7 +13210,7 @@
         <v>4</v>
       </c>
       <c r="AA66" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA66:AA129" si="10">IF(Z66=$S66,1,0)</f>
         <v>0</v>
       </c>
       <c r="AB66" s="17"/>
@@ -13386,14 +13388,14 @@
         <v>1</v>
       </c>
       <c r="Y67" s="45">
-        <f t="shared" ref="Y67:Y130" si="10">IF(X67=S67,1,0)</f>
+        <f t="shared" ref="Y67:Y130" si="11">IF(X67=S67,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z67" s="17">
         <v>3</v>
       </c>
       <c r="AA67" s="45">
-        <f t="shared" ref="AA67:AA130" si="11">IF(Z67=S67,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB67" s="17"/>
@@ -13571,14 +13573,14 @@
         <v>2</v>
       </c>
       <c r="Y68" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z68" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z68" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB68" s="17"/>
@@ -13756,14 +13758,14 @@
         <v>4</v>
       </c>
       <c r="Y69" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z69" s="17">
         <v>2</v>
       </c>
       <c r="AA69" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB69" s="17"/>
@@ -13941,14 +13943,14 @@
         <v>1</v>
       </c>
       <c r="Y70" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z70" s="17">
         <v>4</v>
       </c>
       <c r="AA70" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB70" s="17"/>
@@ -14126,14 +14128,14 @@
         <v>3</v>
       </c>
       <c r="Y71" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z71" s="17">
         <v>2</v>
       </c>
       <c r="AA71" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB71" s="17"/>
@@ -14311,14 +14313,14 @@
         <v>5</v>
       </c>
       <c r="Y72" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z72" s="17">
         <v>5</v>
       </c>
       <c r="AA72" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB72" s="17"/>
@@ -14496,14 +14498,14 @@
         <v>6</v>
       </c>
       <c r="Y73" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z73" s="17">
         <v>6</v>
       </c>
       <c r="AA73" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB73" s="17"/>
@@ -14681,14 +14683,14 @@
         <v>4</v>
       </c>
       <c r="Y74" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB74" s="17"/>
@@ -14873,7 +14875,7 @@
         <v>3</v>
       </c>
       <c r="AA75" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB75" s="17"/>
@@ -14971,14 +14973,14 @@
         <v>1</v>
       </c>
       <c r="Y76" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z76" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z76" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB76" s="45"/>
@@ -15076,14 +15078,14 @@
         <v>2</v>
       </c>
       <c r="Y77" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z77" s="45">
         <v>2</v>
       </c>
       <c r="AA77" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB77" s="45"/>
@@ -15261,14 +15263,14 @@
         <v>2</v>
       </c>
       <c r="Y78" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z78" s="17">
         <v>2</v>
       </c>
       <c r="AA78" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB78" s="17"/>
@@ -15366,14 +15368,14 @@
         <v>1</v>
       </c>
       <c r="Y79" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA79" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB79" s="17"/>
@@ -15551,14 +15553,14 @@
         <v>1</v>
       </c>
       <c r="Y80" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z80" s="17">
         <v>2</v>
       </c>
       <c r="AA80" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB80" s="17"/>
@@ -15736,14 +15738,14 @@
         <v>2</v>
       </c>
       <c r="Y81" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z81" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB81" s="17"/>
@@ -15921,14 +15923,14 @@
         <v>4</v>
       </c>
       <c r="Y82" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z82" s="45">
         <v>4</v>
       </c>
       <c r="AA82" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB82" s="45"/>
@@ -16026,14 +16028,14 @@
         <v>1</v>
       </c>
       <c r="Y83" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z83" s="45">
         <v>2</v>
       </c>
       <c r="AA83" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB83" s="45"/>
@@ -16131,14 +16133,14 @@
         <v>5</v>
       </c>
       <c r="Y84" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z84" s="45">
         <v>5</v>
       </c>
       <c r="AA84" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB84" s="45"/>
@@ -16316,14 +16318,14 @@
         <v>6</v>
       </c>
       <c r="Y85" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z85" s="45">
         <v>6</v>
       </c>
       <c r="AA85" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB85" s="45"/>
@@ -16501,14 +16503,14 @@
         <v>3</v>
       </c>
       <c r="Y86" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z86" s="45">
         <v>3</v>
       </c>
       <c r="AA86" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB86" s="45"/>
@@ -16686,14 +16688,14 @@
         <v>2</v>
       </c>
       <c r="Y87" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB87" s="45"/>
@@ -16871,14 +16873,14 @@
         <v>2</v>
       </c>
       <c r="Y88" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z88" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z88" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB88" s="17"/>
@@ -17056,14 +17058,14 @@
         <v>1</v>
       </c>
       <c r="Y89" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z89" s="17">
         <v>2</v>
       </c>
       <c r="AA89" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB89" s="17"/>
@@ -17241,14 +17243,14 @@
         <v>3</v>
       </c>
       <c r="Y90" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB90" s="17"/>
@@ -17426,14 +17428,14 @@
         <v>2</v>
       </c>
       <c r="Y91" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z91" s="17">
         <v>3</v>
       </c>
       <c r="AA91" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB91" s="17"/>
@@ -17611,14 +17613,14 @@
         <v>1</v>
       </c>
       <c r="Y92" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z92" s="17">
         <v>2</v>
       </c>
       <c r="AA92" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB92" s="17"/>
@@ -17796,14 +17798,14 @@
         <v>4</v>
       </c>
       <c r="Y93" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z93" s="17">
         <v>4</v>
       </c>
       <c r="AA93" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB93" s="17"/>
@@ -17981,14 +17983,14 @@
         <v>5</v>
       </c>
       <c r="Y94" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z94" s="17">
         <v>5</v>
       </c>
       <c r="AA94" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB94" s="17"/>
@@ -18166,14 +18168,14 @@
         <v>1</v>
       </c>
       <c r="Y95" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z95" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z95" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA95" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB95" s="45"/>
@@ -18351,14 +18353,14 @@
         <v>3</v>
       </c>
       <c r="Y96" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z96" s="45">
         <v>3</v>
       </c>
       <c r="AA96" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB96" s="45"/>
@@ -18456,14 +18458,14 @@
         <v>2</v>
       </c>
       <c r="Y97" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z97" s="45">
         <v>2</v>
       </c>
       <c r="AA97" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB97" s="45"/>
@@ -18641,14 +18643,14 @@
         <v>4</v>
       </c>
       <c r="Y98" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z98" s="45">
         <v>4</v>
       </c>
       <c r="AA98" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB98" s="45"/>
@@ -18826,14 +18828,14 @@
         <v>1</v>
       </c>
       <c r="Y99" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z99" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z99" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA99" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB99" s="17"/>
@@ -18932,14 +18934,14 @@
         <v>2</v>
       </c>
       <c r="Y100" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z100" s="17">
         <v>2</v>
       </c>
       <c r="AA100" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB100" s="17"/>
@@ -19118,14 +19120,14 @@
         <v>3</v>
       </c>
       <c r="Y101" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z101" s="17">
         <v>3</v>
       </c>
       <c r="AA101" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB101" s="17"/>
@@ -19224,14 +19226,14 @@
         <v>5</v>
       </c>
       <c r="Y102" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z102" s="17">
         <v>5</v>
       </c>
       <c r="AA102" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB102" s="17"/>
@@ -19410,14 +19412,14 @@
         <v>4</v>
       </c>
       <c r="Y103" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z103" s="17">
         <v>4</v>
       </c>
       <c r="AA103" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB103" s="17"/>
@@ -19516,14 +19518,14 @@
         <v>4</v>
       </c>
       <c r="Y104" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z104" s="45">
         <v>2</v>
       </c>
       <c r="AA104" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB104" s="45"/>
@@ -19701,14 +19703,14 @@
         <v>3</v>
       </c>
       <c r="Y105" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z105" s="45">
         <v>4</v>
       </c>
       <c r="AA105" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB105" s="45"/>
@@ -19886,14 +19888,14 @@
         <v>5</v>
       </c>
       <c r="Y106" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z106" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA106" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB106" s="45"/>
@@ -20071,14 +20073,14 @@
         <v>2</v>
       </c>
       <c r="Y107" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z107" s="45">
         <v>5</v>
       </c>
       <c r="AA107" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB107" s="45"/>
@@ -20256,14 +20258,14 @@
         <v>1</v>
       </c>
       <c r="Y108" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z108" s="45">
         <v>3</v>
       </c>
       <c r="AA108" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB108" s="45"/>
@@ -20441,14 +20443,14 @@
         <v>6</v>
       </c>
       <c r="Y109" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z109" s="45">
         <v>6</v>
       </c>
       <c r="AA109" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB109" s="45"/>
@@ -20626,14 +20628,14 @@
         <v>2</v>
       </c>
       <c r="Y110" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z110" s="17">
         <v>2</v>
       </c>
       <c r="AA110" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB110" s="17"/>
@@ -20811,14 +20813,14 @@
         <v>1</v>
       </c>
       <c r="Y111" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z111" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z111" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB111" s="17"/>
@@ -20996,14 +20998,14 @@
         <v>4</v>
       </c>
       <c r="Y112" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z112" s="45">
         <v>3</v>
       </c>
       <c r="AA112" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB112" s="45"/>
@@ -21181,14 +21183,14 @@
         <v>2</v>
       </c>
       <c r="Y113" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z113" s="45">
         <v>2</v>
       </c>
       <c r="AA113" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB113" s="45"/>
@@ -21366,14 +21368,14 @@
         <v>1</v>
       </c>
       <c r="Y114" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z114" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z114" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA114" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB114" s="45"/>
@@ -21551,14 +21553,14 @@
         <v>3</v>
       </c>
       <c r="Y115" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z115" s="45">
         <v>4</v>
       </c>
       <c r="AA115" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB115" s="45"/>
@@ -21736,14 +21738,14 @@
         <v>4</v>
       </c>
       <c r="Y116" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z116" s="45">
         <v>2</v>
       </c>
       <c r="AA116" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB116" s="45"/>
@@ -21921,14 +21923,14 @@
         <v>2</v>
       </c>
       <c r="Y117" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z117" s="45">
         <v>4</v>
       </c>
       <c r="AA117" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB117" s="45"/>
@@ -22106,14 +22108,14 @@
         <v>1</v>
       </c>
       <c r="Y118" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z118" s="45">
         <v>3</v>
       </c>
       <c r="AA118" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB118" s="45"/>
@@ -22291,14 +22293,14 @@
         <v>3</v>
       </c>
       <c r="Y119" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z119" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA119" s="45">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB119" s="45"/>
@@ -22476,14 +22478,14 @@
         <v>1</v>
       </c>
       <c r="Y120" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z120" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z120" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA120" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB120" s="17"/>
@@ -22661,14 +22663,14 @@
         <v>3</v>
       </c>
       <c r="Y121" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z121" s="17">
         <v>3</v>
       </c>
       <c r="AA121" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB121" s="17"/>
@@ -22846,14 +22848,14 @@
         <v>2</v>
       </c>
       <c r="Y122" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z122" s="17">
         <v>2</v>
       </c>
       <c r="AA122" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB122" s="17"/>
@@ -23031,14 +23033,14 @@
         <v>4</v>
       </c>
       <c r="Y123" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z123" s="17">
         <v>4</v>
       </c>
       <c r="AA123" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB123" s="17"/>
@@ -23217,14 +23219,14 @@
         <v>1</v>
       </c>
       <c r="Y124" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z124" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="45">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z124" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA124" s="45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB124" s="17"/>
@@ -23403,14 +23405,14 @@
         <v>2</v>
       </c>
       <c r="Y125" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z125" s="17">
         <v>3</v>
       </c>
       <c r="AA125" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB125" s="17"/>
@@ -23589,14 +23591,14 @@
         <v>3</v>
       </c>
       <c r="Y126" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z126" s="17">
         <v>4</v>
       </c>
       <c r="AA126" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB126" s="17"/>
@@ -23775,14 +23777,14 @@
         <v>4</v>
       </c>
       <c r="Y127" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z127" s="17">
         <v>2</v>
       </c>
       <c r="AA127" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB127" s="17"/>
@@ -23960,14 +23962,14 @@
         <v>6</v>
       </c>
       <c r="Y128" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z128" s="45">
         <v>6</v>
       </c>
       <c r="AA128" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB128" s="45"/>
@@ -24065,14 +24067,14 @@
         <v>5</v>
       </c>
       <c r="Y129" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z129" s="45">
         <v>4</v>
       </c>
       <c r="AA129" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB129" s="45"/>
@@ -24170,14 +24172,14 @@
         <v>4</v>
       </c>
       <c r="Y130" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z130" s="45">
         <v>5</v>
       </c>
       <c r="AA130" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AA130:AA153" si="19">IF(Z130=$S130,1,0)</f>
         <v>0</v>
       </c>
       <c r="AB130" s="45"/>
@@ -24355,14 +24357,14 @@
         <v>3</v>
       </c>
       <c r="Y131" s="45">
-        <f t="shared" ref="Y131:Y154" si="19">IF(X131=S131,1,0)</f>
+        <f t="shared" ref="Y131:Y154" si="20">IF(X131=S131,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z131" s="45">
         <v>3</v>
       </c>
       <c r="AA131" s="45">
-        <f t="shared" ref="AA131:AA154" si="20">IF(Z131=S131,1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB131" s="45"/>
@@ -24540,14 +24542,14 @@
         <v>2</v>
       </c>
       <c r="Y132" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="45">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z132" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA132" s="45">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB132" s="45"/>
@@ -24725,14 +24727,14 @@
         <v>1</v>
       </c>
       <c r="Y133" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z133" s="45">
         <v>2</v>
       </c>
       <c r="AA133" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB133" s="45"/>
@@ -24910,14 +24912,14 @@
         <v>3</v>
       </c>
       <c r="Y134" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA134" s="45">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z134" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA134" s="45">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB134" s="45"/>
@@ -25095,14 +25097,14 @@
         <v>2</v>
       </c>
       <c r="Y135" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Z135" s="45">
         <v>3</v>
       </c>
       <c r="AA135" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB135" s="45"/>
@@ -25280,14 +25282,14 @@
         <v>1</v>
       </c>
       <c r="Y136" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z136" s="45">
         <v>2</v>
       </c>
       <c r="AA136" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB136" s="45"/>
@@ -25465,14 +25467,14 @@
         <v>5</v>
       </c>
       <c r="Y137" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z137" s="45">
         <v>4</v>
       </c>
       <c r="AA137" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB137" s="45"/>
@@ -25650,14 +25652,14 @@
         <v>4</v>
       </c>
       <c r="Y138" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z138" s="45">
         <v>5</v>
       </c>
       <c r="AA138" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB138" s="45"/>
@@ -25755,14 +25757,14 @@
         <v>6</v>
       </c>
       <c r="Y139" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z139" s="45">
         <v>6</v>
       </c>
       <c r="AA139" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB139" s="45"/>
@@ -25860,14 +25862,14 @@
         <v>1</v>
       </c>
       <c r="Y140" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z140" s="17">
         <v>6</v>
       </c>
       <c r="AA140" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB140" s="17"/>
@@ -25965,14 +25967,14 @@
         <v>2</v>
       </c>
       <c r="Y141" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z141" s="17">
         <v>2</v>
       </c>
       <c r="AA141" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB141" s="17"/>
@@ -26070,14 +26072,14 @@
         <v>3</v>
       </c>
       <c r="Y142" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z142" s="17">
         <v>4</v>
       </c>
       <c r="AA142" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB142" s="17"/>
@@ -26175,14 +26177,14 @@
         <v>4</v>
       </c>
       <c r="Y143" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z143" s="17">
         <v>5</v>
       </c>
       <c r="AA143" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB143" s="17"/>
@@ -26280,14 +26282,14 @@
         <v>5</v>
       </c>
       <c r="Y144" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z144" s="17">
         <v>3</v>
       </c>
       <c r="AA144" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB144" s="17"/>
@@ -26385,14 +26387,14 @@
         <v>6</v>
       </c>
       <c r="Y145" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="45">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z145" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA145" s="45">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB145" s="17"/>
@@ -26490,14 +26492,14 @@
         <v>3</v>
       </c>
       <c r="Y146" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Z146" s="45">
         <v>3</v>
       </c>
       <c r="AA146" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB146" s="45"/>
@@ -26675,14 +26677,14 @@
         <v>1</v>
       </c>
       <c r="Y147" s="45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Z147" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA147" s="45">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="Z147" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA147" s="45">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB147" s="45"/>
@@ -26860,14 +26862,14 @@
         <v>2</v>
       </c>
       <c r="Y148" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Z148" s="45">
         <v>2</v>
       </c>
       <c r="AA148" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB148" s="45"/>
@@ -27045,14 +27047,14 @@
         <v>6</v>
       </c>
       <c r="Y149" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z149" s="17">
         <v>5</v>
       </c>
       <c r="AA149" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB149" s="17"/>
@@ -27230,14 +27232,14 @@
         <v>5</v>
       </c>
       <c r="Y150" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z150" s="17">
         <v>2</v>
       </c>
       <c r="AA150" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB150" s="17"/>
@@ -27415,17 +27417,17 @@
         <v>4</v>
       </c>
       <c r="Y151" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z151" s="17">
         <v>4</v>
       </c>
       <c r="AA151" s="45">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AB151" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB151" s="45"/>
       <c r="AC151" s="17"/>
       <c r="AD151" s="17"/>
       <c r="AE151" s="17"/>
@@ -27600,17 +27602,17 @@
         <v>2</v>
       </c>
       <c r="Y152" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z152" s="17">
         <v>3</v>
       </c>
       <c r="AA152" s="45">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AB152" s="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB152" s="45"/>
       <c r="AC152" s="17"/>
       <c r="AD152" s="17"/>
       <c r="AE152" s="17"/>
@@ -27785,17 +27787,17 @@
         <v>1</v>
       </c>
       <c r="Y153" s="45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z153" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="45">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Z153" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA153" s="45">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AB153" s="17"/>
+      <c r="AB153" s="45"/>
       <c r="AC153" s="17"/>
       <c r="AD153" s="17"/>
       <c r="AE153" s="17"/>
@@ -27970,18 +27972,18 @@
         <v>3</v>
       </c>
       <c r="Y154" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z154" s="17">
         <v>6</v>
       </c>
       <c r="AA154" s="45">
-        <f>IF(Z154=S154,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AB154" s="17"/>
-      <c r="AC154" s="17"/>
+        <f>IF(Z154=$S154,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB154" s="45"/>
+      <c r="AC154" s="45"/>
       <c r="AD154" s="17"/>
       <c r="AE154" s="17"/>
       <c r="AF154" s="30"/>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="256">
   <si>
     <t>Patient</t>
   </si>
@@ -785,6 +785,12 @@
   </si>
   <si>
     <t>Comer Results</t>
+  </si>
+  <si>
+    <t>tom gardner</t>
+  </si>
+  <si>
+    <t>tom gardner results</t>
   </si>
 </sst>
 </file>
@@ -1890,11 +1896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="299692320"/>
-        <c:axId val="299694280"/>
+        <c:axId val="269851824"/>
+        <c:axId val="272109600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="299692320"/>
+        <c:axId val="269851824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="299694280"/>
+        <c:crossAx val="272109600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299694280"/>
+        <c:axId val="272109600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="299692320"/>
+        <c:crossAx val="269851824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2264,10 +2270,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="W156" sqref="W156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,8 +2387,12 @@
       <c r="AA1" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
+      <c r="AB1" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="AD1" s="38"/>
       <c r="AE1" s="38"/>
       <c r="DH1" s="6"/>
@@ -2484,11 +2494,16 @@
         <v>1</v>
       </c>
       <c r="AA2" s="45">
-        <f t="shared" ref="AA2:AA65" si="2">IF(Z2=$S2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
+        <f t="shared" ref="AA2:AC65" si="2">IF(Z2=$S2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD2" s="45"/>
       <c r="AE2" s="45"/>
       <c r="AF2" s="30"/>
@@ -2672,8 +2687,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
+      <c r="AB3" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD3" s="45"/>
       <c r="AE3" s="45"/>
       <c r="AF3" s="37"/>
@@ -2857,8 +2877,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
+      <c r="AB4" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
       <c r="AF4" s="37"/>
@@ -3043,8 +3068,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
+      <c r="AB5" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD5" s="45"/>
       <c r="AE5" s="45"/>
       <c r="AF5" s="37"/>
@@ -3229,8 +3259,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
+      <c r="AB6" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD6" s="45"/>
       <c r="AE6" s="45"/>
       <c r="AF6" s="37"/>
@@ -3415,8 +3450,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
+      <c r="AB7" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD7" s="45"/>
       <c r="AE7" s="45"/>
       <c r="AF7" s="37"/>
@@ -3601,8 +3641,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
+      <c r="AB8" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="37"/>
@@ -3786,8 +3831,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
+      <c r="AB9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="37"/>
@@ -3971,8 +4021,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
+      <c r="AB10" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
       <c r="AF10" s="37"/>
@@ -4156,8 +4211,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
+      <c r="AB11" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD11" s="45"/>
       <c r="AE11" s="45"/>
       <c r="AF11" s="30"/>
@@ -4341,8 +4401,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
+      <c r="AB12" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD12" s="45"/>
       <c r="AE12" s="45"/>
       <c r="AF12" s="37"/>
@@ -4526,8 +4591,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
+      <c r="AB13" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD13" s="45"/>
       <c r="AE13" s="45"/>
       <c r="AF13" s="30"/>
@@ -4711,8 +4781,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
+      <c r="AB14" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD14" s="45"/>
       <c r="AE14" s="45"/>
       <c r="XEO14" s="42"/>
@@ -4816,8 +4891,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
+      <c r="AB15" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD15" s="45"/>
       <c r="AE15" s="45"/>
       <c r="AF15" s="22"/>
@@ -5001,8 +5081,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
+      <c r="AB16" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD16" s="45"/>
       <c r="AE16" s="45"/>
       <c r="AF16" s="37"/>
@@ -5186,8 +5271,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
+      <c r="AB17" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD17" s="45"/>
       <c r="AE17" s="45"/>
       <c r="AF17" s="29"/>
@@ -5371,8 +5461,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
+      <c r="AB18" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD18" s="45"/>
       <c r="AE18" s="45"/>
       <c r="AF18" s="37"/>
@@ -5556,8 +5651,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
+      <c r="AB19" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
       <c r="AF19" s="29"/>
@@ -5741,8 +5841,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
+      <c r="AB20" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD20" s="45"/>
       <c r="AE20" s="45"/>
       <c r="AF20" s="37"/>
@@ -5926,8 +6031,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
+      <c r="AB21" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD21" s="45"/>
       <c r="AE21" s="45"/>
       <c r="AF21" s="29"/>
@@ -6111,8 +6221,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
+      <c r="AB22" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="37"/>
@@ -6296,8 +6411,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="AB23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="29"/>
@@ -6481,8 +6601,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="AB24" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
       <c r="AF24" s="37"/>
@@ -6666,8 +6791,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
+      <c r="AB25" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="29"/>
@@ -6851,8 +6981,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
+      <c r="AB26" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
       <c r="AF26" s="37"/>
@@ -7036,8 +7171,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
+      <c r="AB27" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD27" s="45"/>
       <c r="AE27" s="45"/>
       <c r="AF27" s="29"/>
@@ -7221,8 +7361,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
+      <c r="AB28" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD28" s="45"/>
       <c r="AE28" s="45"/>
       <c r="XEO28" s="42"/>
@@ -7326,8 +7471,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
+      <c r="AB29" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD29" s="45"/>
       <c r="AE29" s="45"/>
       <c r="AF29" s="22"/>
@@ -7511,8 +7661,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
+      <c r="AB30" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
       <c r="AF30" s="22"/>
@@ -7696,8 +7851,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
+      <c r="AB31" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD31" s="45"/>
       <c r="AE31" s="45"/>
       <c r="AF31" s="22"/>
@@ -7881,8 +8041,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
+      <c r="AB32" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD32" s="45"/>
       <c r="AE32" s="45"/>
       <c r="AF32" s="22"/>
@@ -8066,8 +8231,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
+      <c r="AB33" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="30"/>
@@ -8251,8 +8421,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
+      <c r="AB34" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="30"/>
@@ -8436,8 +8611,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
+      <c r="AB35" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="30"/>
@@ -8621,8 +8801,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
+      <c r="AB36" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
       <c r="AF36" s="30"/>
@@ -8806,8 +8991,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
+      <c r="AB37" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
       <c r="AF37" s="30"/>
@@ -8991,8 +9181,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
+      <c r="AB38" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
       <c r="AF38" s="30"/>
@@ -9176,8 +9371,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
+      <c r="AB39" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
       <c r="AF39" s="56"/>
@@ -9361,8 +9561,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
+      <c r="AB40" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC40" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
       <c r="AF40" s="22"/>
@@ -9546,8 +9751,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
+      <c r="AB41" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
       <c r="XEO41" s="50"/>
@@ -9651,8 +9861,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
+      <c r="AB42" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
       <c r="XEO42" s="50"/>
@@ -9756,8 +9971,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
+      <c r="AB43" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
       <c r="XEO43" s="50"/>
@@ -9861,8 +10081,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
+      <c r="AB44" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
       <c r="XEO44" s="50"/>
@@ -9966,8 +10191,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
+      <c r="AB45" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD45" s="45"/>
       <c r="AE45" s="45"/>
       <c r="XEO45" s="42"/>
@@ -10071,8 +10301,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
+      <c r="AB46" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD46" s="45"/>
       <c r="AE46" s="45"/>
       <c r="AF46" s="56"/>
@@ -10256,8 +10491,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
+      <c r="AB47" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD47" s="45"/>
       <c r="AE47" s="45"/>
       <c r="AF47" s="56"/>
@@ -10441,8 +10681,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
+      <c r="AB48" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD48" s="45"/>
       <c r="AE48" s="45"/>
       <c r="AF48" s="56"/>
@@ -10626,8 +10871,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
+      <c r="AB49" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD49" s="45"/>
       <c r="AE49" s="45"/>
       <c r="AF49" s="56"/>
@@ -10811,8 +11061,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
+      <c r="AB50" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC50" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AD50" s="45"/>
       <c r="AE50" s="45"/>
       <c r="AF50" s="56"/>
@@ -10996,8 +11251,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
+      <c r="AB51" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
       <c r="AF51" s="56"/>
@@ -11181,8 +11441,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
+      <c r="AB52" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
       <c r="DH52" s="6"/>
@@ -11287,8 +11552,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
+      <c r="AB53" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
       <c r="DH53" s="6"/>
@@ -11393,8 +11663,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
+      <c r="AB54" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
       <c r="DH54" s="6"/>
@@ -11499,8 +11774,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
+      <c r="AB55" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD55" s="45"/>
       <c r="AE55" s="45"/>
       <c r="DH55" s="6"/>
@@ -11605,8 +11885,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
+      <c r="AB56" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD56" s="45"/>
       <c r="AE56" s="45"/>
       <c r="AF56" s="29"/>
@@ -11790,8 +12075,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
+      <c r="AB57" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD57" s="45"/>
       <c r="AE57" s="45"/>
       <c r="AF57" s="29"/>
@@ -11975,8 +12265,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
+      <c r="AB58" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD58" s="45"/>
       <c r="AE58" s="45"/>
       <c r="XEO58" s="42"/>
@@ -12080,8 +12375,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="45"/>
+      <c r="AB59" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD59" s="45"/>
       <c r="AE59" s="45"/>
       <c r="AF59" s="22"/>
@@ -12265,8 +12565,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="45"/>
+      <c r="AB60" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD60" s="45"/>
       <c r="AE60" s="45"/>
       <c r="XEO60" s="42"/>
@@ -12368,8 +12673,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="45"/>
+      <c r="AB61" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD61" s="45"/>
       <c r="AE61" s="45"/>
       <c r="XEO61" s="42"/>
@@ -12473,8 +12783,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB62" s="45"/>
-      <c r="AC62" s="45"/>
+      <c r="AB62" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD62" s="45"/>
       <c r="AE62" s="45"/>
       <c r="AF62" s="29"/>
@@ -12658,8 +12973,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB63" s="45"/>
-      <c r="AC63" s="45"/>
+      <c r="AB63" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD63" s="45"/>
       <c r="AE63" s="45"/>
       <c r="AF63" s="29"/>
@@ -12843,8 +13163,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB64" s="45"/>
-      <c r="AC64" s="45"/>
+      <c r="AB64" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC64" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD64" s="45"/>
       <c r="AE64" s="45"/>
       <c r="AF64" s="29"/>
@@ -13028,8 +13353,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB65" s="45"/>
-      <c r="AC65" s="45"/>
+      <c r="AB65" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC65" s="45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AD65" s="45"/>
       <c r="AE65" s="45"/>
       <c r="AF65" s="29"/>
@@ -13213,8 +13543,13 @@
         <f t="shared" ref="AA66:AA129" si="10">IF(Z66=$S66,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
+      <c r="AB66" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="45">
+        <f t="shared" ref="AC66:AC129" si="11">IF(AB66=$S66,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
       <c r="AF66" s="29"/>
@@ -13388,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="Y67" s="45">
-        <f t="shared" ref="Y67:Y130" si="11">IF(X67=S67,1,0)</f>
+        <f t="shared" ref="Y67:Y130" si="12">IF(X67=S67,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z67" s="17">
@@ -13398,8 +13733,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
+      <c r="AB67" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC67" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
       <c r="AF67" s="29"/>
@@ -13573,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="Y68" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z68" s="17">
@@ -13583,8 +13923,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="17"/>
+      <c r="AB68" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
       <c r="AF68" s="37"/>
@@ -13758,7 +14103,7 @@
         <v>4</v>
       </c>
       <c r="Y69" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z69" s="17">
@@ -13768,8 +14113,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB69" s="17"/>
-      <c r="AC69" s="17"/>
+      <c r="AB69" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
       <c r="AF69" s="29"/>
@@ -13943,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="Y70" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z70" s="17">
@@ -13953,8 +14303,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB70" s="17"/>
-      <c r="AC70" s="17"/>
+      <c r="AB70" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD70" s="17"/>
       <c r="AE70" s="17"/>
       <c r="AF70" s="36"/>
@@ -14128,7 +14483,7 @@
         <v>3</v>
       </c>
       <c r="Y71" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z71" s="17">
@@ -14138,8 +14493,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB71" s="17"/>
-      <c r="AC71" s="17"/>
+      <c r="AB71" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC71" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD71" s="17"/>
       <c r="AE71" s="17"/>
       <c r="AF71" s="29"/>
@@ -14313,7 +14673,7 @@
         <v>5</v>
       </c>
       <c r="Y72" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z72" s="17">
@@ -14323,8 +14683,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB72" s="17"/>
-      <c r="AC72" s="17"/>
+      <c r="AB72" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD72" s="17"/>
       <c r="AE72" s="17"/>
       <c r="AF72" s="29"/>
@@ -14498,7 +14863,7 @@
         <v>6</v>
       </c>
       <c r="Y73" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z73" s="17">
@@ -14508,8 +14873,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB73" s="17"/>
-      <c r="AC73" s="17"/>
+      <c r="AB73" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC73" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD73" s="17"/>
       <c r="AE73" s="17"/>
       <c r="AF73" s="29"/>
@@ -14683,7 +15053,7 @@
         <v>4</v>
       </c>
       <c r="Y74" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z74" s="17">
@@ -14693,8 +15063,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB74" s="17"/>
-      <c r="AC74" s="17"/>
+      <c r="AB74" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD74" s="17"/>
       <c r="AE74" s="17"/>
       <c r="AF74" s="56"/>
@@ -14878,8 +15253,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="17"/>
+      <c r="AB75" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC75" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD75" s="17"/>
       <c r="AE75" s="17"/>
       <c r="XEO75" s="50"/>
@@ -14973,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="Y76" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z76" s="45">
@@ -14983,8 +15363,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB76" s="45"/>
-      <c r="AC76" s="45"/>
+      <c r="AB76" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD76" s="45"/>
       <c r="AE76" s="45"/>
       <c r="XEO76" s="42"/>
@@ -15078,7 +15463,7 @@
         <v>2</v>
       </c>
       <c r="Y77" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z77" s="45">
@@ -15088,8 +15473,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB77" s="45"/>
-      <c r="AC77" s="45"/>
+      <c r="AB77" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC77" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD77" s="45"/>
       <c r="AE77" s="45"/>
       <c r="AF77" s="56"/>
@@ -15263,7 +15653,7 @@
         <v>2</v>
       </c>
       <c r="Y78" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z78" s="17">
@@ -15273,8 +15663,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB78" s="17"/>
-      <c r="AC78" s="17"/>
+      <c r="AB78" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC78" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD78" s="17"/>
       <c r="AE78" s="17"/>
       <c r="XEO78" s="50"/>
@@ -15368,7 +15763,7 @@
         <v>1</v>
       </c>
       <c r="Y79" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z79" s="17">
@@ -15378,8 +15773,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB79" s="17"/>
-      <c r="AC79" s="17"/>
+      <c r="AB79" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD79" s="17"/>
       <c r="AE79" s="17"/>
       <c r="AF79" s="22"/>
@@ -15553,7 +15953,7 @@
         <v>1</v>
       </c>
       <c r="Y80" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z80" s="17">
@@ -15563,8 +15963,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB80" s="17"/>
-      <c r="AC80" s="17"/>
+      <c r="AB80" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC80" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD80" s="17"/>
       <c r="AE80" s="17"/>
       <c r="AF80" s="56"/>
@@ -15738,7 +16143,7 @@
         <v>2</v>
       </c>
       <c r="Y81" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z81" s="17">
@@ -15748,8 +16153,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB81" s="17"/>
-      <c r="AC81" s="17"/>
+      <c r="AB81" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD81" s="17"/>
       <c r="AE81" s="17"/>
       <c r="AF81" s="56"/>
@@ -15923,7 +16333,7 @@
         <v>4</v>
       </c>
       <c r="Y82" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z82" s="45">
@@ -15933,8 +16343,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB82" s="45"/>
-      <c r="AC82" s="45"/>
+      <c r="AB82" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC82" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD82" s="45"/>
       <c r="AE82" s="45"/>
       <c r="XEO82" s="42"/>
@@ -16028,7 +16443,7 @@
         <v>1</v>
       </c>
       <c r="Y83" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z83" s="45">
@@ -16038,8 +16453,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB83" s="45"/>
-      <c r="AC83" s="45"/>
+      <c r="AB83" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC83" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD83" s="45"/>
       <c r="AE83" s="45"/>
       <c r="XEO83" s="42"/>
@@ -16133,7 +16553,7 @@
         <v>5</v>
       </c>
       <c r="Y84" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z84" s="45">
@@ -16143,8 +16563,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB84" s="45"/>
-      <c r="AC84" s="45"/>
+      <c r="AB84" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC84" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD84" s="45"/>
       <c r="AE84" s="45"/>
       <c r="AF84" s="37"/>
@@ -16311,14 +16736,14 @@
         <v>2</v>
       </c>
       <c r="W85" s="45">
-        <f t="shared" ref="W85:W88" si="12">IF(V85=S85,1,0)</f>
+        <f t="shared" ref="W85:W88" si="13">IF(V85=S85,1,0)</f>
         <v>0</v>
       </c>
       <c r="X85" s="45">
         <v>6</v>
       </c>
       <c r="Y85" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z85" s="45">
@@ -16328,8 +16753,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB85" s="45"/>
-      <c r="AC85" s="45"/>
+      <c r="AB85" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC85" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD85" s="45"/>
       <c r="AE85" s="45"/>
       <c r="AF85" s="37"/>
@@ -16496,14 +16926,14 @@
         <v>1</v>
       </c>
       <c r="W86" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X86" s="45">
         <v>3</v>
       </c>
       <c r="Y86" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z86" s="45">
@@ -16513,8 +16943,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB86" s="45"/>
-      <c r="AC86" s="45"/>
+      <c r="AB86" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD86" s="45"/>
       <c r="AE86" s="45"/>
       <c r="AF86" s="56"/>
@@ -16681,14 +17116,14 @@
         <v>3</v>
       </c>
       <c r="W87" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X87" s="45">
         <v>2</v>
       </c>
       <c r="Y87" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z87" s="45">
@@ -16698,8 +17133,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB87" s="45"/>
-      <c r="AC87" s="45"/>
+      <c r="AB87" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC87" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD87" s="45"/>
       <c r="AE87" s="45"/>
       <c r="AF87" s="56"/>
@@ -16866,14 +17306,14 @@
         <v>2</v>
       </c>
       <c r="W88" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X88" s="17">
         <v>2</v>
       </c>
       <c r="Y88" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z88" s="17">
@@ -16883,8 +17323,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB88" s="17"/>
-      <c r="AC88" s="17"/>
+      <c r="AB88" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD88" s="17"/>
       <c r="AE88" s="17"/>
       <c r="AF88" s="56"/>
@@ -17058,7 +17503,7 @@
         <v>1</v>
       </c>
       <c r="Y89" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z89" s="17">
@@ -17068,8 +17513,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB89" s="17"/>
-      <c r="AC89" s="17"/>
+      <c r="AB89" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD89" s="17"/>
       <c r="AE89" s="17"/>
       <c r="AF89" s="56"/>
@@ -17236,14 +17686,14 @@
         <v>2</v>
       </c>
       <c r="W90" s="17">
-        <f t="shared" ref="W90:W103" si="13">IF(V90=S90,1,0)</f>
+        <f t="shared" ref="W90:W103" si="14">IF(V90=S90,1,0)</f>
         <v>1</v>
       </c>
       <c r="X90" s="17">
         <v>3</v>
       </c>
       <c r="Y90" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z90" s="17">
@@ -17253,8 +17703,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB90" s="17"/>
-      <c r="AC90" s="17"/>
+      <c r="AB90" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC90" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD90" s="17"/>
       <c r="AE90" s="17"/>
       <c r="AF90" s="30"/>
@@ -17421,14 +17876,14 @@
         <v>1</v>
       </c>
       <c r="W91" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X91" s="17">
         <v>2</v>
       </c>
       <c r="Y91" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z91" s="17">
@@ -17438,8 +17893,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
+      <c r="AB91" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD91" s="17"/>
       <c r="AE91" s="17"/>
       <c r="AF91" s="36"/>
@@ -17606,14 +18066,14 @@
         <v>5</v>
       </c>
       <c r="W92" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X92" s="17">
         <v>1</v>
       </c>
       <c r="Y92" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z92" s="17">
@@ -17623,8 +18083,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
+      <c r="AB92" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC92" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD92" s="17"/>
       <c r="AE92" s="17"/>
       <c r="AF92" s="36"/>
@@ -17791,14 +18256,14 @@
         <v>4</v>
       </c>
       <c r="W93" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X93" s="17">
         <v>4</v>
       </c>
       <c r="Y93" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z93" s="17">
@@ -17808,8 +18273,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB93" s="17"/>
-      <c r="AC93" s="17"/>
+      <c r="AB93" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC93" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD93" s="17"/>
       <c r="AE93" s="17"/>
       <c r="AF93" s="36"/>
@@ -17976,14 +18446,14 @@
         <v>3</v>
       </c>
       <c r="W94" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X94" s="17">
         <v>5</v>
       </c>
       <c r="Y94" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z94" s="17">
@@ -17993,8 +18463,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB94" s="17"/>
-      <c r="AC94" s="17"/>
+      <c r="AB94" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD94" s="17"/>
       <c r="AE94" s="17"/>
       <c r="AF94" s="36"/>
@@ -18161,14 +18636,14 @@
         <v>1</v>
       </c>
       <c r="W95" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X95" s="45">
         <v>1</v>
       </c>
       <c r="Y95" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z95" s="45">
@@ -18178,8 +18653,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB95" s="45"/>
-      <c r="AC95" s="45"/>
+      <c r="AB95" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD95" s="45"/>
       <c r="AE95" s="45"/>
       <c r="AF95" s="30"/>
@@ -18346,14 +18826,14 @@
         <v>2</v>
       </c>
       <c r="W96" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X96" s="45">
         <v>3</v>
       </c>
       <c r="Y96" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z96" s="45">
@@ -18363,8 +18843,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB96" s="45"/>
-      <c r="AC96" s="45"/>
+      <c r="AB96" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC96" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD96" s="45"/>
       <c r="AE96" s="45"/>
       <c r="XEO96" s="42"/>
@@ -18451,14 +18936,14 @@
         <v>3</v>
       </c>
       <c r="W97" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X97" s="45">
         <v>2</v>
       </c>
       <c r="Y97" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z97" s="45">
@@ -18468,8 +18953,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB97" s="45"/>
-      <c r="AC97" s="45"/>
+      <c r="AB97" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC97" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD97" s="45"/>
       <c r="AE97" s="45"/>
       <c r="AF97" s="22"/>
@@ -18582,7 +19072,7 @@
         <v>9555</v>
       </c>
       <c r="E98" s="44">
-        <f t="shared" ref="E98:E129" ca="1" si="14">INT((TODAY()-D98)/365.25)</f>
+        <f t="shared" ref="E98:E129" ca="1" si="15">INT((TODAY()-D98)/365.25)</f>
         <v>88</v>
       </c>
       <c r="F98" s="45">
@@ -18629,21 +19119,21 @@
         <v>4</v>
       </c>
       <c r="U98" s="45">
-        <f t="shared" ref="U98:U129" si="15">IF(S98=T98,1,0)</f>
+        <f t="shared" ref="U98:U129" si="16">IF(S98=T98,1,0)</f>
         <v>1</v>
       </c>
       <c r="V98" s="45">
         <v>4</v>
       </c>
       <c r="W98" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X98" s="45">
         <v>4</v>
       </c>
       <c r="Y98" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z98" s="45">
@@ -18653,8 +19143,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB98" s="45"/>
-      <c r="AC98" s="45"/>
+      <c r="AB98" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC98" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD98" s="45"/>
       <c r="AE98" s="45"/>
       <c r="AF98" s="30"/>
@@ -18767,7 +19262,7 @@
         <v>9533</v>
       </c>
       <c r="E99" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>88</v>
       </c>
       <c r="F99" s="17">
@@ -18814,21 +19309,21 @@
         <v>1</v>
       </c>
       <c r="U99" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V99" s="17">
         <v>1</v>
       </c>
       <c r="W99" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X99" s="17">
         <v>1</v>
       </c>
       <c r="Y99" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z99" s="17">
@@ -18838,8 +19333,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
+      <c r="AB99" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD99" s="17"/>
       <c r="AE99" s="17"/>
       <c r="DH99" s="6"/>
@@ -18873,7 +19373,7 @@
         <v>9533</v>
       </c>
       <c r="E100" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>88</v>
       </c>
       <c r="F100" s="17">
@@ -18920,7 +19420,7 @@
         <v>2</v>
       </c>
       <c r="U100" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V100" s="17">
@@ -18934,7 +19434,7 @@
         <v>2</v>
       </c>
       <c r="Y100" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z100" s="17">
@@ -18944,8 +19444,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB100" s="17"/>
-      <c r="AC100" s="17"/>
+      <c r="AB100" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC100" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD100" s="17"/>
       <c r="AE100" s="17"/>
       <c r="AF100" s="36"/>
@@ -19059,7 +19564,7 @@
         <v>9533</v>
       </c>
       <c r="E101" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>88</v>
       </c>
       <c r="F101" s="17">
@@ -19106,21 +19611,21 @@
         <v>3</v>
       </c>
       <c r="U101" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V101" s="17">
         <v>3</v>
       </c>
       <c r="W101" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X101" s="17">
         <v>3</v>
       </c>
       <c r="Y101" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z101" s="17">
@@ -19130,8 +19635,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
+      <c r="AB101" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC101" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD101" s="17"/>
       <c r="AE101" s="17"/>
       <c r="DH101" s="6"/>
@@ -19165,7 +19675,7 @@
         <v>9533</v>
       </c>
       <c r="E102" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>88</v>
       </c>
       <c r="F102" s="17">
@@ -19212,21 +19722,21 @@
         <v>5</v>
       </c>
       <c r="U102" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V102" s="17">
         <v>5</v>
       </c>
       <c r="W102" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X102" s="17">
         <v>5</v>
       </c>
       <c r="Y102" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z102" s="17">
@@ -19236,8 +19746,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB102" s="17"/>
-      <c r="AC102" s="17"/>
+      <c r="AB102" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD102" s="17"/>
       <c r="AE102" s="17"/>
       <c r="AF102" s="36"/>
@@ -19351,7 +19866,7 @@
         <v>9533</v>
       </c>
       <c r="E103" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>88</v>
       </c>
       <c r="F103" s="17">
@@ -19398,21 +19913,21 @@
         <v>4</v>
       </c>
       <c r="U103" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V103" s="17">
         <v>4</v>
       </c>
       <c r="W103" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X103" s="17">
         <v>4</v>
       </c>
       <c r="Y103" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z103" s="17">
@@ -19422,8 +19937,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB103" s="17"/>
-      <c r="AC103" s="17"/>
+      <c r="AB103" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC103" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD103" s="17"/>
       <c r="AE103" s="17"/>
       <c r="DH103" s="6"/>
@@ -19457,7 +19977,7 @@
         <v>13650</v>
       </c>
       <c r="E104" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F104" s="45">
@@ -19504,7 +20024,7 @@
         <v>6</v>
       </c>
       <c r="U104" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V104" s="45">
@@ -19518,7 +20038,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z104" s="45">
@@ -19528,8 +20048,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="45"/>
+      <c r="AB104" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC104" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD104" s="45"/>
       <c r="AE104" s="45"/>
       <c r="AF104" s="36"/>
@@ -19642,7 +20167,7 @@
         <v>13650</v>
       </c>
       <c r="E105" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F105" s="45">
@@ -19689,21 +20214,21 @@
         <v>3</v>
       </c>
       <c r="U105" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V105" s="45">
         <v>5</v>
       </c>
       <c r="W105" s="45">
-        <f t="shared" ref="W105:W154" si="16">IF(V105=S105,1,0)</f>
+        <f t="shared" ref="W105:W154" si="17">IF(V105=S105,1,0)</f>
         <v>0</v>
       </c>
       <c r="X105" s="45">
         <v>3</v>
       </c>
       <c r="Y105" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z105" s="45">
@@ -19713,8 +20238,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB105" s="45"/>
-      <c r="AC105" s="45"/>
+      <c r="AB105" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC105" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD105" s="45"/>
       <c r="AE105" s="45"/>
       <c r="AF105" s="29"/>
@@ -19827,7 +20357,7 @@
         <v>13650</v>
       </c>
       <c r="E106" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F106" s="45">
@@ -19874,21 +20404,21 @@
         <v>5</v>
       </c>
       <c r="U106" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V106" s="45">
         <v>4</v>
       </c>
       <c r="W106" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X106" s="45">
         <v>5</v>
       </c>
       <c r="Y106" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z106" s="45">
@@ -19898,8 +20428,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB106" s="45"/>
-      <c r="AC106" s="45"/>
+      <c r="AB106" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC106" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD106" s="45"/>
       <c r="AE106" s="45"/>
       <c r="AF106" s="36"/>
@@ -20012,7 +20547,7 @@
         <v>13650</v>
       </c>
       <c r="E107" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F107" s="45">
@@ -20059,21 +20594,21 @@
         <v>4</v>
       </c>
       <c r="U107" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V107" s="45">
         <v>1</v>
       </c>
       <c r="W107" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X107" s="45">
         <v>2</v>
       </c>
       <c r="Y107" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z107" s="45">
@@ -20083,8 +20618,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB107" s="45"/>
-      <c r="AC107" s="45"/>
+      <c r="AB107" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC107" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD107" s="45"/>
       <c r="AE107" s="45"/>
       <c r="AF107" s="29"/>
@@ -20197,7 +20737,7 @@
         <v>13650</v>
       </c>
       <c r="E108" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F108" s="45">
@@ -20244,21 +20784,21 @@
         <v>1</v>
       </c>
       <c r="U108" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V108" s="45">
         <v>2</v>
       </c>
       <c r="W108" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X108" s="45">
         <v>1</v>
       </c>
       <c r="Y108" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z108" s="45">
@@ -20268,8 +20808,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB108" s="45"/>
-      <c r="AC108" s="45"/>
+      <c r="AB108" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC108" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD108" s="45"/>
       <c r="AE108" s="45"/>
       <c r="AF108" s="22"/>
@@ -20382,7 +20927,7 @@
         <v>13650</v>
       </c>
       <c r="E109" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>77</v>
       </c>
       <c r="F109" s="45">
@@ -20429,21 +20974,21 @@
         <v>2</v>
       </c>
       <c r="U109" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V109" s="45">
         <v>3</v>
       </c>
       <c r="W109" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X109" s="45">
         <v>6</v>
       </c>
       <c r="Y109" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z109" s="45">
@@ -20453,8 +20998,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB109" s="45"/>
-      <c r="AC109" s="45"/>
+      <c r="AB109" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD109" s="45"/>
       <c r="AE109" s="45"/>
       <c r="AF109" s="22"/>
@@ -20567,7 +21117,7 @@
         <v>10933</v>
       </c>
       <c r="E110" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F110" s="17">
@@ -20614,21 +21164,21 @@
         <v>2</v>
       </c>
       <c r="U110" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V110" s="17">
         <v>1</v>
       </c>
       <c r="W110" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X110" s="17">
         <v>2</v>
       </c>
       <c r="Y110" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z110" s="17">
@@ -20638,8 +21188,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="17"/>
+      <c r="AB110" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC110" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD110" s="17"/>
       <c r="AE110" s="17"/>
       <c r="AF110" s="22"/>
@@ -20752,7 +21307,7 @@
         <v>10933</v>
       </c>
       <c r="E111" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F111" s="17">
@@ -20799,21 +21354,21 @@
         <v>1</v>
       </c>
       <c r="U111" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V111" s="17">
         <v>2</v>
       </c>
       <c r="W111" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X111" s="17">
         <v>1</v>
       </c>
       <c r="Y111" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z111" s="17">
@@ -20823,8 +21378,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB111" s="17"/>
-      <c r="AC111" s="17"/>
+      <c r="AB111" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD111" s="17"/>
       <c r="AE111" s="17"/>
       <c r="AF111" s="22"/>
@@ -20937,7 +21497,7 @@
         <v>11052</v>
       </c>
       <c r="E112" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F112" s="45">
@@ -20984,21 +21544,21 @@
         <v>3</v>
       </c>
       <c r="U112" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V112" s="45">
         <v>3</v>
       </c>
       <c r="W112" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X112" s="45">
         <v>4</v>
       </c>
       <c r="Y112" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z112" s="45">
@@ -21008,8 +21568,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB112" s="45"/>
-      <c r="AC112" s="45"/>
+      <c r="AB112" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC112" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD112" s="45"/>
       <c r="AE112" s="45"/>
       <c r="AF112" s="22"/>
@@ -21122,7 +21687,7 @@
         <v>11052</v>
       </c>
       <c r="E113" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F113" s="45">
@@ -21169,21 +21734,21 @@
         <v>2</v>
       </c>
       <c r="U113" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V113" s="45">
         <v>2</v>
       </c>
       <c r="W113" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X113" s="45">
         <v>2</v>
       </c>
       <c r="Y113" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z113" s="45">
@@ -21193,8 +21758,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB113" s="45"/>
-      <c r="AC113" s="45"/>
+      <c r="AB113" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC113" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD113" s="45"/>
       <c r="AE113" s="45"/>
       <c r="AF113" s="29"/>
@@ -21307,7 +21877,7 @@
         <v>11052</v>
       </c>
       <c r="E114" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F114" s="45">
@@ -21354,21 +21924,21 @@
         <v>1</v>
       </c>
       <c r="U114" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V114" s="45">
         <v>1</v>
       </c>
       <c r="W114" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X114" s="45">
         <v>1</v>
       </c>
       <c r="Y114" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z114" s="45">
@@ -21378,8 +21948,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB114" s="45"/>
-      <c r="AC114" s="45"/>
+      <c r="AB114" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD114" s="45"/>
       <c r="AE114" s="45"/>
       <c r="AF114" s="29"/>
@@ -21492,7 +22067,7 @@
         <v>11052</v>
       </c>
       <c r="E115" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F115" s="45">
@@ -21539,7 +22114,7 @@
         <v>4</v>
       </c>
       <c r="U115" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V115" s="45">
@@ -21553,7 +22128,7 @@
         <v>3</v>
       </c>
       <c r="Y115" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z115" s="45">
@@ -21563,8 +22138,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB115" s="45"/>
-      <c r="AC115" s="45"/>
+      <c r="AB115" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC115" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD115" s="45"/>
       <c r="AE115" s="45"/>
       <c r="AF115" s="29"/>
@@ -21677,7 +22257,7 @@
         <v>11052</v>
       </c>
       <c r="E116" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F116" s="45">
@@ -21724,21 +22304,21 @@
         <v>2</v>
       </c>
       <c r="U116" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V116" s="45">
         <v>3</v>
       </c>
       <c r="W116" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X116" s="45">
         <v>4</v>
       </c>
       <c r="Y116" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z116" s="45">
@@ -21748,8 +22328,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB116" s="45"/>
-      <c r="AC116" s="45"/>
+      <c r="AB116" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC116" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD116" s="45"/>
       <c r="AE116" s="45"/>
       <c r="AF116" s="29"/>
@@ -21862,7 +22447,7 @@
         <v>11052</v>
       </c>
       <c r="E117" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F117" s="45">
@@ -21909,21 +22494,21 @@
         <v>3</v>
       </c>
       <c r="U117" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V117" s="45">
         <v>2</v>
       </c>
       <c r="W117" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X117" s="45">
         <v>2</v>
       </c>
       <c r="Y117" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z117" s="45">
@@ -21933,8 +22518,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB117" s="45"/>
-      <c r="AC117" s="45"/>
+      <c r="AB117" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC117" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD117" s="45"/>
       <c r="AE117" s="45"/>
       <c r="AF117" s="56"/>
@@ -22047,7 +22637,7 @@
         <v>11052</v>
       </c>
       <c r="E118" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F118" s="45">
@@ -22094,21 +22684,21 @@
         <v>1</v>
       </c>
       <c r="U118" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V118" s="45">
         <v>1</v>
       </c>
       <c r="W118" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X118" s="45">
         <v>1</v>
       </c>
       <c r="Y118" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z118" s="45">
@@ -22118,8 +22708,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB118" s="45"/>
-      <c r="AC118" s="45"/>
+      <c r="AB118" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC118" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD118" s="45"/>
       <c r="AE118" s="45"/>
       <c r="AF118" s="56"/>
@@ -22232,7 +22827,7 @@
         <v>11052</v>
       </c>
       <c r="E119" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>84</v>
       </c>
       <c r="F119" s="45">
@@ -22279,21 +22874,21 @@
         <v>4</v>
       </c>
       <c r="U119" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V119" s="45">
         <v>4</v>
       </c>
       <c r="W119" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X119" s="45">
         <v>3</v>
       </c>
       <c r="Y119" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z119" s="45">
@@ -22303,8 +22898,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB119" s="45"/>
-      <c r="AC119" s="45"/>
+      <c r="AB119" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD119" s="45"/>
       <c r="AE119" s="45"/>
       <c r="AF119" s="56"/>
@@ -22417,7 +23017,7 @@
         <v>12776</v>
       </c>
       <c r="E120" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F120" s="17">
@@ -22464,21 +23064,21 @@
         <v>1</v>
       </c>
       <c r="U120" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V120" s="17">
         <v>1</v>
       </c>
       <c r="W120" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X120" s="17">
         <v>1</v>
       </c>
       <c r="Y120" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z120" s="17">
@@ -22488,8 +23088,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB120" s="17"/>
-      <c r="AC120" s="17"/>
+      <c r="AB120" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD120" s="17"/>
       <c r="AE120" s="17"/>
       <c r="AF120" s="56"/>
@@ -22602,7 +23207,7 @@
         <v>12776</v>
       </c>
       <c r="E121" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F121" s="17">
@@ -22649,21 +23254,21 @@
         <v>2</v>
       </c>
       <c r="U121" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V121" s="17">
         <v>4</v>
       </c>
       <c r="W121" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X121" s="17">
         <v>3</v>
       </c>
       <c r="Y121" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z121" s="17">
@@ -22673,8 +23278,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
+      <c r="AB121" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC121" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD121" s="17"/>
       <c r="AE121" s="17"/>
       <c r="AF121" s="56"/>
@@ -22787,7 +23397,7 @@
         <v>12776</v>
       </c>
       <c r="E122" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F122" s="17">
@@ -22834,21 +23444,21 @@
         <v>3</v>
       </c>
       <c r="U122" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V122" s="17">
         <v>2</v>
       </c>
       <c r="W122" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X122" s="17">
         <v>2</v>
       </c>
       <c r="Y122" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z122" s="17">
@@ -22858,8 +23468,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB122" s="17"/>
-      <c r="AC122" s="17"/>
+      <c r="AB122" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC122" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD122" s="17"/>
       <c r="AE122" s="17"/>
       <c r="AF122" s="29"/>
@@ -22972,7 +23587,7 @@
         <v>12776</v>
       </c>
       <c r="E123" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F123" s="17">
@@ -23019,21 +23634,21 @@
         <v>4</v>
       </c>
       <c r="U123" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V123" s="17">
         <v>3</v>
       </c>
       <c r="W123" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X123" s="17">
         <v>4</v>
       </c>
       <c r="Y123" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z123" s="17">
@@ -23043,8 +23658,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB123" s="17"/>
-      <c r="AC123" s="17"/>
+      <c r="AB123" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC123" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD123" s="17"/>
       <c r="AE123" s="17"/>
       <c r="AF123" s="37"/>
@@ -23158,7 +23778,7 @@
         <v>12776</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F124" s="17">
@@ -23205,21 +23825,21 @@
         <v>1</v>
       </c>
       <c r="U124" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V124" s="17">
         <v>1</v>
       </c>
       <c r="W124" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X124" s="17">
         <v>1</v>
       </c>
       <c r="Y124" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z124" s="17">
@@ -23229,8 +23849,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB124" s="17"/>
-      <c r="AC124" s="17"/>
+      <c r="AB124" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="AD124" s="17"/>
       <c r="AE124" s="17"/>
       <c r="AF124" s="37"/>
@@ -23344,7 +23969,7 @@
         <v>12776</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F125" s="17">
@@ -23391,21 +24016,21 @@
         <v>2</v>
       </c>
       <c r="U125" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V125" s="17">
         <v>3</v>
       </c>
       <c r="W125" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X125" s="17">
         <v>2</v>
       </c>
       <c r="Y125" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z125" s="17">
@@ -23415,8 +24040,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB125" s="17"/>
-      <c r="AC125" s="17"/>
+      <c r="AB125" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC125" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD125" s="17"/>
       <c r="AE125" s="17"/>
       <c r="AF125" s="37"/>
@@ -23530,7 +24160,7 @@
         <v>12776</v>
       </c>
       <c r="E126" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F126" s="17">
@@ -23577,7 +24207,7 @@
         <v>4</v>
       </c>
       <c r="U126" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V126" s="17">
@@ -23591,7 +24221,7 @@
         <v>3</v>
       </c>
       <c r="Y126" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z126" s="17">
@@ -23601,8 +24231,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB126" s="17"/>
-      <c r="AC126" s="17"/>
+      <c r="AB126" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC126" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD126" s="17"/>
       <c r="AE126" s="17"/>
       <c r="AF126" s="37"/>
@@ -23716,7 +24351,7 @@
         <v>12776</v>
       </c>
       <c r="E127" s="52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>79</v>
       </c>
       <c r="F127" s="17">
@@ -23763,21 +24398,21 @@
         <v>3</v>
       </c>
       <c r="U127" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V127" s="17">
         <v>2</v>
       </c>
       <c r="W127" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X127" s="17">
         <v>4</v>
       </c>
       <c r="Y127" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z127" s="17">
@@ -23787,8 +24422,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB127" s="17"/>
-      <c r="AC127" s="17"/>
+      <c r="AB127" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC127" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD127" s="17"/>
       <c r="AE127" s="17"/>
       <c r="AF127" s="37"/>
@@ -23901,7 +24541,7 @@
         <v>12079</v>
       </c>
       <c r="E128" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F128" s="45">
@@ -23948,21 +24588,21 @@
         <v>4</v>
       </c>
       <c r="U128" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V128" s="45">
         <v>6</v>
       </c>
       <c r="W128" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X128" s="45">
         <v>6</v>
       </c>
       <c r="Y128" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z128" s="45">
@@ -23972,8 +24612,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB128" s="45"/>
-      <c r="AC128" s="45"/>
+      <c r="AB128" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC128" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD128" s="45"/>
       <c r="AE128" s="45"/>
       <c r="XEO128" s="42"/>
@@ -24006,7 +24651,7 @@
         <v>12079</v>
       </c>
       <c r="E129" s="44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>81</v>
       </c>
       <c r="F129" s="45">
@@ -24053,21 +24698,21 @@
         <v>1</v>
       </c>
       <c r="U129" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V129" s="45">
         <v>4</v>
       </c>
       <c r="W129" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X129" s="45">
         <v>5</v>
       </c>
       <c r="Y129" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z129" s="45">
@@ -24077,8 +24722,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB129" s="45"/>
-      <c r="AC129" s="45"/>
+      <c r="AB129" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC129" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD129" s="45"/>
       <c r="AE129" s="45"/>
       <c r="XEO129" s="42"/>
@@ -24111,7 +24761,7 @@
         <v>12079</v>
       </c>
       <c r="E130" s="44">
-        <f t="shared" ref="E130:E154" ca="1" si="17">INT((TODAY()-D130)/365.25)</f>
+        <f t="shared" ref="E130:E154" ca="1" si="18">INT((TODAY()-D130)/365.25)</f>
         <v>81</v>
       </c>
       <c r="F130" s="45">
@@ -24158,32 +24808,37 @@
         <v>6</v>
       </c>
       <c r="U130" s="45">
-        <f t="shared" ref="U130:U154" si="18">IF(S130=T130,1,0)</f>
+        <f t="shared" ref="U130:U154" si="19">IF(S130=T130,1,0)</f>
         <v>0</v>
       </c>
       <c r="V130" s="45">
         <v>5</v>
       </c>
       <c r="W130" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X130" s="45">
         <v>4</v>
       </c>
       <c r="Y130" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z130" s="45">
         <v>5</v>
       </c>
       <c r="AA130" s="45">
-        <f t="shared" ref="AA130:AA153" si="19">IF(Z130=$S130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB130" s="45"/>
-      <c r="AC130" s="45"/>
+        <f t="shared" ref="AA130:AA153" si="20">IF(Z130=$S130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC130" s="45">
+        <f t="shared" ref="AC130:AC154" si="21">IF(AB130=$S130,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AD130" s="45"/>
       <c r="AE130" s="45"/>
       <c r="AF130" s="29"/>
@@ -24296,7 +24951,7 @@
         <v>12079</v>
       </c>
       <c r="E131" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F131" s="45">
@@ -24343,32 +24998,37 @@
         <v>2</v>
       </c>
       <c r="U131" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V131" s="45">
         <v>3</v>
       </c>
       <c r="W131" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X131" s="45">
         <v>3</v>
       </c>
       <c r="Y131" s="45">
-        <f t="shared" ref="Y131:Y154" si="20">IF(X131=S131,1,0)</f>
+        <f t="shared" ref="Y131:Y154" si="22">IF(X131=S131,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z131" s="45">
         <v>3</v>
       </c>
       <c r="AA131" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB131" s="45"/>
-      <c r="AC131" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC131" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD131" s="45"/>
       <c r="AE131" s="45"/>
       <c r="AF131" s="37"/>
@@ -24481,7 +25141,7 @@
         <v>12079</v>
       </c>
       <c r="E132" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F132" s="45">
@@ -24528,32 +25188,37 @@
         <v>3</v>
       </c>
       <c r="U132" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V132" s="45">
         <v>2</v>
       </c>
       <c r="W132" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X132" s="45">
         <v>2</v>
       </c>
       <c r="Y132" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="45">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z132" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA132" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB132" s="45"/>
-      <c r="AC132" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="AB132" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD132" s="45"/>
       <c r="AE132" s="45"/>
       <c r="AF132" s="29"/>
@@ -24666,7 +25331,7 @@
         <v>12079</v>
       </c>
       <c r="E133" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F133" s="45">
@@ -24713,7 +25378,7 @@
         <v>5</v>
       </c>
       <c r="U133" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V133" s="45">
@@ -24727,18 +25392,23 @@
         <v>1</v>
       </c>
       <c r="Y133" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z133" s="45">
         <v>2</v>
       </c>
       <c r="AA133" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB133" s="45"/>
-      <c r="AC133" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB133" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC133" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD133" s="45"/>
       <c r="AE133" s="45"/>
       <c r="AF133" s="29"/>
@@ -24851,7 +25521,7 @@
         <v>12079</v>
       </c>
       <c r="E134" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F134" s="45">
@@ -24898,32 +25568,37 @@
         <v>3</v>
       </c>
       <c r="U134" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V134" s="45">
         <v>6</v>
       </c>
       <c r="W134" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X134" s="45">
         <v>3</v>
       </c>
       <c r="Y134" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA134" s="45">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z134" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA134" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB134" s="45"/>
-      <c r="AC134" s="45"/>
+      <c r="AB134" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC134" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD134" s="45"/>
       <c r="AE134" s="45"/>
       <c r="AF134" s="29"/>
@@ -25036,7 +25711,7 @@
         <v>12079</v>
       </c>
       <c r="E135" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F135" s="45">
@@ -25083,32 +25758,37 @@
         <v>1</v>
       </c>
       <c r="U135" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V135" s="45">
         <v>1</v>
       </c>
       <c r="W135" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X135" s="45">
         <v>2</v>
       </c>
       <c r="Y135" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z135" s="45">
         <v>3</v>
       </c>
       <c r="AA135" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB135" s="45"/>
-      <c r="AC135" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB135" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC135" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD135" s="45"/>
       <c r="AE135" s="45"/>
       <c r="AF135" s="29"/>
@@ -25221,7 +25901,7 @@
         <v>12079</v>
       </c>
       <c r="E136" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F136" s="45">
@@ -25268,32 +25948,37 @@
         <v>2</v>
       </c>
       <c r="U136" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V136" s="45">
         <v>4</v>
       </c>
       <c r="W136" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X136" s="45">
         <v>1</v>
       </c>
       <c r="Y136" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z136" s="45">
         <v>2</v>
       </c>
       <c r="AA136" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB136" s="45"/>
-      <c r="AC136" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB136" s="45">
+        <v>6</v>
+      </c>
+      <c r="AC136" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD136" s="45"/>
       <c r="AE136" s="45"/>
       <c r="AF136" s="29"/>
@@ -25406,7 +26091,7 @@
         <v>12079</v>
       </c>
       <c r="E137" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F137" s="45">
@@ -25453,32 +26138,37 @@
         <v>6</v>
       </c>
       <c r="U137" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V137" s="45">
         <v>2</v>
       </c>
       <c r="W137" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X137" s="45">
         <v>5</v>
       </c>
       <c r="Y137" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z137" s="45">
         <v>4</v>
       </c>
       <c r="AA137" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB137" s="45"/>
-      <c r="AC137" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB137" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC137" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD137" s="45"/>
       <c r="AE137" s="45"/>
       <c r="AF137" s="29"/>
@@ -25591,7 +26281,7 @@
         <v>12079</v>
       </c>
       <c r="E138" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F138" s="45">
@@ -25638,32 +26328,37 @@
         <v>4</v>
       </c>
       <c r="U138" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V138" s="45">
         <v>3</v>
       </c>
       <c r="W138" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X138" s="45">
         <v>4</v>
       </c>
       <c r="Y138" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z138" s="45">
         <v>5</v>
       </c>
       <c r="AA138" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB138" s="45"/>
-      <c r="AC138" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB138" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC138" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD138" s="45"/>
       <c r="AE138" s="45"/>
       <c r="XEO138" s="42"/>
@@ -25696,7 +26391,7 @@
         <v>12079</v>
       </c>
       <c r="E139" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>81</v>
       </c>
       <c r="F139" s="45">
@@ -25743,32 +26438,37 @@
         <v>5</v>
       </c>
       <c r="U139" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V139" s="45">
         <v>5</v>
       </c>
       <c r="W139" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X139" s="45">
         <v>6</v>
       </c>
       <c r="Y139" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z139" s="45">
         <v>6</v>
       </c>
       <c r="AA139" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB139" s="45"/>
-      <c r="AC139" s="45"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB139" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC139" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD139" s="45"/>
       <c r="AE139" s="45"/>
       <c r="XEO139" s="42"/>
@@ -25801,7 +26501,7 @@
         <v>12254</v>
       </c>
       <c r="E140" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F140" s="17">
@@ -25848,32 +26548,37 @@
         <v>3</v>
       </c>
       <c r="U140" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V140" s="17">
         <v>5</v>
       </c>
       <c r="W140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X140" s="17">
         <v>1</v>
       </c>
       <c r="Y140" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z140" s="17">
         <v>6</v>
       </c>
       <c r="AA140" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB140" s="17"/>
-      <c r="AC140" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB140" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC140" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD140" s="17"/>
       <c r="AE140" s="17"/>
       <c r="XEO140" s="50"/>
@@ -25906,7 +26611,7 @@
         <v>12254</v>
       </c>
       <c r="E141" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F141" s="17">
@@ -25953,32 +26658,37 @@
         <v>6</v>
       </c>
       <c r="U141" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V141" s="17">
         <v>4</v>
       </c>
       <c r="W141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X141" s="17">
         <v>2</v>
       </c>
       <c r="Y141" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z141" s="17">
         <v>2</v>
       </c>
       <c r="AA141" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB141" s="17"/>
-      <c r="AC141" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB141" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC141" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD141" s="17"/>
       <c r="AE141" s="17"/>
       <c r="XEO141" s="50"/>
@@ -26011,7 +26721,7 @@
         <v>12254</v>
       </c>
       <c r="E142" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F142" s="17">
@@ -26058,32 +26768,37 @@
         <v>5</v>
       </c>
       <c r="U142" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V142" s="17">
         <v>6</v>
       </c>
       <c r="W142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X142" s="17">
         <v>3</v>
       </c>
       <c r="Y142" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z142" s="17">
         <v>4</v>
       </c>
       <c r="AA142" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB142" s="17"/>
-      <c r="AC142" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB142" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC142" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD142" s="17"/>
       <c r="AE142" s="17"/>
       <c r="XEO142" s="50"/>
@@ -26116,7 +26831,7 @@
         <v>12254</v>
       </c>
       <c r="E143" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F143" s="17">
@@ -26163,32 +26878,37 @@
         <v>2</v>
       </c>
       <c r="U143" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V143" s="17">
         <v>1</v>
       </c>
       <c r="W143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X143" s="17">
         <v>4</v>
       </c>
       <c r="Y143" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z143" s="17">
         <v>5</v>
       </c>
       <c r="AA143" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB143" s="17"/>
-      <c r="AC143" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC143" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD143" s="17"/>
       <c r="AE143" s="17"/>
       <c r="XEO143" s="50"/>
@@ -26221,7 +26941,7 @@
         <v>12254</v>
       </c>
       <c r="E144" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F144" s="17">
@@ -26268,7 +26988,7 @@
         <v>1</v>
       </c>
       <c r="U144" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V144" s="17">
@@ -26282,18 +27002,23 @@
         <v>5</v>
       </c>
       <c r="Y144" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z144" s="17">
         <v>3</v>
       </c>
       <c r="AA144" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB144" s="17"/>
-      <c r="AC144" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB144" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC144" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD144" s="17"/>
       <c r="AE144" s="17"/>
       <c r="XEO144" s="50"/>
@@ -26326,7 +27051,7 @@
         <v>12254</v>
       </c>
       <c r="E145" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>80</v>
       </c>
       <c r="F145" s="17">
@@ -26373,32 +27098,37 @@
         <v>4</v>
       </c>
       <c r="U145" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V145" s="17">
         <v>3</v>
       </c>
       <c r="W145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X145" s="17">
         <v>6</v>
       </c>
       <c r="Y145" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="45">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z145" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA145" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB145" s="17"/>
-      <c r="AC145" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB145" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC145" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD145" s="17"/>
       <c r="AE145" s="17"/>
       <c r="XEO145" s="50"/>
@@ -26431,7 +27161,7 @@
         <v>9095</v>
       </c>
       <c r="E146" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F146" s="45">
@@ -26478,7 +27208,7 @@
         <v>3</v>
       </c>
       <c r="U146" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V146" s="45">
@@ -26492,18 +27222,23 @@
         <v>3</v>
       </c>
       <c r="Y146" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z146" s="45">
         <v>3</v>
       </c>
       <c r="AA146" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB146" s="45"/>
-      <c r="AC146" s="45"/>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB146" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC146" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD146" s="45"/>
       <c r="AE146" s="45"/>
       <c r="AF146" s="37"/>
@@ -26616,7 +27351,7 @@
         <v>9095</v>
       </c>
       <c r="E147" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F147" s="45">
@@ -26663,32 +27398,37 @@
         <v>2</v>
       </c>
       <c r="U147" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V147" s="45">
         <v>2</v>
       </c>
       <c r="W147" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X147" s="45">
         <v>1</v>
       </c>
       <c r="Y147" s="45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Z147" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA147" s="45">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Z147" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA147" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB147" s="45"/>
-      <c r="AC147" s="45"/>
+      <c r="AB147" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC147" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD147" s="45"/>
       <c r="AE147" s="45"/>
       <c r="AF147" s="29"/>
@@ -26801,7 +27541,7 @@
         <v>9095</v>
       </c>
       <c r="E148" s="44">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F148" s="45">
@@ -26848,32 +27588,37 @@
         <v>1</v>
       </c>
       <c r="U148" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V148" s="45">
         <v>1</v>
       </c>
       <c r="W148" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X148" s="45">
         <v>2</v>
       </c>
       <c r="Y148" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z148" s="45">
         <v>2</v>
       </c>
       <c r="AA148" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB148" s="45"/>
-      <c r="AC148" s="45"/>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB148" s="45">
+        <v>2</v>
+      </c>
+      <c r="AC148" s="45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
       <c r="AD148" s="45"/>
       <c r="AE148" s="45"/>
       <c r="AF148" s="37"/>
@@ -26986,7 +27731,7 @@
         <v>9079</v>
       </c>
       <c r="E149" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F149" s="17">
@@ -27033,32 +27778,37 @@
         <v>5</v>
       </c>
       <c r="U149" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V149" s="17">
         <v>4</v>
       </c>
       <c r="W149" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X149" s="17">
         <v>6</v>
       </c>
       <c r="Y149" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z149" s="17">
         <v>5</v>
       </c>
       <c r="AA149" s="45">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AB149" s="17"/>
-      <c r="AC149" s="17"/>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB149" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC149" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD149" s="17"/>
       <c r="AE149" s="17"/>
       <c r="AF149" s="29"/>
@@ -27171,7 +27921,7 @@
         <v>9079</v>
       </c>
       <c r="E150" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F150" s="17">
@@ -27218,32 +27968,37 @@
         <v>1</v>
       </c>
       <c r="U150" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V150" s="17">
         <v>1</v>
       </c>
       <c r="W150" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X150" s="17">
         <v>5</v>
       </c>
       <c r="Y150" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z150" s="17">
         <v>2</v>
       </c>
       <c r="AA150" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB150" s="17"/>
-      <c r="AC150" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB150" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC150" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD150" s="17"/>
       <c r="AE150" s="17"/>
       <c r="AF150" s="37"/>
@@ -27356,7 +28111,7 @@
         <v>9079</v>
       </c>
       <c r="E151" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F151" s="17">
@@ -27403,32 +28158,37 @@
         <v>2</v>
       </c>
       <c r="U151" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V151" s="17">
         <v>3</v>
       </c>
       <c r="W151" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X151" s="17">
         <v>4</v>
       </c>
       <c r="Y151" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z151" s="17">
         <v>4</v>
       </c>
       <c r="AA151" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB151" s="45"/>
-      <c r="AC151" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB151" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC151" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD151" s="17"/>
       <c r="AE151" s="17"/>
       <c r="AF151" s="29"/>
@@ -27541,7 +28301,7 @@
         <v>9079</v>
       </c>
       <c r="E152" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F152" s="17">
@@ -27588,32 +28348,37 @@
         <v>3</v>
       </c>
       <c r="U152" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V152" s="17">
         <v>2</v>
       </c>
       <c r="W152" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X152" s="17">
         <v>2</v>
       </c>
       <c r="Y152" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z152" s="17">
         <v>3</v>
       </c>
       <c r="AA152" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB152" s="45"/>
-      <c r="AC152" s="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB152" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD152" s="17"/>
       <c r="AE152" s="17"/>
       <c r="AF152" s="30"/>
@@ -27726,7 +28491,7 @@
         <v>9079</v>
       </c>
       <c r="E153" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F153" s="17">
@@ -27773,32 +28538,37 @@
         <v>4</v>
       </c>
       <c r="U153" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V153" s="17">
         <v>6</v>
       </c>
       <c r="W153" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X153" s="17">
         <v>1</v>
       </c>
       <c r="Y153" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z153" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="45">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z153" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA153" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB153" s="45"/>
-      <c r="AC153" s="17"/>
+      <c r="AB153" s="45">
+        <v>5</v>
+      </c>
+      <c r="AC153" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD153" s="17"/>
       <c r="AE153" s="17"/>
       <c r="AF153" s="29"/>
@@ -27911,7 +28681,7 @@
         <v>9079</v>
       </c>
       <c r="E154" s="52">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>89</v>
       </c>
       <c r="F154" s="17">
@@ -27958,21 +28728,21 @@
         <v>6</v>
       </c>
       <c r="U154" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V154" s="17">
         <v>5</v>
       </c>
       <c r="W154" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X154" s="17">
         <v>3</v>
       </c>
       <c r="Y154" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z154" s="17">
@@ -27982,8 +28752,13 @@
         <f>IF(Z154=$S154,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AB154" s="45"/>
-      <c r="AC154" s="45"/>
+      <c r="AB154" s="45">
+        <v>4</v>
+      </c>
+      <c r="AC154" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AD154" s="17"/>
       <c r="AE154" s="17"/>
       <c r="AF154" s="30"/>
@@ -28251,7 +29026,10 @@
         <v>78</v>
       </c>
       <c r="AB156" s="34"/>
-      <c r="AC156" s="34"/>
+      <c r="AC156" s="34">
+        <f>SUM(AC2:AC154)</f>
+        <v>69</v>
+      </c>
       <c r="AD156" s="34"/>
       <c r="AE156" s="34"/>
       <c r="AF156" s="29"/>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="257">
   <si>
     <t>Patient</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>tom gardner results</t>
+  </si>
+  <si>
+    <t>hgdgh</t>
   </si>
 </sst>
 </file>
@@ -1896,11 +1899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="269851824"/>
-        <c:axId val="272109600"/>
+        <c:axId val="225441728"/>
+        <c:axId val="225442120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="269851824"/>
+        <c:axId val="225441728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272109600"/>
+        <c:crossAx val="225442120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272109600"/>
+        <c:axId val="225442120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269851824"/>
+        <c:crossAx val="225441728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,7 +2276,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W156" sqref="W156"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2396,9 @@
       <c r="AC1" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="AE1" s="38"/>
       <c r="DH1" s="6"/>
       <c r="XEO1" s="39"/>
@@ -17253,7 +17258,7 @@
       </c>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88" s="17">
         <v>100</v>
@@ -17330,7 +17335,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AD88" s="17"/>
+      <c r="AD88" s="17">
+        <v>2</v>
+      </c>
       <c r="AE88" s="17"/>
       <c r="AF88" s="56"/>
       <c r="AG88" s="56"/>
@@ -17443,7 +17450,7 @@
       </c>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F89" s="17">
         <v>50</v>
@@ -17520,7 +17527,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AD89" s="17"/>
+      <c r="AD89" s="17">
+        <v>1</v>
+      </c>
       <c r="AE89" s="17"/>
       <c r="AF89" s="56"/>
       <c r="AG89" s="56"/>
@@ -24619,7 +24628,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD128" s="45"/>
+      <c r="AD128" s="45">
+        <v>6</v>
+      </c>
       <c r="AE128" s="45"/>
       <c r="XEO128" s="42"/>
       <c r="XEP128" s="42"/>
@@ -24729,7 +24740,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD129" s="45"/>
+      <c r="AD129" s="45">
+        <v>2</v>
+      </c>
       <c r="AE129" s="45"/>
       <c r="XEO129" s="42"/>
       <c r="XEP129" s="42"/>
@@ -24839,7 +24852,9 @@
         <f t="shared" ref="AC130:AC154" si="21">IF(AB130=$S130,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AD130" s="45"/>
+      <c r="AD130" s="45">
+        <v>4</v>
+      </c>
       <c r="AE130" s="45"/>
       <c r="AF130" s="29"/>
       <c r="AG130" s="29"/>
@@ -25029,7 +25044,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD131" s="45"/>
+      <c r="AD131" s="45">
+        <v>5</v>
+      </c>
       <c r="AE131" s="45"/>
       <c r="AF131" s="37"/>
       <c r="AG131" s="37"/>
@@ -25219,7 +25236,9 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD132" s="45"/>
+      <c r="AD132" s="45">
+        <v>3</v>
+      </c>
       <c r="AE132" s="45"/>
       <c r="AF132" s="29"/>
       <c r="AG132" s="29"/>
@@ -25409,7 +25428,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD133" s="45"/>
+      <c r="AD133" s="45">
+        <v>1</v>
+      </c>
       <c r="AE133" s="45"/>
       <c r="AF133" s="29"/>
       <c r="AG133" s="29"/>
@@ -44550,7 +44571,7 @@
       </c>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F61" s="17">
         <v>50</v>
@@ -44627,7 +44648,7 @@
       </c>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="17">
         <v>100</v>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -1899,11 +1899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="225441728"/>
-        <c:axId val="225442120"/>
+        <c:axId val="295009792"/>
+        <c:axId val="295010576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225441728"/>
+        <c:axId val="295009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225442120"/>
+        <c:crossAx val="295010576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +1920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225442120"/>
+        <c:axId val="295010576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225441728"/>
+        <c:crossAx val="295009792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,10 +2273,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD154"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="E27" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="45">
         <v>20</v>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E28" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="45">
         <v>20</v>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="E29" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="45">
         <v>20</v>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="E30" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="45">
         <v>40</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="E31" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="45">
         <v>40</v>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E32" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" s="45">
         <v>30</v>
@@ -38050,7 +38050,7 @@
       </c>
       <c r="E21" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="45">
         <v>20</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="E22" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" s="45">
         <v>20</v>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\amd_project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -18,12 +13,12 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="264">
   <si>
     <t>Patient</t>
   </si>
@@ -795,6 +790,27 @@
   <si>
     <t>hgdgh</t>
   </si>
+  <si>
+    <t>Bad Controls:</t>
+  </si>
+  <si>
+    <t>BARR OD 3</t>
+  </si>
+  <si>
+    <t>COMBS OS 1</t>
+  </si>
+  <si>
+    <t>KUKLA OS 2</t>
+  </si>
+  <si>
+    <t>MASIMILLA (1 Image)</t>
+  </si>
+  <si>
+    <t>VINCENT OD 3</t>
+  </si>
+  <si>
+    <t>WHITE OD 3</t>
+  </si>
 </sst>
 </file>
 
@@ -958,7 +974,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1064,6 +1080,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1898,12 +1917,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295009792"/>
-        <c:axId val="295010576"/>
+        <c:axId val="107162624"/>
+        <c:axId val="107168512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295009792"/>
+        <c:axId val="107162624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295010576"/>
+        <c:crossAx val="107168512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295010576"/>
+        <c:axId val="107168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295009792"/>
+        <c:crossAx val="107162624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,7 +2081,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2272,11 +2292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,10 +2441,10 @@
       <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="43">
@@ -2611,10 +2631,10 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="43">
@@ -2801,10 +2821,10 @@
       <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="43">
@@ -4515,10 +4535,10 @@
       <c r="A13" s="38">
         <v>4</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="43">
@@ -5575,10 +5595,10 @@
       <c r="A19" s="38">
         <v>5</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="61" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="43">
@@ -6905,10 +6925,10 @@
       <c r="A26" s="49">
         <v>6</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="51">
@@ -7775,10 +7795,10 @@
       <c r="A31" s="38">
         <v>8</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="43">
@@ -8155,10 +8175,10 @@
       <c r="A33" s="49">
         <v>9</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="51">
@@ -8345,10 +8365,10 @@
       <c r="A34" s="49">
         <v>9</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="51">
@@ -8535,10 +8555,10 @@
       <c r="A35" s="49">
         <v>9</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="51">
@@ -8725,10 +8745,10 @@
       <c r="A36" s="49">
         <v>9</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="51">
@@ -8915,10 +8935,10 @@
       <c r="A37" s="49">
         <v>9</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="51">
@@ -9105,10 +9125,10 @@
       <c r="A38" s="49">
         <v>9</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="51">
@@ -9675,10 +9695,10 @@
       <c r="A41" s="49">
         <v>10</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="51">
@@ -9785,10 +9805,10 @@
       <c r="A42" s="49">
         <v>10</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="61" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="51">
@@ -10225,10 +10245,10 @@
       <c r="A46" s="38">
         <v>11</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="43">
@@ -11175,10 +11195,10 @@
       <c r="A51" s="49">
         <v>12</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="51">
@@ -11365,10 +11385,10 @@
       <c r="A52" s="49">
         <v>12</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="51">
@@ -11476,10 +11496,10 @@
       <c r="A53" s="49">
         <v>13</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="51">
@@ -11587,10 +11607,10 @@
       <c r="A54" s="49">
         <v>13</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="51">
@@ -12189,10 +12209,10 @@
       <c r="A58" s="38">
         <v>14</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="43">
@@ -12599,10 +12619,10 @@
       <c r="A61" s="38">
         <v>15</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="43">
@@ -14227,10 +14247,10 @@
       <c r="A70" s="49">
         <v>17</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="51">
@@ -15287,10 +15307,10 @@
       <c r="A76" s="38">
         <v>18</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="43">
@@ -15887,10 +15907,10 @@
       <c r="A80" s="49">
         <v>20</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="51">
@@ -16077,10 +16097,10 @@
       <c r="A81" s="49">
         <v>20</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="51">
@@ -16267,10 +16287,10 @@
       <c r="A82" s="38">
         <v>21</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="43">
@@ -16487,10 +16507,10 @@
       <c r="A84" s="38">
         <v>21</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="43">
@@ -17057,10 +17077,10 @@
       <c r="A87" s="38">
         <v>21</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="43">
@@ -17439,10 +17459,10 @@
       <c r="A89" s="49">
         <v>22</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="51">
@@ -17821,10 +17841,10 @@
       <c r="A91" s="49">
         <v>23</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="51">
@@ -19372,10 +19392,10 @@
       <c r="A100" s="49">
         <v>25</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="51">
@@ -20356,10 +20376,10 @@
       <c r="A106" s="49">
         <v>26</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="43">
@@ -21306,10 +21326,10 @@
       <c r="A111" s="49">
         <v>27</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="51">
@@ -22066,10 +22086,10 @@
       <c r="A115" s="49">
         <v>28</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="42" t="s">
+      <c r="C115" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="43">
@@ -22826,10 +22846,10 @@
       <c r="A119" s="49">
         <v>29</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="43">
@@ -25722,10 +25742,10 @@
       <c r="A135" s="49">
         <v>33</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="61" t="s">
         <v>22</v>
       </c>
       <c r="D135" s="43">
@@ -26523,7 +26543,7 @@
       </c>
       <c r="E140" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F140" s="17">
         <v>25</v>
@@ -26622,10 +26642,10 @@
       <c r="A141" s="49">
         <v>34</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C141" s="50" t="s">
+      <c r="C141" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="51">
@@ -26633,7 +26653,7 @@
       </c>
       <c r="E141" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F141" s="17">
         <v>32</v>
@@ -26732,10 +26752,10 @@
       <c r="A142" s="49">
         <v>34</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="50" t="s">
+      <c r="C142" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="51">
@@ -26743,7 +26763,7 @@
       </c>
       <c r="E142" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F142" s="17">
         <v>25</v>
@@ -26842,10 +26862,10 @@
       <c r="A143" s="49">
         <v>34</v>
       </c>
-      <c r="B143" s="50" t="s">
+      <c r="B143" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="50" t="s">
+      <c r="C143" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="51">
@@ -26853,7 +26873,7 @@
       </c>
       <c r="E143" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F143" s="17">
         <v>25</v>
@@ -26952,10 +26972,10 @@
       <c r="A144" s="49">
         <v>34</v>
       </c>
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C144" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="51">
@@ -26963,7 +26983,7 @@
       </c>
       <c r="E144" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F144" s="17">
         <v>25</v>
@@ -27073,7 +27093,7 @@
       </c>
       <c r="E145" s="52">
         <f t="shared" ca="1" si="18"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F145" s="17">
         <v>40</v>
@@ -28692,10 +28712,10 @@
       <c r="A154" s="49">
         <v>36</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C154" s="50" t="s">
+      <c r="C154" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="51">
@@ -28880,7 +28900,9 @@
     </row>
     <row r="155" spans="1:112 16369:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
+      <c r="B155" s="31" t="s">
+        <v>257</v>
+      </c>
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="E155" s="33"/>
@@ -29009,7 +29031,9 @@
     </row>
     <row r="156" spans="1:112 16369:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="31"/>
-      <c r="B156" s="31"/>
+      <c r="B156" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="E156" s="33"/>
@@ -29151,7 +29175,9 @@
     </row>
     <row r="157" spans="1:112 16369:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="31"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="33"/>
@@ -29279,7 +29305,9 @@
     </row>
     <row r="158" spans="1:112 16369:16383" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="31"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="31" t="s">
+        <v>260</v>
+      </c>
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="E158" s="33"/>
@@ -29407,7 +29435,9 @@
     </row>
     <row r="159" spans="1:112 16369:16383" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="31"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="31" t="s">
+        <v>261</v>
+      </c>
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="E159" s="33"/>
@@ -29535,7 +29565,9 @@
     </row>
     <row r="160" spans="1:112 16369:16383" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
+      <c r="B160" s="31" t="s">
+        <v>262</v>
+      </c>
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="E160" s="33"/>
@@ -29663,7 +29695,9 @@
     </row>
     <row r="161" spans="1:112 16369:16383" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="31"/>
-      <c r="B161" s="31"/>
+      <c r="B161" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="E161" s="33"/>
@@ -51958,7 +51992,7 @@
       </c>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="17"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="17">
         <v>40</v>
@@ -52128,7 +52162,7 @@
       </c>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="17"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F106" s="17">
         <v>25</v>
@@ -52298,7 +52332,7 @@
       </c>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="17"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F107" s="17">
         <v>32</v>

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -1919,11 +1919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107162624"/>
-        <c:axId val="107168512"/>
+        <c:axId val="104934784"/>
+        <c:axId val="104940672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107162624"/>
+        <c:axId val="104934784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107168512"/>
+        <c:crossAx val="104940672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1940,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107168512"/>
+        <c:axId val="104940672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107162624"/>
+        <c:crossAx val="104934784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2293,10 +2293,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13297,10 +13297,10 @@
       <c r="A65" s="38">
         <v>15</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="43">

--- a/Database of all images.xlsx
+++ b/Database of all images.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="265">
   <si>
     <t>Patient</t>
   </si>
@@ -811,12 +811,15 @@
   <si>
     <t>WHITE OD 3</t>
   </si>
+  <si>
+    <t>Labeled Everything</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,8 +869,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +921,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -969,12 +983,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1085,8 +1100,15 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -1919,11 +1941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104934784"/>
-        <c:axId val="104940672"/>
+        <c:axId val="93093248"/>
+        <c:axId val="93115520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104934784"/>
+        <c:axId val="93093248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104940672"/>
+        <c:crossAx val="93115520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1940,7 +1962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104940672"/>
+        <c:axId val="93115520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104934784"/>
+        <c:crossAx val="93093248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2293,10 +2315,10 @@
   <dimension ref="A1:XFC172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65:C65"/>
+      <selection pane="bottomRight" activeCell="S44" activeCellId="1" sqref="S39:S40 S43:S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,8 +2335,9 @@
     <col min="10" max="10" width="13.875" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.75" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="12.125" style="33" customWidth="1"/>
-    <col min="16" max="17" width="9" style="34" customWidth="1"/>
-    <col min="18" max="18" width="9" style="29" customWidth="1"/>
+    <col min="16" max="16" width="9" style="34" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="34" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="29" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="9" style="34" customWidth="1"/>
     <col min="21" max="21" width="12.625" style="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="34" customWidth="1"/>
@@ -7115,10 +7138,10 @@
       <c r="A27" s="38">
         <v>7</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="43">
@@ -7305,10 +7328,10 @@
       <c r="A28" s="38">
         <v>7</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="43">
@@ -7415,10 +7438,10 @@
       <c r="A29" s="38">
         <v>7</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="43">
@@ -7605,10 +7628,10 @@
       <c r="A30" s="38">
         <v>8</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="43">
@@ -7985,10 +8008,10 @@
       <c r="A32" s="38">
         <v>8</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="63" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="43">
@@ -9315,10 +9338,10 @@
       <c r="A39" s="49">
         <v>10</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="51">
@@ -9505,10 +9528,10 @@
       <c r="A40" s="49">
         <v>10</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="63" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="51">
@@ -9915,10 +9938,10 @@
       <c r="A43" s="49">
         <v>10</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="51">
@@ -10025,10 +10048,10 @@
       <c r="A44" s="49">
         <v>10</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="51">
@@ -10135,10 +10158,10 @@
       <c r="A45" s="38">
         <v>11</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="43">
@@ -10435,10 +10458,10 @@
       <c r="A47" s="38">
         <v>11</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="43">
@@ -10625,10 +10648,10 @@
       <c r="A48" s="38">
         <v>11</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="43">
@@ -10815,10 +10838,10 @@
       <c r="A49" s="38">
         <v>11</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="63" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="43">
@@ -11005,10 +11028,10 @@
       <c r="A50" s="38">
         <v>11</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="63" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="43">
@@ -11718,10 +11741,10 @@
       <c r="A55" s="38">
         <v>14</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="43">
@@ -11829,10 +11852,10 @@
       <c r="A56" s="38">
         <v>14</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="43">
@@ -12019,10 +12042,10 @@
       <c r="A57" s="38">
         <v>14</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="43">
@@ -12509,10 +12532,10 @@
       <c r="A60" s="38">
         <v>15</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="43">
@@ -12727,10 +12750,10 @@
       <c r="A62" s="38">
         <v>15</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="43">
@@ -12917,10 +12940,10 @@
       <c r="A63" s="38">
         <v>15</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="43">
@@ -13107,10 +13130,10 @@
       <c r="A64" s="38">
         <v>15</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="43">
@@ -17267,10 +17290,10 @@
       <c r="A88" s="49">
         <v>22</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="51">
@@ -29322,7 +29345,9 @@
       <c r="N158" s="33"/>
       <c r="O158" s="33"/>
       <c r="P158" s="34"/>
-      <c r="Q158" s="34"/>
+      <c r="Q158" s="62" t="s">
+        <v>264</v>
+      </c>
       <c r="R158" s="29"/>
       <c r="S158" s="34"/>
       <c r="T158" s="34"/>
